--- a/public/materials/funding/2020-ari-sfy21/ARISFY21Budget.xlsx
+++ b/public/materials/funding/2020-ari-sfy21/ARISFY21Budget.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="P:\Adult Redeploy Illinois\SFY21 NOFO\NOFO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Newuser\Documents\SW\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8637A26B-0116-4177-809A-4BCF0467034E}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3CC60B9E-53DD-45B8-97BB-8480E4CBC258}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="941" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Section A - ICJIA Funds" sheetId="1" r:id="rId1"/>
@@ -6921,6 +6921,68 @@
     <xf numFmtId="0" fontId="16" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -6941,6 +7003,10 @@
       <alignment vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="65" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -6950,118 +7016,89 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="3" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="3"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
-    </xf>
-    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="43" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="170" fontId="43" fillId="8" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7080,83 +7117,113 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
+    </xf>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1" indent="3"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="16" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="2"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" wrapText="1" indent="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="43" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="8" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="43" fillId="8" borderId="0" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="170" fontId="43" fillId="8" borderId="46" xfId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7175,77 +7242,6 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="3" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="16" fillId="3" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="2"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="30" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="6" fillId="3" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="3" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" wrapText="1" indent="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="29" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="3" fillId="3" borderId="41" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="33" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="21" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="43" fontId="13" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7289,17 +7285,252 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="0" fontId="22" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="1" fontId="2" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="168" fontId="2" fillId="6" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center" wrapText="1"/>
@@ -7356,233 +7587,6 @@
       <alignment horizontal="right" vertical="center"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="74" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="6" borderId="70" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="104" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="81" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="82" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="101" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="102" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="103" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="55" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="56" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="57" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="58" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="100" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="78" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="98" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="justify" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="97" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="77" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="96" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="84" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="85" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="99" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="75" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="72" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="2" fillId="0" borderId="76" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="80" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="96" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="97" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="79" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="76" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="71" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="73" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="76" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="1" fontId="2" fillId="6" borderId="80" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
     </xf>
@@ -7624,6 +7628,68 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="69" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -7649,68 +7715,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="26" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="87" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="83" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="74" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="79" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="76" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="80" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="88" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="84" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -7719,6 +7723,33 @@
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="26" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
@@ -7750,33 +7781,6 @@
     <xf numFmtId="0" fontId="26" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="51" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="52" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="73" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="53" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="59" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="60" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="0" borderId="55" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="23" fillId="6" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection locked="0"/>
@@ -7808,12 +7812,27 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="9" fontId="24" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -7822,21 +7841,6 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="31" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="23" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -7864,10 +7868,6 @@
       <alignment wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="63" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
@@ -7876,19 +7876,51 @@
     <xf numFmtId="0" fontId="27" fillId="0" borderId="93" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="89" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="90" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="54" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="50" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="54" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="64" fillId="0" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center"/>
-    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="81" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="82" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="77" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="114" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="115" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="46" fillId="0" borderId="74" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
@@ -7898,48 +7930,29 @@
     <xf numFmtId="0" fontId="46" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="107" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="108" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="70" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="46" fillId="0" borderId="109" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyProtection="1"/>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -7947,21 +7960,8 @@
     <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="43" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="65" fillId="7" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -9806,28 +9806,28 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="428" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="430" t="s">
+      <c r="A1" s="449" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="450"/>
+      <c r="C1" s="451" t="s">
         <v>253</v>
       </c>
-      <c r="D1" s="430"/>
-      <c r="E1" s="422" t="s">
+      <c r="D1" s="451"/>
+      <c r="E1" s="442" t="s">
         <v>275</v>
       </c>
-      <c r="F1" s="423"/>
+      <c r="F1" s="443"/>
     </row>
     <row r="2" spans="1:7" ht="18" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="380" t="s">
         <v>291</v>
       </c>
       <c r="B2" s="381"/>
-      <c r="C2" s="426" t="s">
+      <c r="C2" s="446" t="s">
         <v>292</v>
       </c>
-      <c r="D2" s="427"/>
+      <c r="D2" s="447"/>
       <c r="E2" s="420" t="s">
         <v>333</v>
       </c>
@@ -9836,14 +9836,14 @@
       </c>
     </row>
     <row r="3" spans="1:7" ht="35.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="768" t="s">
+      <c r="A3" s="448" t="s">
         <v>330</v>
       </c>
-      <c r="B3" s="768"/>
-      <c r="C3" s="768" t="s">
+      <c r="B3" s="448"/>
+      <c r="C3" s="448" t="s">
         <v>331</v>
       </c>
-      <c r="D3" s="768"/>
+      <c r="D3" s="448"/>
       <c r="E3" s="420" t="s">
         <v>332</v>
       </c>
@@ -9853,32 +9853,32 @@
       <c r="G3" s="161"/>
     </row>
     <row r="4" spans="1:7" ht="27.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="433" t="s">
+      <c r="A4" s="424" t="s">
         <v>248</v>
       </c>
-      <c r="B4" s="434"/>
-      <c r="C4" s="434"/>
-      <c r="D4" s="434"/>
-      <c r="E4" s="434"/>
-      <c r="F4" s="435"/>
+      <c r="B4" s="425"/>
+      <c r="C4" s="425"/>
+      <c r="D4" s="425"/>
+      <c r="E4" s="425"/>
+      <c r="F4" s="426"/>
       <c r="G4" s="161"/>
     </row>
     <row r="5" spans="1:7" ht="20.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="436" t="s">
+      <c r="A5" s="427" t="s">
         <v>226</v>
       </c>
-      <c r="B5" s="437"/>
-      <c r="C5" s="437"/>
-      <c r="D5" s="437"/>
-      <c r="E5" s="437"/>
-      <c r="F5" s="438"/>
+      <c r="B5" s="428"/>
+      <c r="C5" s="428"/>
+      <c r="D5" s="428"/>
+      <c r="E5" s="428"/>
+      <c r="F5" s="429"/>
       <c r="G5" s="161"/>
     </row>
     <row r="6" spans="1:7" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="424" t="s">
+      <c r="A6" s="444" t="s">
         <v>32</v>
       </c>
-      <c r="B6" s="425"/>
+      <c r="B6" s="445"/>
       <c r="C6" s="162" t="s">
         <v>23</v>
       </c>
@@ -9893,10 +9893,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="17.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="447" t="s">
+      <c r="A7" s="438" t="s">
         <v>186</v>
       </c>
-      <c r="B7" s="448"/>
+      <c r="B7" s="439"/>
       <c r="C7" s="205"/>
       <c r="D7" s="306">
         <v>0</v>
@@ -9910,28 +9910,28 @@
       </c>
     </row>
     <row r="8" spans="1:7" ht="13.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="439" t="s">
+      <c r="A8" s="430" t="s">
         <v>223</v>
       </c>
-      <c r="B8" s="440"/>
-      <c r="C8" s="440"/>
-      <c r="D8" s="440"/>
-      <c r="E8" s="440"/>
-      <c r="F8" s="441"/>
+      <c r="B8" s="431"/>
+      <c r="C8" s="431"/>
+      <c r="D8" s="431"/>
+      <c r="E8" s="431"/>
+      <c r="F8" s="432"/>
     </row>
     <row r="9" spans="1:7" ht="9.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="442"/>
-      <c r="B9" s="443"/>
-      <c r="C9" s="443"/>
-      <c r="D9" s="443"/>
-      <c r="E9" s="443"/>
-      <c r="F9" s="444"/>
+      <c r="A9" s="433"/>
+      <c r="B9" s="434"/>
+      <c r="C9" s="434"/>
+      <c r="D9" s="434"/>
+      <c r="E9" s="434"/>
+      <c r="F9" s="435"/>
     </row>
     <row r="10" spans="1:7" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="449" t="s">
+      <c r="A10" s="440" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="450"/>
+      <c r="B10" s="441"/>
       <c r="C10" s="163" t="s">
         <v>23</v>
       </c>
@@ -10293,10 +10293,10 @@
       <c r="F28" s="309"/>
     </row>
     <row r="29" spans="1:6" ht="16.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="445" t="s">
+      <c r="A29" s="436" t="s">
         <v>295</v>
       </c>
-      <c r="B29" s="446"/>
+      <c r="B29" s="437"/>
       <c r="C29" s="341">
         <f>'Section C - Budget Summary '!E20</f>
         <v>0</v>
@@ -10306,10 +10306,10 @@
       <c r="F29" s="314"/>
     </row>
     <row r="30" spans="1:6" ht="26.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="431" t="s">
+      <c r="A30" s="422" t="s">
         <v>187</v>
       </c>
-      <c r="B30" s="432"/>
+      <c r="B30" s="423"/>
       <c r="C30" s="342">
         <f>C29+C27</f>
         <v>0</v>
@@ -10631,6 +10631,13 @@
     </row>
   </sheetData>
   <mergeCells count="14">
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A6:B6"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
     <mergeCell ref="A30:B30"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A5:F5"/>
@@ -10638,13 +10645,6 @@
     <mergeCell ref="A29:B29"/>
     <mergeCell ref="A7:B7"/>
     <mergeCell ref="A10:B10"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A6:B6"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -10691,32 +10691,32 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="633" t="s">
+      <c r="A2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="633"/>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="633"/>
+      <c r="B2" s="634"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
     </row>
     <row r="3" spans="1:12" ht="105" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="656" t="s">
+      <c r="A3" s="649" t="s">
         <v>280</v>
       </c>
-      <c r="B3" s="656"/>
-      <c r="C3" s="656"/>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="656"/>
-      <c r="G3" s="656"/>
-      <c r="H3" s="656"/>
-      <c r="I3" s="656"/>
-      <c r="J3" s="656"/>
+      <c r="B3" s="649"/>
+      <c r="C3" s="649"/>
+      <c r="D3" s="649"/>
+      <c r="E3" s="649"/>
+      <c r="F3" s="649"/>
+      <c r="G3" s="649"/>
+      <c r="H3" s="649"/>
+      <c r="I3" s="649"/>
+      <c r="J3" s="649"/>
       <c r="K3" s="39"/>
       <c r="L3" s="39"/>
     </row>
@@ -10735,34 +10735,34 @@
       <c r="L4" s="39"/>
     </row>
     <row r="5" spans="1:12" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="685" t="s">
+      <c r="A5" s="678" t="s">
         <v>7</v>
       </c>
-      <c r="B5" s="686"/>
-      <c r="C5" s="686"/>
-      <c r="D5" s="686"/>
-      <c r="E5" s="686" t="s">
+      <c r="B5" s="679"/>
+      <c r="C5" s="679"/>
+      <c r="D5" s="679"/>
+      <c r="E5" s="679" t="s">
         <v>5</v>
       </c>
-      <c r="F5" s="689"/>
-      <c r="G5" s="690"/>
-      <c r="H5" s="685" t="s">
+      <c r="F5" s="682"/>
+      <c r="G5" s="683"/>
+      <c r="H5" s="678" t="s">
         <v>206</v>
       </c>
-      <c r="I5" s="690" t="s">
+      <c r="I5" s="683" t="s">
         <v>207</v>
       </c>
-      <c r="J5" s="691" t="s">
+      <c r="J5" s="684" t="s">
         <v>195</v>
       </c>
       <c r="K5" s="39"/>
       <c r="L5" s="39"/>
     </row>
     <row r="6" spans="1:12" ht="48" x14ac:dyDescent="0.25">
-      <c r="A6" s="687"/>
-      <c r="B6" s="688"/>
-      <c r="C6" s="688"/>
-      <c r="D6" s="688"/>
+      <c r="A6" s="680"/>
+      <c r="B6" s="681"/>
+      <c r="C6" s="681"/>
+      <c r="D6" s="681"/>
       <c r="E6" s="173" t="s">
         <v>51</v>
       </c>
@@ -10772,17 +10772,17 @@
       <c r="G6" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="H6" s="687"/>
-      <c r="I6" s="693"/>
-      <c r="J6" s="692"/>
+      <c r="H6" s="680"/>
+      <c r="I6" s="686"/>
+      <c r="J6" s="685"/>
       <c r="K6" s="39"/>
       <c r="L6" s="39"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A7" s="679"/>
-      <c r="B7" s="680"/>
-      <c r="C7" s="680"/>
-      <c r="D7" s="680"/>
+      <c r="A7" s="689"/>
+      <c r="B7" s="690"/>
+      <c r="C7" s="690"/>
+      <c r="D7" s="690"/>
       <c r="E7" s="221"/>
       <c r="F7" s="296"/>
       <c r="G7" s="248"/>
@@ -10796,10 +10796,10 @@
       <c r="L7" s="39"/>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A8" s="677"/>
-      <c r="B8" s="678"/>
-      <c r="C8" s="678"/>
-      <c r="D8" s="678"/>
+      <c r="A8" s="687"/>
+      <c r="B8" s="688"/>
+      <c r="C8" s="688"/>
+      <c r="D8" s="688"/>
       <c r="E8" s="221"/>
       <c r="F8" s="296"/>
       <c r="G8" s="248"/>
@@ -10813,10 +10813,10 @@
       <c r="L8" s="39"/>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" s="677"/>
-      <c r="B9" s="678"/>
-      <c r="C9" s="678"/>
-      <c r="D9" s="678"/>
+      <c r="A9" s="687"/>
+      <c r="B9" s="688"/>
+      <c r="C9" s="688"/>
+      <c r="D9" s="688"/>
       <c r="E9" s="221"/>
       <c r="F9" s="296"/>
       <c r="G9" s="248"/>
@@ -10830,10 +10830,10 @@
       <c r="L9" s="39"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" s="677"/>
-      <c r="B10" s="678"/>
-      <c r="C10" s="678"/>
-      <c r="D10" s="678"/>
+      <c r="A10" s="687"/>
+      <c r="B10" s="688"/>
+      <c r="C10" s="688"/>
+      <c r="D10" s="688"/>
       <c r="E10" s="221"/>
       <c r="F10" s="296"/>
       <c r="G10" s="248"/>
@@ -10847,10 +10847,10 @@
       <c r="L10" s="39"/>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" s="677"/>
-      <c r="B11" s="678"/>
-      <c r="C11" s="678"/>
-      <c r="D11" s="678"/>
+      <c r="A11" s="687"/>
+      <c r="B11" s="688"/>
+      <c r="C11" s="688"/>
+      <c r="D11" s="688"/>
       <c r="E11" s="221"/>
       <c r="F11" s="296"/>
       <c r="G11" s="248"/>
@@ -10864,10 +10864,10 @@
       <c r="L11" s="39"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" s="677"/>
-      <c r="B12" s="678"/>
-      <c r="C12" s="678"/>
-      <c r="D12" s="678"/>
+      <c r="A12" s="687"/>
+      <c r="B12" s="688"/>
+      <c r="C12" s="688"/>
+      <c r="D12" s="688"/>
       <c r="E12" s="221"/>
       <c r="F12" s="296"/>
       <c r="G12" s="248"/>
@@ -10881,10 +10881,10 @@
       <c r="L12" s="39"/>
     </row>
     <row r="13" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="677"/>
-      <c r="B13" s="678"/>
-      <c r="C13" s="678"/>
-      <c r="D13" s="678"/>
+      <c r="A13" s="687"/>
+      <c r="B13" s="688"/>
+      <c r="C13" s="688"/>
+      <c r="D13" s="688"/>
       <c r="E13" s="221"/>
       <c r="F13" s="296"/>
       <c r="G13" s="248"/>
@@ -10898,10 +10898,10 @@
       <c r="L13" s="39"/>
     </row>
     <row r="14" spans="1:12" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="682"/>
-      <c r="B14" s="683"/>
-      <c r="C14" s="683"/>
-      <c r="D14" s="683"/>
+      <c r="A14" s="692"/>
+      <c r="B14" s="693"/>
+      <c r="C14" s="693"/>
+      <c r="D14" s="693"/>
       <c r="E14" s="243"/>
       <c r="F14" s="297"/>
       <c r="G14" s="249"/>
@@ -10915,15 +10915,15 @@
       <c r="L14" s="121"/>
     </row>
     <row r="15" spans="1:12" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="681" t="s">
+      <c r="A15" s="691" t="s">
         <v>196</v>
       </c>
-      <c r="B15" s="681"/>
-      <c r="C15" s="681"/>
-      <c r="D15" s="681"/>
-      <c r="E15" s="681"/>
-      <c r="F15" s="681"/>
-      <c r="G15" s="681"/>
+      <c r="B15" s="691"/>
+      <c r="C15" s="691"/>
+      <c r="D15" s="691"/>
+      <c r="E15" s="691"/>
+      <c r="F15" s="691"/>
+      <c r="G15" s="691"/>
       <c r="H15" s="215">
         <f>ROUND(SUM(H7:H14),0)</f>
         <v>0</v>
@@ -10939,10 +10939,10 @@
       <c r="L15" s="64"/>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A16" s="684"/>
-      <c r="B16" s="684"/>
-      <c r="C16" s="684"/>
-      <c r="D16" s="684"/>
+      <c r="A16" s="694"/>
+      <c r="B16" s="694"/>
+      <c r="C16" s="694"/>
+      <c r="D16" s="694"/>
       <c r="G16" s="20"/>
       <c r="H16" s="20"/>
       <c r="I16" s="20"/>
@@ -10962,13 +10962,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="17">
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A5:D6"/>
-    <mergeCell ref="E5:G5"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="H5:H6"/>
     <mergeCell ref="A13:D13"/>
     <mergeCell ref="A7:D7"/>
     <mergeCell ref="A15:G15"/>
@@ -10979,6 +10972,13 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A5:D6"/>
+    <mergeCell ref="E5:G5"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="H5:H6"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11023,60 +11023,60 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="633" t="s">
+      <c r="B2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="633"/>
-      <c r="K2" s="633"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
+      <c r="K2" s="634"/>
     </row>
     <row r="3" spans="1:11" ht="54" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="656" t="s">
+      <c r="B3" s="649" t="s">
         <v>281</v>
       </c>
-      <c r="C3" s="656"/>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="656"/>
-      <c r="G3" s="656"/>
-      <c r="H3" s="656"/>
-      <c r="I3" s="656"/>
-      <c r="J3" s="656"/>
-      <c r="K3" s="656"/>
+      <c r="C3" s="649"/>
+      <c r="D3" s="649"/>
+      <c r="E3" s="649"/>
+      <c r="F3" s="649"/>
+      <c r="G3" s="649"/>
+      <c r="H3" s="649"/>
+      <c r="I3" s="649"/>
+      <c r="J3" s="649"/>
+      <c r="K3" s="649"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="640" t="s">
+      <c r="B4" s="641" t="s">
         <v>52</v>
       </c>
-      <c r="C4" s="663"/>
-      <c r="D4" s="663"/>
-      <c r="E4" s="663"/>
-      <c r="F4" s="663" t="s">
+      <c r="C4" s="656"/>
+      <c r="D4" s="656"/>
+      <c r="E4" s="656"/>
+      <c r="F4" s="656" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="664"/>
-      <c r="H4" s="642"/>
-      <c r="I4" s="640" t="s">
+      <c r="G4" s="657"/>
+      <c r="H4" s="643"/>
+      <c r="I4" s="641" t="s">
         <v>206</v>
       </c>
-      <c r="J4" s="642" t="s">
+      <c r="J4" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="K4" s="644" t="s">
+      <c r="K4" s="645" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="36" x14ac:dyDescent="0.25">
-      <c r="B5" s="649"/>
-      <c r="C5" s="667"/>
-      <c r="D5" s="667"/>
-      <c r="E5" s="667"/>
+      <c r="B5" s="670"/>
+      <c r="C5" s="660"/>
+      <c r="D5" s="660"/>
+      <c r="E5" s="660"/>
       <c r="F5" s="152" t="s">
         <v>53</v>
       </c>
@@ -11086,15 +11086,15 @@
       <c r="H5" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="I5" s="649"/>
-      <c r="J5" s="651"/>
-      <c r="K5" s="674"/>
+      <c r="I5" s="670"/>
+      <c r="J5" s="672"/>
+      <c r="K5" s="675"/>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B6" s="694"/>
-      <c r="C6" s="695"/>
-      <c r="D6" s="695"/>
-      <c r="E6" s="695"/>
+      <c r="B6" s="695"/>
+      <c r="C6" s="696"/>
+      <c r="D6" s="696"/>
+      <c r="E6" s="696"/>
       <c r="F6" s="236"/>
       <c r="G6" s="298"/>
       <c r="H6" s="254"/>
@@ -11106,10 +11106,10 @@
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B7" s="694"/>
-      <c r="C7" s="695"/>
-      <c r="D7" s="695"/>
-      <c r="E7" s="695"/>
+      <c r="B7" s="695"/>
+      <c r="C7" s="696"/>
+      <c r="D7" s="696"/>
+      <c r="E7" s="696"/>
       <c r="F7" s="236"/>
       <c r="G7" s="298"/>
       <c r="H7" s="254"/>
@@ -11121,10 +11121,10 @@
       </c>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B8" s="694"/>
-      <c r="C8" s="695"/>
-      <c r="D8" s="695"/>
-      <c r="E8" s="695"/>
+      <c r="B8" s="695"/>
+      <c r="C8" s="696"/>
+      <c r="D8" s="696"/>
+      <c r="E8" s="696"/>
       <c r="F8" s="236"/>
       <c r="G8" s="298"/>
       <c r="H8" s="254"/>
@@ -11136,10 +11136,10 @@
       </c>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B9" s="694"/>
-      <c r="C9" s="695"/>
-      <c r="D9" s="695"/>
-      <c r="E9" s="695"/>
+      <c r="B9" s="695"/>
+      <c r="C9" s="696"/>
+      <c r="D9" s="696"/>
+      <c r="E9" s="696"/>
       <c r="F9" s="236"/>
       <c r="G9" s="298"/>
       <c r="H9" s="254"/>
@@ -11151,10 +11151,10 @@
       </c>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B10" s="694"/>
-      <c r="C10" s="695"/>
-      <c r="D10" s="695"/>
-      <c r="E10" s="695"/>
+      <c r="B10" s="695"/>
+      <c r="C10" s="696"/>
+      <c r="D10" s="696"/>
+      <c r="E10" s="696"/>
       <c r="F10" s="236"/>
       <c r="G10" s="298"/>
       <c r="H10" s="254"/>
@@ -11166,10 +11166,10 @@
       </c>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B11" s="694"/>
-      <c r="C11" s="695"/>
-      <c r="D11" s="695"/>
-      <c r="E11" s="695"/>
+      <c r="B11" s="695"/>
+      <c r="C11" s="696"/>
+      <c r="D11" s="696"/>
+      <c r="E11" s="696"/>
       <c r="F11" s="236"/>
       <c r="G11" s="298"/>
       <c r="H11" s="254"/>
@@ -11181,10 +11181,10 @@
       </c>
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B12" s="694"/>
-      <c r="C12" s="695"/>
-      <c r="D12" s="695"/>
-      <c r="E12" s="695"/>
+      <c r="B12" s="695"/>
+      <c r="C12" s="696"/>
+      <c r="D12" s="696"/>
+      <c r="E12" s="696"/>
       <c r="F12" s="236"/>
       <c r="G12" s="298"/>
       <c r="H12" s="254"/>
@@ -11196,10 +11196,10 @@
       </c>
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B13" s="694"/>
-      <c r="C13" s="695"/>
-      <c r="D13" s="695"/>
-      <c r="E13" s="695"/>
+      <c r="B13" s="695"/>
+      <c r="C13" s="696"/>
+      <c r="D13" s="696"/>
+      <c r="E13" s="696"/>
       <c r="F13" s="236"/>
       <c r="G13" s="298"/>
       <c r="H13" s="254"/>
@@ -11211,10 +11211,10 @@
       </c>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="B14" s="694"/>
-      <c r="C14" s="695"/>
-      <c r="D14" s="695"/>
-      <c r="E14" s="695"/>
+      <c r="B14" s="695"/>
+      <c r="C14" s="696"/>
+      <c r="D14" s="696"/>
+      <c r="E14" s="696"/>
       <c r="F14" s="236"/>
       <c r="G14" s="298"/>
       <c r="H14" s="254"/>
@@ -11226,10 +11226,10 @@
       </c>
     </row>
     <row r="15" spans="1:11" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="696"/>
-      <c r="C15" s="697"/>
-      <c r="D15" s="697"/>
-      <c r="E15" s="697"/>
+      <c r="B15" s="697"/>
+      <c r="C15" s="698"/>
+      <c r="D15" s="698"/>
+      <c r="E15" s="698"/>
       <c r="F15" s="255"/>
       <c r="G15" s="299"/>
       <c r="H15" s="256"/>
@@ -11241,16 +11241,16 @@
       </c>
     </row>
     <row r="16" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="681" t="s">
+      <c r="A16" s="691" t="s">
         <v>196</v>
       </c>
-      <c r="B16" s="681"/>
-      <c r="C16" s="681"/>
-      <c r="D16" s="681"/>
-      <c r="E16" s="681"/>
-      <c r="F16" s="681"/>
-      <c r="G16" s="681"/>
-      <c r="H16" s="681"/>
+      <c r="B16" s="691"/>
+      <c r="C16" s="691"/>
+      <c r="D16" s="691"/>
+      <c r="E16" s="691"/>
+      <c r="F16" s="691"/>
+      <c r="G16" s="691"/>
+      <c r="H16" s="691"/>
       <c r="I16" s="215">
         <f>ROUND(SUM(I6:I15),0)</f>
         <v>0</v>
@@ -11293,13 +11293,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="18">
-    <mergeCell ref="B2:K2"/>
-    <mergeCell ref="B3:K3"/>
-    <mergeCell ref="B4:E5"/>
-    <mergeCell ref="F4:H4"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
     <mergeCell ref="A16:H16"/>
     <mergeCell ref="B13:E13"/>
     <mergeCell ref="B14:E14"/>
@@ -11311,6 +11304,13 @@
     <mergeCell ref="B10:E10"/>
     <mergeCell ref="B11:E11"/>
     <mergeCell ref="B12:E12"/>
+    <mergeCell ref="B2:K2"/>
+    <mergeCell ref="B3:K3"/>
+    <mergeCell ref="B4:E5"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11358,99 +11358,99 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="633" t="s">
+      <c r="A2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="633"/>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="633"/>
+      <c r="B2" s="634"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
     </row>
     <row r="3" spans="1:11" ht="66" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="698" t="s">
+      <c r="A3" s="699" t="s">
         <v>262</v>
       </c>
-      <c r="B3" s="698"/>
-      <c r="C3" s="698"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="698"/>
-      <c r="F3" s="698"/>
-      <c r="G3" s="698"/>
-      <c r="H3" s="698"/>
-      <c r="I3" s="698"/>
-      <c r="J3" s="698"/>
+      <c r="B3" s="699"/>
+      <c r="C3" s="699"/>
+      <c r="D3" s="699"/>
+      <c r="E3" s="699"/>
+      <c r="F3" s="699"/>
+      <c r="G3" s="699"/>
+      <c r="H3" s="699"/>
+      <c r="I3" s="699"/>
+      <c r="J3" s="699"/>
     </row>
     <row r="4" spans="1:11" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="699" t="s">
+      <c r="A4" s="700" t="s">
         <v>173</v>
       </c>
-      <c r="B4" s="699"/>
-      <c r="C4" s="699"/>
-      <c r="D4" s="699"/>
-      <c r="E4" s="699"/>
-      <c r="F4" s="699"/>
-      <c r="G4" s="699"/>
-      <c r="H4" s="699"/>
-      <c r="I4" s="699"/>
-      <c r="J4" s="699"/>
+      <c r="B4" s="700"/>
+      <c r="C4" s="700"/>
+      <c r="D4" s="700"/>
+      <c r="E4" s="700"/>
+      <c r="F4" s="700"/>
+      <c r="G4" s="700"/>
+      <c r="H4" s="700"/>
+      <c r="I4" s="700"/>
+      <c r="J4" s="700"/>
     </row>
     <row r="5" spans="1:11" ht="104.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="700" t="s">
+      <c r="A5" s="701" t="s">
         <v>282</v>
       </c>
-      <c r="B5" s="700"/>
-      <c r="C5" s="700"/>
-      <c r="D5" s="700"/>
-      <c r="E5" s="700"/>
-      <c r="F5" s="700"/>
-      <c r="G5" s="700"/>
-      <c r="H5" s="700"/>
-      <c r="I5" s="700"/>
-      <c r="J5" s="700"/>
+      <c r="B5" s="701"/>
+      <c r="C5" s="701"/>
+      <c r="D5" s="701"/>
+      <c r="E5" s="701"/>
+      <c r="F5" s="701"/>
+      <c r="G5" s="701"/>
+      <c r="H5" s="701"/>
+      <c r="I5" s="701"/>
+      <c r="J5" s="701"/>
     </row>
     <row r="6" spans="1:11" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="698"/>
-      <c r="B6" s="698"/>
-      <c r="C6" s="698"/>
-      <c r="D6" s="698"/>
-      <c r="E6" s="698"/>
-      <c r="F6" s="698"/>
-      <c r="G6" s="698"/>
-      <c r="H6" s="698"/>
-      <c r="I6" s="698"/>
-      <c r="J6" s="698"/>
+      <c r="A6" s="699"/>
+      <c r="B6" s="699"/>
+      <c r="C6" s="699"/>
+      <c r="D6" s="699"/>
+      <c r="E6" s="699"/>
+      <c r="F6" s="699"/>
+      <c r="G6" s="699"/>
+      <c r="H6" s="699"/>
+      <c r="I6" s="699"/>
+      <c r="J6" s="699"/>
     </row>
     <row r="7" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="635" t="s">
+      <c r="A7" s="636" t="s">
         <v>64</v>
       </c>
-      <c r="B7" s="637"/>
-      <c r="C7" s="637"/>
-      <c r="D7" s="637" t="s">
+      <c r="B7" s="638"/>
+      <c r="C7" s="638"/>
+      <c r="D7" s="638" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="637"/>
-      <c r="F7" s="637"/>
-      <c r="G7" s="639"/>
-      <c r="H7" s="640" t="s">
+      <c r="E7" s="638"/>
+      <c r="F7" s="638"/>
+      <c r="G7" s="640"/>
+      <c r="H7" s="641" t="s">
         <v>206</v>
       </c>
-      <c r="I7" s="642" t="s">
+      <c r="I7" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="J7" s="644" t="s">
+      <c r="J7" s="645" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:11" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="701"/>
-      <c r="B8" s="702"/>
-      <c r="C8" s="702"/>
+      <c r="A8" s="702"/>
+      <c r="B8" s="703"/>
+      <c r="C8" s="703"/>
       <c r="D8" s="148" t="s">
         <v>200</v>
       </c>
@@ -11463,14 +11463,14 @@
       <c r="G8" s="155" t="s">
         <v>208</v>
       </c>
-      <c r="H8" s="649"/>
-      <c r="I8" s="651"/>
-      <c r="J8" s="674"/>
+      <c r="H8" s="670"/>
+      <c r="I8" s="672"/>
+      <c r="J8" s="675"/>
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A9" s="677"/>
-      <c r="B9" s="678"/>
-      <c r="C9" s="678"/>
+      <c r="A9" s="687"/>
+      <c r="B9" s="688"/>
+      <c r="C9" s="688"/>
       <c r="D9" s="300"/>
       <c r="E9" s="258"/>
       <c r="F9" s="258"/>
@@ -11484,9 +11484,9 @@
       <c r="K9" s="64"/>
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A10" s="677"/>
-      <c r="B10" s="678"/>
-      <c r="C10" s="678"/>
+      <c r="A10" s="687"/>
+      <c r="B10" s="688"/>
+      <c r="C10" s="688"/>
       <c r="D10" s="300"/>
       <c r="E10" s="258"/>
       <c r="F10" s="258"/>
@@ -11500,9 +11500,9 @@
       <c r="K10" s="64"/>
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A11" s="677"/>
-      <c r="B11" s="678"/>
-      <c r="C11" s="678"/>
+      <c r="A11" s="687"/>
+      <c r="B11" s="688"/>
+      <c r="C11" s="688"/>
       <c r="D11" s="300"/>
       <c r="E11" s="258"/>
       <c r="F11" s="258"/>
@@ -11516,9 +11516,9 @@
       <c r="K11" s="64"/>
     </row>
     <row r="12" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="677"/>
-      <c r="B12" s="678"/>
-      <c r="C12" s="678"/>
+      <c r="A12" s="687"/>
+      <c r="B12" s="688"/>
+      <c r="C12" s="688"/>
       <c r="D12" s="300"/>
       <c r="E12" s="258"/>
       <c r="F12" s="258"/>
@@ -11532,9 +11532,9 @@
       <c r="K12" s="64"/>
     </row>
     <row r="13" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="677"/>
-      <c r="B13" s="678"/>
-      <c r="C13" s="678"/>
+      <c r="A13" s="687"/>
+      <c r="B13" s="688"/>
+      <c r="C13" s="688"/>
       <c r="D13" s="300"/>
       <c r="E13" s="258"/>
       <c r="F13" s="258"/>
@@ -11548,9 +11548,9 @@
       <c r="K13" s="64"/>
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A14" s="677"/>
-      <c r="B14" s="678"/>
-      <c r="C14" s="678"/>
+      <c r="A14" s="687"/>
+      <c r="B14" s="688"/>
+      <c r="C14" s="688"/>
       <c r="D14" s="300"/>
       <c r="E14" s="258"/>
       <c r="F14" s="258"/>
@@ -11564,9 +11564,9 @@
       <c r="K14" s="64"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A15" s="677"/>
-      <c r="B15" s="678"/>
-      <c r="C15" s="678"/>
+      <c r="A15" s="687"/>
+      <c r="B15" s="688"/>
+      <c r="C15" s="688"/>
       <c r="D15" s="300"/>
       <c r="E15" s="258"/>
       <c r="F15" s="258"/>
@@ -11580,9 +11580,9 @@
       <c r="K15" s="64"/>
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A16" s="677"/>
-      <c r="B16" s="678"/>
-      <c r="C16" s="678"/>
+      <c r="A16" s="687"/>
+      <c r="B16" s="688"/>
+      <c r="C16" s="688"/>
       <c r="D16" s="300"/>
       <c r="E16" s="258"/>
       <c r="F16" s="258"/>
@@ -11596,9 +11596,9 @@
       <c r="K16" s="64"/>
     </row>
     <row r="17" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="677"/>
-      <c r="B17" s="678"/>
-      <c r="C17" s="678"/>
+      <c r="A17" s="687"/>
+      <c r="B17" s="688"/>
+      <c r="C17" s="688"/>
       <c r="D17" s="300"/>
       <c r="E17" s="258"/>
       <c r="F17" s="258"/>
@@ -11612,9 +11612,9 @@
       <c r="K17" s="64"/>
     </row>
     <row r="18" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="677"/>
-      <c r="B18" s="678"/>
-      <c r="C18" s="678"/>
+      <c r="A18" s="687"/>
+      <c r="B18" s="688"/>
+      <c r="C18" s="688"/>
       <c r="D18" s="300"/>
       <c r="E18" s="258"/>
       <c r="F18" s="258"/>
@@ -11628,9 +11628,9 @@
       <c r="K18" s="64"/>
     </row>
     <row r="19" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A19" s="677"/>
-      <c r="B19" s="678"/>
-      <c r="C19" s="678"/>
+      <c r="A19" s="687"/>
+      <c r="B19" s="688"/>
+      <c r="C19" s="688"/>
       <c r="D19" s="300"/>
       <c r="E19" s="258"/>
       <c r="F19" s="258"/>
@@ -11644,9 +11644,9 @@
       <c r="K19" s="64"/>
     </row>
     <row r="20" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A20" s="677"/>
-      <c r="B20" s="678"/>
-      <c r="C20" s="678"/>
+      <c r="A20" s="687"/>
+      <c r="B20" s="688"/>
+      <c r="C20" s="688"/>
       <c r="D20" s="300"/>
       <c r="E20" s="258"/>
       <c r="F20" s="258"/>
@@ -11660,9 +11660,9 @@
       <c r="K20" s="64"/>
     </row>
     <row r="21" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A21" s="677"/>
-      <c r="B21" s="678"/>
-      <c r="C21" s="678"/>
+      <c r="A21" s="687"/>
+      <c r="B21" s="688"/>
+      <c r="C21" s="688"/>
       <c r="D21" s="300"/>
       <c r="E21" s="258"/>
       <c r="F21" s="258"/>
@@ -11676,9 +11676,9 @@
       <c r="K21" s="64"/>
     </row>
     <row r="22" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="677"/>
-      <c r="B22" s="678"/>
-      <c r="C22" s="678"/>
+      <c r="A22" s="687"/>
+      <c r="B22" s="688"/>
+      <c r="C22" s="688"/>
       <c r="D22" s="300"/>
       <c r="E22" s="258"/>
       <c r="F22" s="258"/>
@@ -11692,9 +11692,9 @@
       <c r="K22" s="64"/>
     </row>
     <row r="23" spans="1:11" ht="15" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="682"/>
-      <c r="B23" s="683"/>
-      <c r="C23" s="683"/>
+      <c r="A23" s="692"/>
+      <c r="B23" s="693"/>
+      <c r="C23" s="693"/>
       <c r="D23" s="301"/>
       <c r="E23" s="259"/>
       <c r="F23" s="259"/>
@@ -11708,15 +11708,15 @@
       <c r="K23" s="64"/>
     </row>
     <row r="24" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="681" t="s">
+      <c r="A24" s="691" t="s">
         <v>196</v>
       </c>
-      <c r="B24" s="681"/>
-      <c r="C24" s="681"/>
-      <c r="D24" s="681"/>
-      <c r="E24" s="681"/>
-      <c r="F24" s="681"/>
-      <c r="G24" s="681"/>
+      <c r="B24" s="691"/>
+      <c r="C24" s="691"/>
+      <c r="D24" s="691"/>
+      <c r="E24" s="691"/>
+      <c r="F24" s="691"/>
+      <c r="G24" s="691"/>
       <c r="H24" s="215">
         <f>ROUND(SUM(H9:H23),0)</f>
         <v>0</v>
@@ -11770,6 +11770,18 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="26">
+    <mergeCell ref="A2:J2"/>
+    <mergeCell ref="A3:J3"/>
+    <mergeCell ref="A4:J4"/>
+    <mergeCell ref="A5:J5"/>
+    <mergeCell ref="A10:C10"/>
+    <mergeCell ref="A6:J6"/>
+    <mergeCell ref="J7:J8"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="A9:C9"/>
+    <mergeCell ref="H7:H8"/>
+    <mergeCell ref="I7:I8"/>
     <mergeCell ref="A22:C22"/>
     <mergeCell ref="A23:C23"/>
     <mergeCell ref="A24:G24"/>
@@ -11784,18 +11796,6 @@
     <mergeCell ref="A16:C16"/>
     <mergeCell ref="A17:C17"/>
     <mergeCell ref="A18:C18"/>
-    <mergeCell ref="A2:J2"/>
-    <mergeCell ref="A3:J3"/>
-    <mergeCell ref="A4:J4"/>
-    <mergeCell ref="A5:J5"/>
-    <mergeCell ref="A10:C10"/>
-    <mergeCell ref="A6:J6"/>
-    <mergeCell ref="J7:J8"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="A9:C9"/>
-    <mergeCell ref="H7:H8"/>
-    <mergeCell ref="I7:I8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11828,51 +11828,51 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="633" t="s">
+      <c r="B1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
-      <c r="H1" s="633"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
     </row>
     <row r="2" spans="2:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="698" t="s">
+      <c r="B2" s="699" t="s">
         <v>175</v>
       </c>
-      <c r="C2" s="698"/>
-      <c r="D2" s="698"/>
-      <c r="E2" s="698"/>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
-      <c r="H2" s="698"/>
-      <c r="I2" s="698"/>
+      <c r="C2" s="699"/>
+      <c r="D2" s="699"/>
+      <c r="E2" s="699"/>
+      <c r="F2" s="699"/>
+      <c r="G2" s="699"/>
+      <c r="H2" s="699"/>
+      <c r="I2" s="699"/>
     </row>
     <row r="3" spans="2:9" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="709" t="s">
+      <c r="B3" s="706" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="703" t="s">
+      <c r="C3" s="705" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="703"/>
-      <c r="E3" s="703"/>
-      <c r="F3" s="703" t="s">
+      <c r="D3" s="705"/>
+      <c r="E3" s="705"/>
+      <c r="F3" s="705" t="s">
         <v>33</v>
       </c>
-      <c r="G3" s="703"/>
-      <c r="H3" s="703"/>
-      <c r="I3" s="703" t="s">
+      <c r="G3" s="705"/>
+      <c r="H3" s="705"/>
+      <c r="I3" s="705" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="4" spans="2:9" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="709"/>
-      <c r="C4" s="703"/>
-      <c r="D4" s="703"/>
-      <c r="E4" s="703"/>
+      <c r="B4" s="706"/>
+      <c r="C4" s="705"/>
+      <c r="D4" s="705"/>
+      <c r="E4" s="705"/>
       <c r="F4" s="40" t="s">
         <v>54</v>
       </c>
@@ -11882,13 +11882,13 @@
       <c r="H4" s="40" t="s">
         <v>51</v>
       </c>
-      <c r="I4" s="703"/>
+      <c r="I4" s="705"/>
     </row>
     <row r="5" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B5" s="61"/>
-      <c r="C5" s="710"/>
-      <c r="D5" s="710"/>
-      <c r="E5" s="710"/>
+      <c r="C5" s="707"/>
+      <c r="D5" s="707"/>
+      <c r="E5" s="707"/>
       <c r="I5" s="47">
         <f t="shared" ref="I5:I6" si="0">SUM(I4:I4)</f>
         <v>0</v>
@@ -11896,9 +11896,9 @@
     </row>
     <row r="6" spans="2:9" ht="15" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B6" s="42"/>
-      <c r="C6" s="711"/>
-      <c r="D6" s="711"/>
-      <c r="E6" s="711"/>
+      <c r="C6" s="708"/>
+      <c r="D6" s="708"/>
+      <c r="E6" s="708"/>
       <c r="F6" s="43"/>
       <c r="G6" s="43"/>
       <c r="H6" s="43"/>
@@ -11913,10 +11913,10 @@
       <c r="D7" s="42"/>
       <c r="E7" s="42"/>
       <c r="F7" s="42"/>
-      <c r="G7" s="704" t="s">
+      <c r="G7" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="H7" s="704"/>
+      <c r="H7" s="709"/>
       <c r="I7" s="47">
         <f>SUM(I6:I6)</f>
         <v>0</v>
@@ -11933,26 +11933,26 @@
       <c r="I8" s="47"/>
     </row>
     <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" s="703" t="s">
+      <c r="B9" s="705" t="s">
         <v>57</v>
       </c>
-      <c r="C9" s="703" t="s">
+      <c r="C9" s="705" t="s">
         <v>45</v>
       </c>
-      <c r="D9" s="712" t="s">
+      <c r="D9" s="710" t="s">
         <v>33</v>
       </c>
-      <c r="E9" s="712"/>
-      <c r="F9" s="712"/>
-      <c r="G9" s="712"/>
-      <c r="H9" s="712"/>
-      <c r="I9" s="703" t="s">
+      <c r="E9" s="710"/>
+      <c r="F9" s="710"/>
+      <c r="G9" s="710"/>
+      <c r="H9" s="710"/>
+      <c r="I9" s="705" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="10" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B10" s="703"/>
-      <c r="C10" s="703"/>
+      <c r="B10" s="705"/>
+      <c r="C10" s="705"/>
       <c r="D10" s="125" t="s">
         <v>46</v>
       </c>
@@ -11968,7 +11968,7 @@
       <c r="H10" s="125" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="703"/>
+      <c r="I10" s="705"/>
     </row>
     <row r="11" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B11" s="61"/>
@@ -11998,10 +11998,10 @@
     </row>
     <row r="13" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E13" s="20"/>
-      <c r="G13" s="704" t="s">
+      <c r="G13" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="H13" s="704"/>
+      <c r="H13" s="709"/>
       <c r="I13" s="47">
         <f>SUM(I12:I12)</f>
         <v>0</v>
@@ -12026,10 +12026,10 @@
     </row>
     <row r="16" spans="2:9" x14ac:dyDescent="0.25">
       <c r="E16" s="20"/>
-      <c r="G16" s="707" t="s">
+      <c r="G16" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="H16" s="707"/>
+      <c r="H16" s="713"/>
       <c r="I16" s="47">
         <f>I15</f>
         <v>0</v>
@@ -12076,14 +12076,14 @@
       <c r="I24" s="59"/>
     </row>
     <row r="25" spans="2:9" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="705"/>
-      <c r="C25" s="634"/>
-      <c r="D25" s="634"/>
-      <c r="E25" s="634"/>
-      <c r="F25" s="634"/>
-      <c r="G25" s="634"/>
-      <c r="H25" s="634"/>
-      <c r="I25" s="706"/>
+      <c r="B25" s="711"/>
+      <c r="C25" s="635"/>
+      <c r="D25" s="635"/>
+      <c r="E25" s="635"/>
+      <c r="F25" s="635"/>
+      <c r="G25" s="635"/>
+      <c r="H25" s="635"/>
+      <c r="I25" s="712"/>
     </row>
     <row r="26" spans="2:9" x14ac:dyDescent="0.25">
       <c r="B26" s="31"/>
@@ -12171,10 +12171,10 @@
       <c r="H35" s="50"/>
     </row>
     <row r="36" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="G36" s="708" t="s">
+      <c r="G36" s="704" t="s">
         <v>193</v>
       </c>
-      <c r="H36" s="708"/>
+      <c r="H36" s="704"/>
       <c r="I36" s="47">
         <f>I29+I34</f>
         <v>0</v>
@@ -12182,6 +12182,13 @@
     </row>
   </sheetData>
   <mergeCells count="17">
+    <mergeCell ref="I3:I4"/>
+    <mergeCell ref="G7:H7"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="B1:H1"/>
+    <mergeCell ref="G16:H16"/>
+    <mergeCell ref="B2:I2"/>
+    <mergeCell ref="I9:I10"/>
     <mergeCell ref="G36:H36"/>
     <mergeCell ref="F3:H3"/>
     <mergeCell ref="B3:B4"/>
@@ -12192,13 +12199,6 @@
     <mergeCell ref="B9:B10"/>
     <mergeCell ref="C9:C10"/>
     <mergeCell ref="D9:H9"/>
-    <mergeCell ref="I3:I4"/>
-    <mergeCell ref="G7:H7"/>
-    <mergeCell ref="B25:I25"/>
-    <mergeCell ref="B1:H1"/>
-    <mergeCell ref="G16:H16"/>
-    <mergeCell ref="B2:I2"/>
-    <mergeCell ref="I9:I10"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -12226,38 +12226,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
     </row>
     <row r="2" spans="1:7" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="698" t="s">
+      <c r="A2" s="699" t="s">
         <v>180</v>
       </c>
-      <c r="B2" s="698"/>
-      <c r="C2" s="698"/>
-      <c r="D2" s="698"/>
-      <c r="E2" s="698"/>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="B2" s="699"/>
+      <c r="C2" s="699"/>
+      <c r="D2" s="699"/>
+      <c r="E2" s="699"/>
+      <c r="F2" s="699"/>
+      <c r="G2" s="699"/>
     </row>
     <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="713" t="s">
+      <c r="A3" s="714" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="713"/>
-      <c r="C3" s="713" t="s">
+      <c r="B3" s="714"/>
+      <c r="C3" s="714" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="713"/>
-      <c r="E3" s="713"/>
-      <c r="F3" s="713"/>
+      <c r="D3" s="714"/>
+      <c r="E3" s="714"/>
+      <c r="F3" s="714"/>
       <c r="G3" s="122" t="s">
         <v>39</v>
       </c>
@@ -12287,20 +12287,20 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="704" t="s">
+      <c r="E6" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="704"/>
+      <c r="F6" s="709"/>
       <c r="G6" s="47">
         <f>SUM(G4:G5)</f>
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="707" t="s">
+      <c r="E9" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="707"/>
+      <c r="F9" s="713"/>
       <c r="G9" s="47">
         <f>G8</f>
         <v>0</v>
@@ -12461,10 +12461,10 @@
       <c r="G35" s="50"/>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E36" s="708" t="s">
+      <c r="E36" s="704" t="s">
         <v>63</v>
       </c>
-      <c r="F36" s="708"/>
+      <c r="F36" s="704"/>
       <c r="G36" s="47">
         <f>G29+G34</f>
         <v>0</v>
@@ -12507,45 +12507,45 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B1" s="633" t="s">
+      <c r="B1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
-      <c r="H1" s="633"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
     </row>
     <row r="2" spans="2:8" ht="67.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B2" s="461" t="s">
+      <c r="B2" s="492" t="s">
         <v>176</v>
       </c>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="461"/>
-      <c r="F2" s="461"/>
-      <c r="G2" s="461"/>
-      <c r="H2" s="461"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
+      <c r="H2" s="492"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B4" s="709" t="s">
+      <c r="B4" s="706" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="709"/>
-      <c r="D4" s="709" t="s">
+      <c r="C4" s="706"/>
+      <c r="D4" s="706" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="709"/>
-      <c r="F4" s="709"/>
-      <c r="G4" s="709"/>
-      <c r="H4" s="709" t="s">
+      <c r="E4" s="706"/>
+      <c r="F4" s="706"/>
+      <c r="G4" s="706"/>
+      <c r="H4" s="706" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" x14ac:dyDescent="0.2">
-      <c r="B5" s="709"/>
-      <c r="C5" s="709"/>
+      <c r="B5" s="706"/>
+      <c r="C5" s="706"/>
       <c r="D5" s="113" t="s">
         <v>49</v>
       </c>
@@ -12558,7 +12558,7 @@
       <c r="G5" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="709"/>
+      <c r="H5" s="706"/>
     </row>
     <row r="6" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
       <c r="B6" s="65"/>
@@ -12592,10 +12592,10 @@
       </c>
     </row>
     <row r="9" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="F9" s="704" t="s">
+      <c r="F9" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="G9" s="704"/>
+      <c r="G9" s="709"/>
       <c r="H9" s="47">
         <f>SUM(H7:H8)</f>
         <v>0</v>
@@ -12617,10 +12617,10 @@
       </c>
     </row>
     <row r="13" spans="2:8" ht="13.5" x14ac:dyDescent="0.25">
-      <c r="F13" s="707" t="s">
+      <c r="F13" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="G13" s="707"/>
+      <c r="G13" s="713"/>
       <c r="H13" s="47">
         <f>H12</f>
         <v>0</v>
@@ -12808,38 +12808,38 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
     </row>
     <row r="2" spans="1:7" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="698" t="s">
+      <c r="A2" s="699" t="s">
         <v>177</v>
       </c>
-      <c r="B2" s="698"/>
-      <c r="C2" s="698"/>
-      <c r="D2" s="698"/>
-      <c r="E2" s="698"/>
-      <c r="F2" s="698"/>
-      <c r="G2" s="698"/>
+      <c r="B2" s="699"/>
+      <c r="C2" s="699"/>
+      <c r="D2" s="699"/>
+      <c r="E2" s="699"/>
+      <c r="F2" s="699"/>
+      <c r="G2" s="699"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A3" s="713" t="s">
+      <c r="A3" s="714" t="s">
         <v>22</v>
       </c>
-      <c r="B3" s="713"/>
-      <c r="C3" s="713" t="s">
+      <c r="B3" s="714"/>
+      <c r="C3" s="714" t="s">
         <v>60</v>
       </c>
-      <c r="D3" s="713"/>
-      <c r="E3" s="713"/>
-      <c r="F3" s="713"/>
+      <c r="D3" s="714"/>
+      <c r="E3" s="714"/>
+      <c r="F3" s="714"/>
       <c r="G3" s="122" t="s">
         <v>39</v>
       </c>
@@ -12869,10 +12869,10 @@
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E6" s="704" t="s">
+      <c r="E6" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="F6" s="704"/>
+      <c r="F6" s="709"/>
       <c r="G6" s="47">
         <f>SUM(G4:G5)</f>
         <v>0</v>
@@ -12885,10 +12885,10 @@
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E9" s="707" t="s">
+      <c r="E9" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="F9" s="707"/>
+      <c r="F9" s="713"/>
       <c r="G9" s="47">
         <f>G8</f>
         <v>0</v>
@@ -13044,10 +13044,10 @@
       <c r="G34" s="50"/>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="E35" s="708" t="s">
+      <c r="E35" s="704" t="s">
         <v>70</v>
       </c>
-      <c r="F35" s="708"/>
+      <c r="F35" s="704"/>
       <c r="G35" s="47">
         <f>G28+G33</f>
         <v>0</v>
@@ -13089,26 +13089,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="29.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
     </row>
     <row r="2" spans="1:7" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="461" t="s">
+      <c r="A2" s="492" t="s">
         <v>178</v>
       </c>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="461"/>
-      <c r="F2" s="461"/>
-      <c r="G2" s="461"/>
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
     </row>
     <row r="3" spans="1:7" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -13120,23 +13120,23 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="709" t="s">
+      <c r="A4" s="706" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="709"/>
-      <c r="C4" s="709" t="s">
+      <c r="B4" s="706"/>
+      <c r="C4" s="706" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="709"/>
-      <c r="E4" s="709"/>
-      <c r="F4" s="709"/>
-      <c r="G4" s="709" t="s">
+      <c r="D4" s="706"/>
+      <c r="E4" s="706"/>
+      <c r="F4" s="706"/>
+      <c r="G4" s="706" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="709"/>
-      <c r="B5" s="709"/>
+      <c r="A5" s="706"/>
+      <c r="B5" s="706"/>
       <c r="C5" s="113" t="s">
         <v>49</v>
       </c>
@@ -13149,7 +13149,7 @@
       <c r="F5" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="709"/>
+      <c r="G5" s="706"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
@@ -13192,10 +13192,10 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="704" t="s">
+      <c r="E9" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="704"/>
+      <c r="F9" s="709"/>
       <c r="G9" s="47">
         <f>SUM(G7:G8)</f>
         <v>0</v>
@@ -13227,10 +13227,10 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="707" t="s">
+      <c r="E12" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="707"/>
+      <c r="F12" s="713"/>
       <c r="G12" s="47">
         <f>G11</f>
         <v>0</v>
@@ -13442,11 +13442,11 @@
       <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="708" t="s">
+      <c r="D37" s="704" t="s">
         <v>94</v>
       </c>
-      <c r="E37" s="708"/>
-      <c r="F37" s="708"/>
+      <c r="E37" s="704"/>
+      <c r="F37" s="704"/>
       <c r="G37" s="47">
         <f>G30+G35</f>
         <v>0</v>
@@ -13489,26 +13489,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="461" t="s">
+      <c r="A2" s="492" t="s">
         <v>179</v>
       </c>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="461"/>
-      <c r="F2" s="461"/>
-      <c r="G2" s="461"/>
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -13520,23 +13520,23 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A4" s="709" t="s">
+      <c r="A4" s="706" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="709"/>
-      <c r="C4" s="709" t="s">
+      <c r="B4" s="706"/>
+      <c r="C4" s="706" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="709"/>
-      <c r="E4" s="709"/>
-      <c r="F4" s="709"/>
-      <c r="G4" s="709" t="s">
+      <c r="D4" s="706"/>
+      <c r="E4" s="706"/>
+      <c r="F4" s="706"/>
+      <c r="G4" s="706" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="709"/>
-      <c r="B5" s="709"/>
+      <c r="A5" s="706"/>
+      <c r="B5" s="706"/>
       <c r="C5" s="113" t="s">
         <v>49</v>
       </c>
@@ -13549,7 +13549,7 @@
       <c r="F5" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="709"/>
+      <c r="G5" s="706"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
@@ -13592,10 +13592,10 @@
       <c r="B9" s="14"/>
       <c r="C9" s="14"/>
       <c r="D9" s="14"/>
-      <c r="E9" s="704" t="s">
+      <c r="E9" s="709" t="s">
         <v>44</v>
       </c>
-      <c r="F9" s="704"/>
+      <c r="F9" s="709"/>
       <c r="G9" s="47">
         <f>SUM(G7:G8)</f>
         <v>0</v>
@@ -13627,10 +13627,10 @@
       <c r="B12" s="14"/>
       <c r="C12" s="14"/>
       <c r="D12" s="14"/>
-      <c r="E12" s="707" t="s">
+      <c r="E12" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="F12" s="707"/>
+      <c r="F12" s="713"/>
       <c r="G12" s="47">
         <f>G11</f>
         <v>0</v>
@@ -13855,11 +13855,11 @@
       <c r="G37" s="50"/>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D38" s="708" t="s">
+      <c r="D38" s="704" t="s">
         <v>75</v>
       </c>
-      <c r="E38" s="708"/>
-      <c r="F38" s="708"/>
+      <c r="E38" s="704"/>
+      <c r="F38" s="704"/>
       <c r="G38" s="47">
         <f>G31+G36</f>
         <v>0</v>
@@ -13903,26 +13903,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:8" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="633" t="s">
+      <c r="B1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
-      <c r="H1" s="633"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
+      <c r="H1" s="634"/>
     </row>
     <row r="2" spans="2:8" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="634" t="s">
+      <c r="B2" s="635" t="s">
         <v>171</v>
       </c>
-      <c r="C2" s="634"/>
-      <c r="D2" s="634"/>
-      <c r="E2" s="634"/>
-      <c r="F2" s="634"/>
-      <c r="G2" s="634"/>
-      <c r="H2" s="634"/>
+      <c r="C2" s="635"/>
+      <c r="D2" s="635"/>
+      <c r="E2" s="635"/>
+      <c r="F2" s="635"/>
+      <c r="G2" s="635"/>
+      <c r="H2" s="635"/>
     </row>
     <row r="3" spans="2:8" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B3" s="14"/>
@@ -13934,25 +13934,25 @@
       <c r="H3" s="14"/>
     </row>
     <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" s="709" t="s">
+      <c r="B4" s="706" t="s">
         <v>34</v>
       </c>
-      <c r="C4" s="709" t="s">
+      <c r="C4" s="706" t="s">
         <v>35</v>
       </c>
-      <c r="D4" s="709" t="s">
+      <c r="D4" s="706" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="709"/>
-      <c r="F4" s="709"/>
-      <c r="G4" s="709"/>
-      <c r="H4" s="709" t="s">
+      <c r="E4" s="706"/>
+      <c r="F4" s="706"/>
+      <c r="G4" s="706"/>
+      <c r="H4" s="706" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="2:8" ht="24" x14ac:dyDescent="0.25">
-      <c r="B5" s="709"/>
-      <c r="C5" s="709"/>
+      <c r="B5" s="706"/>
+      <c r="C5" s="706"/>
       <c r="D5" s="16" t="s">
         <v>36</v>
       </c>
@@ -13965,7 +13965,7 @@
       <c r="G5" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="H5" s="709"/>
+      <c r="H5" s="706"/>
     </row>
     <row r="6" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B6" s="119"/>
@@ -14031,10 +14031,10 @@
       <c r="C11" s="42"/>
       <c r="D11" s="43"/>
       <c r="E11" s="44"/>
-      <c r="F11" s="707" t="s">
+      <c r="F11" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="G11" s="707"/>
+      <c r="G11" s="713"/>
       <c r="H11" s="47">
         <f>H10</f>
         <v>0</v>
@@ -14108,13 +14108,13 @@
       <c r="H20" s="53"/>
     </row>
     <row r="21" spans="2:8" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="705"/>
-      <c r="C21" s="634"/>
-      <c r="D21" s="634"/>
-      <c r="E21" s="634"/>
-      <c r="F21" s="634"/>
-      <c r="G21" s="634"/>
-      <c r="H21" s="706"/>
+      <c r="B21" s="711"/>
+      <c r="C21" s="635"/>
+      <c r="D21" s="635"/>
+      <c r="E21" s="635"/>
+      <c r="F21" s="635"/>
+      <c r="G21" s="635"/>
+      <c r="H21" s="712"/>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B22" s="31"/>
@@ -14148,10 +14148,10 @@
       <c r="C25" s="27"/>
       <c r="D25" s="27"/>
       <c r="E25" s="27"/>
-      <c r="F25" s="714" t="s">
+      <c r="F25" s="715" t="s">
         <v>42</v>
       </c>
-      <c r="G25" s="714"/>
+      <c r="G25" s="715"/>
       <c r="H25" s="134">
         <f>H8</f>
         <v>0</v>
@@ -14182,10 +14182,10 @@
       <c r="C30" s="55"/>
       <c r="D30" s="55"/>
       <c r="E30" s="55"/>
-      <c r="F30" s="715" t="s">
+      <c r="F30" s="716" t="s">
         <v>41</v>
       </c>
-      <c r="G30" s="715"/>
+      <c r="G30" s="716"/>
       <c r="H30" s="134">
         <v>0</v>
       </c>
@@ -14197,11 +14197,11 @@
       <c r="H32" s="50"/>
     </row>
     <row r="33" spans="5:8" x14ac:dyDescent="0.25">
-      <c r="E33" s="708" t="s">
+      <c r="E33" s="704" t="s">
         <v>76</v>
       </c>
-      <c r="F33" s="708"/>
-      <c r="G33" s="708"/>
+      <c r="F33" s="704"/>
+      <c r="G33" s="704"/>
       <c r="H33" s="47">
         <f>H25+H30</f>
         <v>0</v>
@@ -14256,29 +14256,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B1" s="451" t="s">
+      <c r="B1" s="483" t="s">
         <v>188</v>
       </c>
-      <c r="C1" s="451"/>
-      <c r="D1" s="451"/>
-      <c r="E1" s="451"/>
-      <c r="F1" s="451"/>
-      <c r="G1" s="451"/>
-      <c r="H1" s="451"/>
+      <c r="C1" s="483"/>
+      <c r="D1" s="483"/>
+      <c r="E1" s="483"/>
+      <c r="F1" s="483"/>
+      <c r="G1" s="483"/>
+      <c r="H1" s="483"/>
     </row>
     <row r="2" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B2" s="63"/>
-      <c r="C2" s="454" t="s">
+      <c r="C2" s="486" t="s">
         <v>191</v>
       </c>
-      <c r="D2" s="454"/>
-      <c r="E2" s="454"/>
-      <c r="F2" s="454"/>
-      <c r="G2" s="454"/>
-      <c r="H2" s="454"/>
-      <c r="I2" s="454"/>
-      <c r="J2" s="454"/>
-      <c r="K2" s="454"/>
+      <c r="D2" s="486"/>
+      <c r="E2" s="486"/>
+      <c r="F2" s="486"/>
+      <c r="G2" s="486"/>
+      <c r="H2" s="486"/>
+      <c r="I2" s="486"/>
+      <c r="J2" s="486"/>
+      <c r="K2" s="486"/>
     </row>
     <row r="3" spans="2:24" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B3" s="63"/>
@@ -14298,30 +14298,30 @@
       </c>
       <c r="C4" s="86"/>
       <c r="D4" s="86"/>
-      <c r="E4" s="455" t="s">
+      <c r="E4" s="487" t="s">
         <v>155</v>
       </c>
-      <c r="F4" s="455"/>
-      <c r="G4" s="455"/>
-      <c r="H4" s="455"/>
-      <c r="I4" s="455"/>
-      <c r="J4" s="455"/>
-      <c r="K4" s="456"/>
+      <c r="F4" s="487"/>
+      <c r="G4" s="487"/>
+      <c r="H4" s="487"/>
+      <c r="I4" s="487"/>
+      <c r="J4" s="487"/>
+      <c r="K4" s="488"/>
       <c r="L4" s="14"/>
     </row>
     <row r="5" spans="2:24" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="87"/>
       <c r="C5" s="88"/>
       <c r="D5" s="88"/>
-      <c r="E5" s="452" t="s">
+      <c r="E5" s="484" t="s">
         <v>103</v>
       </c>
-      <c r="F5" s="452"/>
-      <c r="G5" s="452"/>
-      <c r="H5" s="452"/>
-      <c r="I5" s="452"/>
-      <c r="J5" s="452"/>
-      <c r="K5" s="453"/>
+      <c r="F5" s="484"/>
+      <c r="G5" s="484"/>
+      <c r="H5" s="484"/>
+      <c r="I5" s="484"/>
+      <c r="J5" s="484"/>
+      <c r="K5" s="485"/>
       <c r="L5" s="14"/>
       <c r="N5" s="14"/>
       <c r="O5" s="14"/>
@@ -14360,109 +14360,109 @@
       <c r="X6" s="14"/>
     </row>
     <row r="7" spans="2:24" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="466" t="s">
+      <c r="B7" s="477" t="s">
         <v>157</v>
       </c>
-      <c r="C7" s="466"/>
-      <c r="D7" s="466"/>
-      <c r="E7" s="466"/>
-      <c r="F7" s="466"/>
-      <c r="G7" s="466"/>
-      <c r="H7" s="466"/>
-      <c r="I7" s="466"/>
-      <c r="J7" s="466"/>
-      <c r="K7" s="466"/>
+      <c r="C7" s="477"/>
+      <c r="D7" s="477"/>
+      <c r="E7" s="477"/>
+      <c r="F7" s="477"/>
+      <c r="G7" s="477"/>
+      <c r="H7" s="477"/>
+      <c r="I7" s="477"/>
+      <c r="J7" s="477"/>
+      <c r="K7" s="477"/>
       <c r="L7" s="14"/>
       <c r="N7" s="14"/>
-      <c r="O7" s="460"/>
-      <c r="P7" s="460"/>
-      <c r="Q7" s="460"/>
-      <c r="R7" s="460"/>
-      <c r="S7" s="460"/>
-      <c r="T7" s="460"/>
-      <c r="U7" s="460"/>
-      <c r="V7" s="460"/>
-      <c r="W7" s="460"/>
-      <c r="X7" s="460"/>
+      <c r="O7" s="452"/>
+      <c r="P7" s="452"/>
+      <c r="Q7" s="452"/>
+      <c r="R7" s="452"/>
+      <c r="S7" s="452"/>
+      <c r="T7" s="452"/>
+      <c r="U7" s="452"/>
+      <c r="V7" s="452"/>
+      <c r="W7" s="452"/>
+      <c r="X7" s="452"/>
     </row>
     <row r="8" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B8" s="63"/>
       <c r="C8" s="91" t="s">
         <v>107</v>
       </c>
-      <c r="D8" s="466" t="s">
+      <c r="D8" s="477" t="s">
         <v>189</v>
       </c>
-      <c r="E8" s="466"/>
-      <c r="F8" s="466"/>
-      <c r="G8" s="466"/>
-      <c r="H8" s="466"/>
-      <c r="I8" s="466"/>
-      <c r="J8" s="466"/>
-      <c r="K8" s="466"/>
+      <c r="E8" s="477"/>
+      <c r="F8" s="477"/>
+      <c r="G8" s="477"/>
+      <c r="H8" s="477"/>
+      <c r="I8" s="477"/>
+      <c r="J8" s="477"/>
+      <c r="K8" s="477"/>
       <c r="L8" s="14"/>
       <c r="N8" s="60"/>
-      <c r="O8" s="457"/>
-      <c r="P8" s="457"/>
-      <c r="Q8" s="457"/>
-      <c r="R8" s="457"/>
-      <c r="S8" s="457"/>
-      <c r="T8" s="457"/>
-      <c r="U8" s="457"/>
-      <c r="V8" s="457"/>
-      <c r="W8" s="457"/>
-      <c r="X8" s="457"/>
+      <c r="O8" s="489"/>
+      <c r="P8" s="489"/>
+      <c r="Q8" s="489"/>
+      <c r="R8" s="489"/>
+      <c r="S8" s="489"/>
+      <c r="T8" s="489"/>
+      <c r="U8" s="489"/>
+      <c r="V8" s="489"/>
+      <c r="W8" s="489"/>
+      <c r="X8" s="489"/>
     </row>
     <row r="9" spans="2:24" ht="17.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="63"/>
       <c r="C9" s="91" t="s">
         <v>108</v>
       </c>
-      <c r="D9" s="466" t="s">
+      <c r="D9" s="477" t="s">
         <v>110</v>
       </c>
-      <c r="E9" s="466"/>
-      <c r="F9" s="466"/>
-      <c r="G9" s="466"/>
-      <c r="H9" s="466"/>
-      <c r="I9" s="466"/>
-      <c r="J9" s="466"/>
-      <c r="K9" s="466"/>
+      <c r="E9" s="477"/>
+      <c r="F9" s="477"/>
+      <c r="G9" s="477"/>
+      <c r="H9" s="477"/>
+      <c r="I9" s="477"/>
+      <c r="J9" s="477"/>
+      <c r="K9" s="477"/>
       <c r="L9" s="14"/>
       <c r="N9" s="71"/>
-      <c r="O9" s="461"/>
-      <c r="P9" s="461"/>
-      <c r="Q9" s="461"/>
-      <c r="R9" s="461"/>
-      <c r="S9" s="461"/>
-      <c r="T9" s="461"/>
-      <c r="U9" s="461"/>
-      <c r="V9" s="461"/>
-      <c r="W9" s="461"/>
-      <c r="X9" s="461"/>
+      <c r="O9" s="492"/>
+      <c r="P9" s="492"/>
+      <c r="Q9" s="492"/>
+      <c r="R9" s="492"/>
+      <c r="S9" s="492"/>
+      <c r="T9" s="492"/>
+      <c r="U9" s="492"/>
+      <c r="V9" s="492"/>
+      <c r="W9" s="492"/>
+      <c r="X9" s="492"/>
     </row>
     <row r="10" spans="2:24" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B10" s="90"/>
       <c r="C10" s="91" t="s">
         <v>109</v>
       </c>
-      <c r="D10" s="468" t="s">
+      <c r="D10" s="478" t="s">
         <v>183</v>
       </c>
-      <c r="E10" s="468"/>
-      <c r="F10" s="468"/>
-      <c r="G10" s="468"/>
-      <c r="H10" s="468"/>
-      <c r="I10" s="468"/>
-      <c r="J10" s="468"/>
-      <c r="K10" s="468"/>
+      <c r="E10" s="478"/>
+      <c r="F10" s="478"/>
+      <c r="G10" s="478"/>
+      <c r="H10" s="478"/>
+      <c r="I10" s="478"/>
+      <c r="J10" s="478"/>
+      <c r="K10" s="478"/>
       <c r="L10" s="14"/>
-      <c r="N10" s="467"/>
-      <c r="O10" s="467"/>
-      <c r="P10" s="467"/>
-      <c r="Q10" s="467"/>
-      <c r="R10" s="467"/>
-      <c r="S10" s="467"/>
+      <c r="N10" s="497"/>
+      <c r="O10" s="497"/>
+      <c r="P10" s="497"/>
+      <c r="Q10" s="497"/>
+      <c r="R10" s="497"/>
+      <c r="S10" s="497"/>
       <c r="T10" s="14"/>
       <c r="U10" s="14"/>
       <c r="V10" s="14"/>
@@ -14494,30 +14494,30 @@
       </c>
       <c r="C12" s="86"/>
       <c r="D12" s="86"/>
-      <c r="E12" s="455" t="s">
+      <c r="E12" s="487" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="455"/>
-      <c r="G12" s="455"/>
-      <c r="H12" s="455"/>
-      <c r="I12" s="455"/>
-      <c r="J12" s="455"/>
-      <c r="K12" s="456"/>
+      <c r="F12" s="487"/>
+      <c r="G12" s="487"/>
+      <c r="H12" s="487"/>
+      <c r="I12" s="487"/>
+      <c r="J12" s="487"/>
+      <c r="K12" s="488"/>
       <c r="L12" s="14"/>
     </row>
     <row r="13" spans="2:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B13" s="94"/>
       <c r="C13" s="95"/>
       <c r="D13" s="90"/>
-      <c r="E13" s="458" t="s">
+      <c r="E13" s="490" t="s">
         <v>102</v>
       </c>
-      <c r="F13" s="458"/>
-      <c r="G13" s="458"/>
-      <c r="H13" s="458"/>
-      <c r="I13" s="458"/>
-      <c r="J13" s="458"/>
-      <c r="K13" s="459"/>
+      <c r="F13" s="490"/>
+      <c r="G13" s="490"/>
+      <c r="H13" s="490"/>
+      <c r="I13" s="490"/>
+      <c r="J13" s="490"/>
+      <c r="K13" s="491"/>
       <c r="L13" s="14"/>
     </row>
     <row r="14" spans="2:24" ht="48.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -14526,37 +14526,37 @@
       </c>
       <c r="C14" s="90"/>
       <c r="D14" s="90"/>
-      <c r="E14" s="462" t="s">
+      <c r="E14" s="493" t="s">
         <v>158</v>
       </c>
-      <c r="F14" s="462"/>
-      <c r="G14" s="462"/>
-      <c r="H14" s="462"/>
-      <c r="I14" s="462"/>
-      <c r="J14" s="462"/>
-      <c r="K14" s="463"/>
+      <c r="F14" s="493"/>
+      <c r="G14" s="493"/>
+      <c r="H14" s="493"/>
+      <c r="I14" s="493"/>
+      <c r="J14" s="493"/>
+      <c r="K14" s="494"/>
       <c r="L14" s="14"/>
     </row>
     <row r="15" spans="2:24" ht="18" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B15" s="97"/>
       <c r="C15" s="88"/>
       <c r="D15" s="88"/>
-      <c r="E15" s="452" t="s">
+      <c r="E15" s="484" t="s">
         <v>106</v>
       </c>
-      <c r="F15" s="464"/>
-      <c r="G15" s="464"/>
-      <c r="H15" s="464"/>
-      <c r="I15" s="464"/>
-      <c r="J15" s="464"/>
-      <c r="K15" s="465"/>
+      <c r="F15" s="495"/>
+      <c r="G15" s="495"/>
+      <c r="H15" s="495"/>
+      <c r="I15" s="495"/>
+      <c r="J15" s="495"/>
+      <c r="K15" s="496"/>
       <c r="L15" s="14"/>
-      <c r="O15" s="467"/>
-      <c r="P15" s="467"/>
-      <c r="Q15" s="467"/>
-      <c r="R15" s="467"/>
-      <c r="S15" s="467"/>
-      <c r="T15" s="467"/>
+      <c r="O15" s="497"/>
+      <c r="P15" s="497"/>
+      <c r="Q15" s="497"/>
+      <c r="R15" s="497"/>
+      <c r="S15" s="497"/>
+      <c r="T15" s="497"/>
     </row>
     <row r="16" spans="2:24" ht="5.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B16" s="63"/>
@@ -14577,30 +14577,30 @@
       </c>
       <c r="C17" s="86"/>
       <c r="D17" s="86"/>
-      <c r="E17" s="455" t="s">
+      <c r="E17" s="487" t="s">
         <v>190</v>
       </c>
-      <c r="F17" s="455"/>
-      <c r="G17" s="455"/>
-      <c r="H17" s="455"/>
-      <c r="I17" s="455"/>
-      <c r="J17" s="455"/>
-      <c r="K17" s="456"/>
+      <c r="F17" s="487"/>
+      <c r="G17" s="487"/>
+      <c r="H17" s="487"/>
+      <c r="I17" s="487"/>
+      <c r="J17" s="487"/>
+      <c r="K17" s="488"/>
       <c r="L17" s="14"/>
     </row>
     <row r="18" spans="2:12" ht="27" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B18" s="97"/>
       <c r="C18" s="88"/>
       <c r="D18" s="88"/>
-      <c r="E18" s="452" t="s">
+      <c r="E18" s="484" t="s">
         <v>111</v>
       </c>
-      <c r="F18" s="452"/>
-      <c r="G18" s="452"/>
-      <c r="H18" s="452"/>
-      <c r="I18" s="452"/>
-      <c r="J18" s="452"/>
-      <c r="K18" s="453"/>
+      <c r="F18" s="484"/>
+      <c r="G18" s="484"/>
+      <c r="H18" s="484"/>
+      <c r="I18" s="484"/>
+      <c r="J18" s="484"/>
+      <c r="K18" s="485"/>
     </row>
     <row r="19" spans="2:12" ht="6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B19" s="63"/>
@@ -14615,10 +14615,10 @@
       <c r="K19" s="63"/>
     </row>
     <row r="20" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B20" s="479" t="s">
+      <c r="B20" s="459" t="s">
         <v>100</v>
       </c>
-      <c r="C20" s="482"/>
+      <c r="C20" s="462"/>
       <c r="D20" s="86"/>
       <c r="E20" s="98" t="s">
         <v>105</v>
@@ -14631,36 +14631,36 @@
       <c r="K20" s="99"/>
     </row>
     <row r="21" spans="2:12" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="480"/>
-      <c r="C21" s="483"/>
+      <c r="B21" s="460"/>
+      <c r="C21" s="463"/>
       <c r="D21" s="90"/>
       <c r="E21" s="100"/>
-      <c r="F21" s="475" t="s">
+      <c r="F21" s="455" t="s">
         <v>99</v>
       </c>
-      <c r="G21" s="475"/>
-      <c r="H21" s="475"/>
-      <c r="I21" s="475"/>
-      <c r="J21" s="475"/>
-      <c r="K21" s="476"/>
+      <c r="G21" s="455"/>
+      <c r="H21" s="455"/>
+      <c r="I21" s="455"/>
+      <c r="J21" s="455"/>
+      <c r="K21" s="456"/>
     </row>
     <row r="22" spans="2:12" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="480"/>
-      <c r="C22" s="483"/>
+      <c r="B22" s="460"/>
+      <c r="C22" s="463"/>
       <c r="D22" s="90"/>
       <c r="E22" s="100"/>
-      <c r="F22" s="473" t="s">
+      <c r="F22" s="453" t="s">
         <v>159</v>
       </c>
-      <c r="G22" s="473"/>
-      <c r="H22" s="473"/>
-      <c r="I22" s="473"/>
-      <c r="J22" s="473"/>
-      <c r="K22" s="474"/>
+      <c r="G22" s="453"/>
+      <c r="H22" s="453"/>
+      <c r="I22" s="453"/>
+      <c r="J22" s="453"/>
+      <c r="K22" s="454"/>
     </row>
     <row r="23" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="481"/>
-      <c r="C23" s="484"/>
+      <c r="B23" s="461"/>
+      <c r="C23" s="464"/>
       <c r="D23" s="88"/>
       <c r="E23" s="344" t="s">
         <v>101</v>
@@ -14690,15 +14690,15 @@
       </c>
       <c r="C25" s="132"/>
       <c r="D25" s="133"/>
-      <c r="E25" s="485" t="s">
+      <c r="E25" s="465" t="s">
         <v>194</v>
       </c>
-      <c r="F25" s="485"/>
-      <c r="G25" s="485"/>
-      <c r="H25" s="485"/>
-      <c r="I25" s="485"/>
-      <c r="J25" s="485"/>
-      <c r="K25" s="486"/>
+      <c r="F25" s="465"/>
+      <c r="G25" s="465"/>
+      <c r="H25" s="465"/>
+      <c r="I25" s="465"/>
+      <c r="J25" s="465"/>
+      <c r="K25" s="466"/>
     </row>
     <row r="26" spans="2:12" ht="33" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B26" s="63"/>
@@ -14713,70 +14713,70 @@
       <c r="K26" s="63"/>
     </row>
     <row r="27" spans="2:12" ht="15.75" customHeight="1" thickTop="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="477" t="s">
+      <c r="B27" s="457" t="s">
         <v>104</v>
       </c>
-      <c r="C27" s="477"/>
-      <c r="D27" s="477"/>
-      <c r="E27" s="477"/>
-      <c r="F27" s="478"/>
-      <c r="G27" s="487" t="s">
+      <c r="C27" s="457"/>
+      <c r="D27" s="457"/>
+      <c r="E27" s="457"/>
+      <c r="F27" s="458"/>
+      <c r="G27" s="467" t="s">
         <v>301</v>
       </c>
-      <c r="H27" s="488"/>
-      <c r="I27" s="491" t="s">
+      <c r="H27" s="468"/>
+      <c r="I27" s="471" t="s">
         <v>299</v>
       </c>
-      <c r="J27" s="491"/>
-      <c r="K27" s="492"/>
+      <c r="J27" s="471"/>
+      <c r="K27" s="472"/>
     </row>
     <row r="28" spans="2:12" x14ac:dyDescent="0.2">
-      <c r="B28" s="477"/>
-      <c r="C28" s="477"/>
-      <c r="D28" s="477"/>
-      <c r="E28" s="477"/>
-      <c r="F28" s="478"/>
-      <c r="G28" s="489" t="s">
+      <c r="B28" s="457"/>
+      <c r="C28" s="457"/>
+      <c r="D28" s="457"/>
+      <c r="E28" s="457"/>
+      <c r="F28" s="458"/>
+      <c r="G28" s="469" t="s">
         <v>296</v>
       </c>
-      <c r="H28" s="490"/>
-      <c r="I28" s="493" t="s">
+      <c r="H28" s="470"/>
+      <c r="I28" s="473" t="s">
         <v>299</v>
       </c>
-      <c r="J28" s="493"/>
-      <c r="K28" s="494"/>
+      <c r="J28" s="473"/>
+      <c r="K28" s="474"/>
     </row>
     <row r="29" spans="2:12" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="477"/>
-      <c r="C29" s="477"/>
-      <c r="D29" s="477"/>
-      <c r="E29" s="477"/>
-      <c r="F29" s="478"/>
-      <c r="G29" s="489" t="s">
+      <c r="B29" s="457"/>
+      <c r="C29" s="457"/>
+      <c r="D29" s="457"/>
+      <c r="E29" s="457"/>
+      <c r="F29" s="458"/>
+      <c r="G29" s="469" t="s">
         <v>298</v>
       </c>
-      <c r="H29" s="490"/>
-      <c r="I29" s="495" t="s">
+      <c r="H29" s="470"/>
+      <c r="I29" s="475" t="s">
         <v>300</v>
       </c>
-      <c r="J29" s="495"/>
-      <c r="K29" s="496"/>
+      <c r="J29" s="475"/>
+      <c r="K29" s="476"/>
     </row>
     <row r="30" spans="2:12" ht="17.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B30" s="477"/>
-      <c r="C30" s="477"/>
-      <c r="D30" s="477"/>
-      <c r="E30" s="477"/>
-      <c r="F30" s="478"/>
-      <c r="G30" s="469" t="s">
+      <c r="B30" s="457"/>
+      <c r="C30" s="457"/>
+      <c r="D30" s="457"/>
+      <c r="E30" s="457"/>
+      <c r="F30" s="458"/>
+      <c r="G30" s="479" t="s">
         <v>297</v>
       </c>
-      <c r="H30" s="470"/>
-      <c r="I30" s="471" t="s">
+      <c r="H30" s="480"/>
+      <c r="I30" s="481" t="s">
         <v>299</v>
       </c>
-      <c r="J30" s="471"/>
-      <c r="K30" s="472"/>
+      <c r="J30" s="481"/>
+      <c r="K30" s="482"/>
     </row>
     <row r="31" spans="2:12" ht="13.5" thickTop="1" x14ac:dyDescent="0.2">
       <c r="B31" s="63"/>
@@ -14838,25 +14838,25 @@
       <c r="S37" s="14"/>
     </row>
     <row r="38" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O38" s="460"/>
-      <c r="P38" s="460"/>
-      <c r="Q38" s="460"/>
-      <c r="R38" s="460"/>
-      <c r="S38" s="460"/>
+      <c r="O38" s="452"/>
+      <c r="P38" s="452"/>
+      <c r="Q38" s="452"/>
+      <c r="R38" s="452"/>
+      <c r="S38" s="452"/>
     </row>
     <row r="39" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O39" s="460"/>
-      <c r="P39" s="460"/>
-      <c r="Q39" s="460"/>
-      <c r="R39" s="460"/>
-      <c r="S39" s="460"/>
+      <c r="O39" s="452"/>
+      <c r="P39" s="452"/>
+      <c r="Q39" s="452"/>
+      <c r="R39" s="452"/>
+      <c r="S39" s="452"/>
     </row>
     <row r="40" spans="15:19" x14ac:dyDescent="0.2">
-      <c r="O40" s="460"/>
-      <c r="P40" s="460"/>
-      <c r="Q40" s="460"/>
-      <c r="R40" s="460"/>
-      <c r="S40" s="460"/>
+      <c r="O40" s="452"/>
+      <c r="P40" s="452"/>
+      <c r="Q40" s="452"/>
+      <c r="R40" s="452"/>
+      <c r="S40" s="452"/>
     </row>
     <row r="41" spans="15:19" x14ac:dyDescent="0.2">
       <c r="O41" s="14"/>
@@ -14889,26 +14889,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="IeqGPhJArAaI8pLxccAqsiE61seaFKJ1P2kMLKqICdLOwF8nqqnWwZIUx9UTShgE11l5NyfjoK6LtSusWLA/Jw==" saltValue="GTPUVszUsWBPd7Fg2TVE7Q==" spinCount="100000" sheet="1" scenarios="1"/>
   <mergeCells count="36">
-    <mergeCell ref="O40:S40"/>
-    <mergeCell ref="F22:K22"/>
-    <mergeCell ref="F21:K21"/>
-    <mergeCell ref="B27:F30"/>
-    <mergeCell ref="B20:B23"/>
-    <mergeCell ref="C20:C23"/>
-    <mergeCell ref="E25:K25"/>
-    <mergeCell ref="G27:H27"/>
-    <mergeCell ref="G28:H28"/>
-    <mergeCell ref="G29:H29"/>
-    <mergeCell ref="I27:K27"/>
-    <mergeCell ref="I28:K28"/>
-    <mergeCell ref="I29:K29"/>
-    <mergeCell ref="D8:K8"/>
-    <mergeCell ref="D9:K9"/>
-    <mergeCell ref="D10:K10"/>
-    <mergeCell ref="O38:S38"/>
-    <mergeCell ref="O39:S39"/>
-    <mergeCell ref="G30:H30"/>
-    <mergeCell ref="I30:K30"/>
     <mergeCell ref="B1:H1"/>
     <mergeCell ref="E18:K18"/>
     <mergeCell ref="C2:K2"/>
@@ -14925,6 +14905,26 @@
     <mergeCell ref="B7:K7"/>
     <mergeCell ref="N10:S10"/>
     <mergeCell ref="O15:T15"/>
+    <mergeCell ref="D8:K8"/>
+    <mergeCell ref="D9:K9"/>
+    <mergeCell ref="D10:K10"/>
+    <mergeCell ref="O38:S38"/>
+    <mergeCell ref="O39:S39"/>
+    <mergeCell ref="G30:H30"/>
+    <mergeCell ref="I30:K30"/>
+    <mergeCell ref="O40:S40"/>
+    <mergeCell ref="F22:K22"/>
+    <mergeCell ref="F21:K21"/>
+    <mergeCell ref="B27:F30"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="C20:C23"/>
+    <mergeCell ref="E25:K25"/>
+    <mergeCell ref="G27:H27"/>
+    <mergeCell ref="G28:H28"/>
+    <mergeCell ref="G29:H29"/>
+    <mergeCell ref="I27:K27"/>
+    <mergeCell ref="I28:K28"/>
+    <mergeCell ref="I29:K29"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -15139,26 +15139,26 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="633" t="s">
+      <c r="A1" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B1" s="633"/>
-      <c r="C1" s="633"/>
-      <c r="D1" s="633"/>
-      <c r="E1" s="633"/>
-      <c r="F1" s="633"/>
-      <c r="G1" s="633"/>
+      <c r="B1" s="634"/>
+      <c r="C1" s="634"/>
+      <c r="D1" s="634"/>
+      <c r="E1" s="634"/>
+      <c r="F1" s="634"/>
+      <c r="G1" s="634"/>
     </row>
     <row r="2" spans="1:7" ht="42" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="461" t="s">
+      <c r="A2" s="492" t="s">
         <v>172</v>
       </c>
-      <c r="B2" s="461"/>
-      <c r="C2" s="461"/>
-      <c r="D2" s="461"/>
-      <c r="E2" s="461"/>
-      <c r="F2" s="461"/>
-      <c r="G2" s="461"/>
+      <c r="B2" s="492"/>
+      <c r="C2" s="492"/>
+      <c r="D2" s="492"/>
+      <c r="E2" s="492"/>
+      <c r="F2" s="492"/>
+      <c r="G2" s="492"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="14"/>
@@ -15170,23 +15170,23 @@
       <c r="G3" s="14"/>
     </row>
     <row r="4" spans="1:7" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="709" t="s">
+      <c r="A4" s="706" t="s">
         <v>64</v>
       </c>
-      <c r="B4" s="709"/>
-      <c r="C4" s="709" t="s">
+      <c r="B4" s="706"/>
+      <c r="C4" s="706" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="709"/>
-      <c r="E4" s="709"/>
-      <c r="F4" s="709"/>
-      <c r="G4" s="716" t="s">
+      <c r="D4" s="706"/>
+      <c r="E4" s="706"/>
+      <c r="F4" s="706"/>
+      <c r="G4" s="717" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A5" s="709"/>
-      <c r="B5" s="709"/>
+      <c r="A5" s="706"/>
+      <c r="B5" s="706"/>
       <c r="C5" s="113" t="s">
         <v>49</v>
       </c>
@@ -15199,7 +15199,7 @@
       <c r="F5" s="113" t="s">
         <v>38</v>
       </c>
-      <c r="G5" s="717"/>
+      <c r="G5" s="718"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="65"/>
@@ -15285,10 +15285,10 @@
       <c r="B13" s="14"/>
       <c r="C13" s="14"/>
       <c r="D13" s="14"/>
-      <c r="E13" s="707" t="s">
+      <c r="E13" s="713" t="s">
         <v>41</v>
       </c>
-      <c r="F13" s="707"/>
+      <c r="F13" s="713"/>
       <c r="G13" s="47">
         <f>G12</f>
         <v>0</v>
@@ -15491,11 +15491,11 @@
       <c r="G36" s="50"/>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="D37" s="708" t="s">
+      <c r="D37" s="704" t="s">
         <v>80</v>
       </c>
-      <c r="E37" s="708"/>
-      <c r="F37" s="708"/>
+      <c r="E37" s="704"/>
+      <c r="F37" s="704"/>
       <c r="G37" s="47">
         <f>G30+G35</f>
         <v>0</v>
@@ -15552,72 +15552,72 @@
       </c>
     </row>
     <row r="2" spans="1:11" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="633" t="s">
+      <c r="B2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="633"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
     </row>
     <row r="3" spans="1:11" ht="69.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="698" t="s">
+      <c r="B3" s="699" t="s">
         <v>283</v>
       </c>
-      <c r="C3" s="698"/>
-      <c r="D3" s="698"/>
-      <c r="E3" s="698"/>
-      <c r="F3" s="698"/>
-      <c r="G3" s="698"/>
-      <c r="H3" s="698"/>
-      <c r="I3" s="698"/>
-      <c r="J3" s="698"/>
+      <c r="C3" s="699"/>
+      <c r="D3" s="699"/>
+      <c r="E3" s="699"/>
+      <c r="F3" s="699"/>
+      <c r="G3" s="699"/>
+      <c r="H3" s="699"/>
+      <c r="I3" s="699"/>
+      <c r="J3" s="699"/>
     </row>
     <row r="4" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B4" s="640" t="s">
+      <c r="B4" s="641" t="s">
         <v>64</v>
       </c>
-      <c r="C4" s="663"/>
-      <c r="D4" s="663"/>
-      <c r="E4" s="663"/>
-      <c r="F4" s="663" t="s">
+      <c r="C4" s="656"/>
+      <c r="D4" s="656"/>
+      <c r="E4" s="656"/>
+      <c r="F4" s="656" t="s">
         <v>33</v>
       </c>
-      <c r="G4" s="642"/>
-      <c r="H4" s="640" t="s">
+      <c r="G4" s="643"/>
+      <c r="H4" s="641" t="s">
         <v>206</v>
       </c>
-      <c r="I4" s="642" t="s">
+      <c r="I4" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="J4" s="644" t="s">
+      <c r="J4" s="645" t="s">
         <v>195</v>
       </c>
     </row>
     <row r="5" spans="1:11" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="649"/>
-      <c r="C5" s="667"/>
-      <c r="D5" s="667"/>
-      <c r="E5" s="667"/>
+      <c r="B5" s="670"/>
+      <c r="C5" s="660"/>
+      <c r="D5" s="660"/>
+      <c r="E5" s="660"/>
       <c r="F5" s="152" t="s">
         <v>81</v>
       </c>
       <c r="G5" s="154" t="s">
         <v>82</v>
       </c>
-      <c r="H5" s="649"/>
-      <c r="I5" s="651"/>
-      <c r="J5" s="674"/>
+      <c r="H5" s="670"/>
+      <c r="I5" s="672"/>
+      <c r="J5" s="675"/>
     </row>
     <row r="6" spans="1:11" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="719"/>
-      <c r="C6" s="720"/>
-      <c r="D6" s="720"/>
-      <c r="E6" s="720"/>
+      <c r="B6" s="720"/>
+      <c r="C6" s="721"/>
+      <c r="D6" s="721"/>
+      <c r="E6" s="721"/>
       <c r="F6" s="268"/>
       <c r="G6" s="269"/>
       <c r="H6" s="270"/>
@@ -15632,8 +15632,8 @@
       <c r="C7" s="6"/>
       <c r="D7" s="6"/>
       <c r="E7" s="6"/>
-      <c r="F7" s="704"/>
-      <c r="G7" s="704"/>
+      <c r="F7" s="709"/>
+      <c r="G7" s="709"/>
       <c r="H7" s="141"/>
       <c r="I7" s="141"/>
       <c r="J7" s="47"/>
@@ -15686,17 +15686,17 @@
     </row>
     <row r="12" spans="1:11" s="279" customFormat="1" ht="106.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="278"/>
-      <c r="B12" s="718" t="s">
+      <c r="B12" s="719" t="s">
         <v>264</v>
       </c>
-      <c r="C12" s="718"/>
-      <c r="D12" s="718"/>
-      <c r="E12" s="718"/>
-      <c r="F12" s="718"/>
-      <c r="G12" s="718"/>
-      <c r="H12" s="718"/>
-      <c r="I12" s="718"/>
-      <c r="J12" s="718"/>
+      <c r="C12" s="719"/>
+      <c r="D12" s="719"/>
+      <c r="E12" s="719"/>
+      <c r="F12" s="719"/>
+      <c r="G12" s="719"/>
+      <c r="H12" s="719"/>
+      <c r="I12" s="719"/>
+      <c r="J12" s="719"/>
     </row>
     <row r="13" spans="1:11" s="279" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7"/>
@@ -16081,36 +16081,36 @@
       </c>
     </row>
     <row r="2" spans="1:9" ht="20.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="633" t="s">
+      <c r="A2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="B2" s="633"/>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
+      <c r="B2" s="634"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
     </row>
     <row r="3" spans="1:9" ht="39" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="656" t="s">
+      <c r="A3" s="649" t="s">
         <v>316</v>
       </c>
-      <c r="B3" s="656"/>
-      <c r="C3" s="656"/>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="656"/>
-      <c r="G3" s="656"/>
+      <c r="B3" s="649"/>
+      <c r="C3" s="649"/>
+      <c r="D3" s="649"/>
+      <c r="E3" s="649"/>
+      <c r="F3" s="649"/>
+      <c r="G3" s="649"/>
       <c r="H3" s="39"/>
       <c r="I3" s="39"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" s="731" t="s">
+      <c r="A4" s="728" t="s">
         <v>9</v>
       </c>
-      <c r="B4" s="732"/>
-      <c r="C4" s="732"/>
-      <c r="D4" s="732"/>
+      <c r="B4" s="729"/>
+      <c r="C4" s="729"/>
+      <c r="D4" s="729"/>
       <c r="E4" s="348" t="s">
         <v>206</v>
       </c>
@@ -16123,12 +16123,12 @@
       <c r="I4" s="14"/>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A5" s="721" t="s">
+      <c r="A5" s="734" t="s">
         <v>83</v>
       </c>
-      <c r="B5" s="722"/>
-      <c r="C5" s="722"/>
-      <c r="D5" s="722"/>
+      <c r="B5" s="735"/>
+      <c r="C5" s="735"/>
+      <c r="D5" s="735"/>
       <c r="E5" s="347">
         <f>'Section C1 - Personnel'!H18</f>
         <v>0</v>
@@ -16145,12 +16145,12 @@
       <c r="I5" s="14"/>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A6" s="723" t="s">
+      <c r="A6" s="730" t="s">
         <v>84</v>
       </c>
-      <c r="B6" s="724"/>
-      <c r="C6" s="724"/>
-      <c r="D6" s="724"/>
+      <c r="B6" s="731"/>
+      <c r="C6" s="731"/>
+      <c r="D6" s="731"/>
       <c r="E6" s="345">
         <f>'Section C2 - Fringe Benefits'!M19</f>
         <v>0</v>
@@ -16167,12 +16167,12 @@
       <c r="I6" s="14"/>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A7" s="723" t="s">
+      <c r="A7" s="730" t="s">
         <v>85</v>
       </c>
-      <c r="B7" s="724"/>
-      <c r="C7" s="724"/>
-      <c r="D7" s="724"/>
+      <c r="B7" s="731"/>
+      <c r="C7" s="731"/>
+      <c r="D7" s="731"/>
       <c r="E7" s="345">
         <f>'Section C3 - Travel'!J18</f>
         <v>0</v>
@@ -16189,12 +16189,12 @@
       <c r="I7" s="14"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A8" s="723" t="s">
+      <c r="A8" s="730" t="s">
         <v>2</v>
       </c>
-      <c r="B8" s="724"/>
-      <c r="C8" s="724"/>
-      <c r="D8" s="724"/>
+      <c r="B8" s="731"/>
+      <c r="C8" s="731"/>
+      <c r="D8" s="731"/>
       <c r="E8" s="345">
         <f>'Section C4 - Equipment '!H15</f>
         <v>0</v>
@@ -16211,12 +16211,12 @@
       <c r="I8" s="14"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A9" s="723" t="s">
+      <c r="A9" s="730" t="s">
         <v>3</v>
       </c>
-      <c r="B9" s="724"/>
-      <c r="C9" s="724"/>
-      <c r="D9" s="724"/>
+      <c r="B9" s="731"/>
+      <c r="C9" s="731"/>
+      <c r="D9" s="731"/>
       <c r="E9" s="345">
         <f>'Section C5 - Supplies'!I16</f>
         <v>0</v>
@@ -16233,12 +16233,12 @@
       <c r="I9" s="14"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A10" s="723" t="s">
+      <c r="A10" s="730" t="s">
         <v>16</v>
       </c>
-      <c r="B10" s="724"/>
-      <c r="C10" s="724"/>
-      <c r="D10" s="724"/>
+      <c r="B10" s="731"/>
+      <c r="C10" s="731"/>
+      <c r="D10" s="731"/>
       <c r="E10" s="345">
         <f>'Section C6 - Contractual'!H24</f>
         <v>0</v>
@@ -16255,12 +16255,12 @@
       <c r="I10" s="14"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A11" s="725" t="s">
+      <c r="A11" s="722" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="726"/>
-      <c r="C11" s="726"/>
-      <c r="D11" s="726"/>
+      <c r="B11" s="723"/>
+      <c r="C11" s="723"/>
+      <c r="D11" s="723"/>
       <c r="E11" s="346"/>
       <c r="F11" s="346"/>
       <c r="G11" s="353"/>
@@ -16268,12 +16268,12 @@
       <c r="I11" s="14"/>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A12" s="733" t="s">
+      <c r="A12" s="732" t="s">
         <v>18</v>
       </c>
-      <c r="B12" s="734"/>
-      <c r="C12" s="734"/>
-      <c r="D12" s="734"/>
+      <c r="B12" s="733"/>
+      <c r="C12" s="733"/>
+      <c r="D12" s="733"/>
       <c r="E12" s="346"/>
       <c r="F12" s="346"/>
       <c r="G12" s="353"/>
@@ -16281,12 +16281,12 @@
       <c r="I12" s="14"/>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A13" s="725" t="s">
+      <c r="A13" s="722" t="s">
         <v>19</v>
       </c>
-      <c r="B13" s="726"/>
-      <c r="C13" s="726"/>
-      <c r="D13" s="726"/>
+      <c r="B13" s="723"/>
+      <c r="C13" s="723"/>
+      <c r="D13" s="723"/>
       <c r="E13" s="346"/>
       <c r="F13" s="346"/>
       <c r="G13" s="353"/>
@@ -16294,12 +16294,12 @@
       <c r="I13" s="14"/>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A14" s="725" t="s">
+      <c r="A14" s="722" t="s">
         <v>86</v>
       </c>
-      <c r="B14" s="726"/>
-      <c r="C14" s="726"/>
-      <c r="D14" s="726"/>
+      <c r="B14" s="723"/>
+      <c r="C14" s="723"/>
+      <c r="D14" s="723"/>
       <c r="E14" s="346"/>
       <c r="F14" s="346"/>
       <c r="G14" s="353"/>
@@ -16307,12 +16307,12 @@
       <c r="I14" s="14"/>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A15" s="725" t="s">
+      <c r="A15" s="722" t="s">
         <v>87</v>
       </c>
-      <c r="B15" s="726"/>
-      <c r="C15" s="726"/>
-      <c r="D15" s="726"/>
+      <c r="B15" s="723"/>
+      <c r="C15" s="723"/>
+      <c r="D15" s="723"/>
       <c r="E15" s="346"/>
       <c r="F15" s="346"/>
       <c r="G15" s="353"/>
@@ -16320,12 +16320,12 @@
       <c r="I15" s="14"/>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A16" s="725" t="s">
+      <c r="A16" s="722" t="s">
         <v>88</v>
       </c>
-      <c r="B16" s="726"/>
-      <c r="C16" s="726"/>
-      <c r="D16" s="726"/>
+      <c r="B16" s="723"/>
+      <c r="C16" s="723"/>
+      <c r="D16" s="723"/>
       <c r="E16" s="346"/>
       <c r="F16" s="346"/>
       <c r="G16" s="353"/>
@@ -16333,12 +16333,12 @@
       <c r="I16" s="14"/>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A17" s="725" t="s">
+      <c r="A17" s="722" t="s">
         <v>89</v>
       </c>
-      <c r="B17" s="726"/>
-      <c r="C17" s="726"/>
-      <c r="D17" s="726"/>
+      <c r="B17" s="723"/>
+      <c r="C17" s="723"/>
+      <c r="D17" s="723"/>
       <c r="E17" s="346"/>
       <c r="F17" s="346"/>
       <c r="G17" s="353"/>
@@ -16346,12 +16346,12 @@
       <c r="I17" s="14"/>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A18" s="725" t="s">
+      <c r="A18" s="722" t="s">
         <v>90</v>
       </c>
-      <c r="B18" s="726"/>
-      <c r="C18" s="726"/>
-      <c r="D18" s="726"/>
+      <c r="B18" s="723"/>
+      <c r="C18" s="723"/>
+      <c r="D18" s="723"/>
       <c r="E18" s="346"/>
       <c r="F18" s="346"/>
       <c r="G18" s="353"/>
@@ -16359,12 +16359,12 @@
       <c r="I18" s="14"/>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A19" s="725" t="s">
+      <c r="A19" s="722" t="s">
         <v>91</v>
       </c>
-      <c r="B19" s="726"/>
-      <c r="C19" s="726"/>
-      <c r="D19" s="726"/>
+      <c r="B19" s="723"/>
+      <c r="C19" s="723"/>
+      <c r="D19" s="723"/>
       <c r="E19" s="346"/>
       <c r="F19" s="346"/>
       <c r="G19" s="353"/>
@@ -16372,12 +16372,12 @@
       <c r="I19" s="14"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="727" t="s">
+      <c r="A20" s="724" t="s">
         <v>92</v>
       </c>
-      <c r="B20" s="728"/>
-      <c r="C20" s="728"/>
-      <c r="D20" s="728"/>
+      <c r="B20" s="725"/>
+      <c r="C20" s="725"/>
+      <c r="D20" s="725"/>
       <c r="E20" s="356">
         <f>'Section C7 - Indirect Costs '!H6</f>
         <v>0</v>
@@ -16394,12 +16394,12 @@
       <c r="I20" s="14"/>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="729" t="s">
+      <c r="A21" s="726" t="s">
         <v>10</v>
       </c>
-      <c r="B21" s="730"/>
-      <c r="C21" s="730"/>
-      <c r="D21" s="730"/>
+      <c r="B21" s="727"/>
+      <c r="C21" s="727"/>
+      <c r="D21" s="727"/>
       <c r="E21" s="354">
         <f>SUM(E5:E20)</f>
         <v>0</v>
@@ -16417,6 +16417,11 @@
     </row>
   </sheetData>
   <mergeCells count="20">
+    <mergeCell ref="A3:G3"/>
+    <mergeCell ref="A2:G2"/>
+    <mergeCell ref="A5:D5"/>
+    <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A7:D7"/>
     <mergeCell ref="A18:D18"/>
     <mergeCell ref="A19:D19"/>
     <mergeCell ref="A20:D20"/>
@@ -16432,11 +16437,6 @@
     <mergeCell ref="A10:D10"/>
     <mergeCell ref="A11:D11"/>
     <mergeCell ref="A12:D12"/>
-    <mergeCell ref="A3:G3"/>
-    <mergeCell ref="A2:G2"/>
-    <mergeCell ref="A5:D5"/>
-    <mergeCell ref="A6:D6"/>
-    <mergeCell ref="A7:D7"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -16468,30 +16468,30 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="44.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="749" t="s">
+      <c r="A1" s="746" t="s">
         <v>233</v>
       </c>
-      <c r="B1" s="750"/>
-      <c r="C1" s="428" t="s">
+      <c r="B1" s="747"/>
+      <c r="C1" s="449" t="s">
         <v>254</v>
       </c>
-      <c r="D1" s="751"/>
-      <c r="E1" s="499" t="s">
+      <c r="D1" s="748"/>
+      <c r="E1" s="521" t="s">
         <v>202</v>
       </c>
-      <c r="F1" s="500"/>
+      <c r="F1" s="522"/>
     </row>
     <row r="2" spans="1:9" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="752" t="str">
+      <c r="A2" s="749" t="str">
         <f>'Section A - ICJIA Funds'!A2:B2</f>
         <v xml:space="preserve">Implementing Agency Name: </v>
       </c>
-      <c r="B2" s="753"/>
-      <c r="C2" s="752" t="str">
+      <c r="B2" s="750"/>
+      <c r="C2" s="749" t="str">
         <f>'Section A - ICJIA Funds'!C2:D2</f>
         <v xml:space="preserve">DUNS#:  </v>
       </c>
-      <c r="D2" s="753"/>
+      <c r="D2" s="750"/>
       <c r="E2" s="184" t="str">
         <f>'Section A - ICJIA Funds'!E2</f>
         <v>NOFO ID: 2115-1302</v>
@@ -16502,16 +16502,16 @@
       </c>
     </row>
     <row r="3" spans="1:9" ht="45.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="754" t="str">
+      <c r="A3" s="751" t="str">
         <f>'Section A - ICJIA Funds'!A3:B3</f>
         <v>CFSA Number: 546-00-2115</v>
       </c>
-      <c r="B3" s="755"/>
-      <c r="C3" s="754" t="str">
+      <c r="B3" s="752"/>
+      <c r="C3" s="751" t="str">
         <f>'Section A - ICJIA Funds'!C3:D3</f>
         <v>CSFA Short Description: Adult Redeploy Illinois (ARI)</v>
       </c>
-      <c r="D3" s="755"/>
+      <c r="D3" s="752"/>
       <c r="E3" s="184" t="str">
         <f>'Section A - ICJIA Funds'!E3</f>
         <v>State Fiscal Year(s): FY2021</v>
@@ -16553,14 +16553,14 @@
       <c r="I6" s="275"/>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="735" t="s">
+      <c r="A7" s="753" t="s">
         <v>234</v>
       </c>
-      <c r="B7" s="735"/>
-      <c r="C7" s="735"/>
-      <c r="D7" s="735"/>
-      <c r="E7" s="735"/>
-      <c r="F7" s="735"/>
+      <c r="B7" s="753"/>
+      <c r="C7" s="753"/>
+      <c r="D7" s="753"/>
+      <c r="E7" s="753"/>
+      <c r="F7" s="753"/>
       <c r="G7" s="275"/>
       <c r="H7" s="275"/>
       <c r="I7" s="275"/>
@@ -16569,14 +16569,14 @@
       <c r="A8" s="401" t="s">
         <v>325</v>
       </c>
-      <c r="B8" s="745" t="s">
+      <c r="B8" s="741" t="s">
         <v>236</v>
       </c>
-      <c r="C8" s="746"/>
-      <c r="D8" s="746" t="s">
+      <c r="C8" s="742"/>
+      <c r="D8" s="742" t="s">
         <v>237</v>
       </c>
-      <c r="E8" s="748"/>
+      <c r="E8" s="743"/>
       <c r="F8" s="402" t="s">
         <v>156</v>
       </c>
@@ -16584,9 +16584,9 @@
     <row r="9" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A9" s="404"/>
       <c r="B9" s="736"/>
-      <c r="C9" s="747"/>
+      <c r="C9" s="737"/>
       <c r="D9" s="736"/>
-      <c r="E9" s="747"/>
+      <c r="E9" s="737"/>
       <c r="F9" s="405"/>
     </row>
     <row r="10" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -16596,21 +16596,21 @@
       <c r="B10" s="736" t="s">
         <v>239</v>
       </c>
-      <c r="C10" s="737"/>
-      <c r="D10" s="737" t="s">
+      <c r="C10" s="738"/>
+      <c r="D10" s="738" t="s">
         <v>238</v>
       </c>
-      <c r="E10" s="747"/>
+      <c r="E10" s="737"/>
       <c r="F10" s="405" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:9" s="403" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A11" s="407"/>
-      <c r="B11" s="738"/>
-      <c r="C11" s="739"/>
-      <c r="D11" s="738"/>
-      <c r="E11" s="739"/>
+      <c r="B11" s="739"/>
+      <c r="C11" s="740"/>
+      <c r="D11" s="739"/>
+      <c r="E11" s="740"/>
       <c r="F11" s="408"/>
     </row>
     <row r="12" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -16630,27 +16630,27 @@
       <c r="F13" s="411"/>
     </row>
     <row r="14" spans="1:9" s="403" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="741" t="s">
+      <c r="A14" s="745" t="s">
         <v>235</v>
       </c>
-      <c r="B14" s="741"/>
-      <c r="C14" s="741"/>
-      <c r="D14" s="741"/>
-      <c r="E14" s="741"/>
-      <c r="F14" s="741"/>
+      <c r="B14" s="745"/>
+      <c r="C14" s="745"/>
+      <c r="D14" s="745"/>
+      <c r="E14" s="745"/>
+      <c r="F14" s="745"/>
     </row>
     <row r="15" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A15" s="401" t="s">
         <v>328</v>
       </c>
-      <c r="B15" s="745" t="s">
+      <c r="B15" s="741" t="s">
         <v>236</v>
       </c>
-      <c r="C15" s="746"/>
-      <c r="D15" s="746" t="s">
+      <c r="C15" s="742"/>
+      <c r="D15" s="742" t="s">
         <v>237</v>
       </c>
-      <c r="E15" s="748"/>
+      <c r="E15" s="743"/>
       <c r="F15" s="402" t="s">
         <v>156</v>
       </c>
@@ -16658,9 +16658,9 @@
     <row r="16" spans="1:9" s="403" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A16" s="404"/>
       <c r="B16" s="736"/>
-      <c r="C16" s="747"/>
+      <c r="C16" s="737"/>
       <c r="D16" s="736"/>
-      <c r="E16" s="747"/>
+      <c r="E16" s="737"/>
       <c r="F16" s="405"/>
     </row>
     <row r="17" spans="1:14" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -16670,21 +16670,21 @@
       <c r="B17" s="736" t="s">
         <v>239</v>
       </c>
-      <c r="C17" s="737"/>
-      <c r="D17" s="737" t="s">
+      <c r="C17" s="738"/>
+      <c r="D17" s="738" t="s">
         <v>238</v>
       </c>
-      <c r="E17" s="747"/>
+      <c r="E17" s="737"/>
       <c r="F17" s="405" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="403" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A18" s="407"/>
-      <c r="B18" s="738"/>
-      <c r="C18" s="739"/>
-      <c r="D18" s="738"/>
-      <c r="E18" s="739"/>
+      <c r="B18" s="739"/>
+      <c r="C18" s="740"/>
+      <c r="D18" s="739"/>
+      <c r="E18" s="740"/>
       <c r="F18" s="408"/>
     </row>
     <row r="19" spans="1:14" s="403" customFormat="1" x14ac:dyDescent="0.25">
@@ -16696,27 +16696,27 @@
       <c r="F19" s="411"/>
     </row>
     <row r="20" spans="1:14" s="403" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="741" t="s">
+      <c r="A20" s="745" t="s">
         <v>235</v>
       </c>
-      <c r="B20" s="741"/>
-      <c r="C20" s="741"/>
-      <c r="D20" s="741"/>
-      <c r="E20" s="741"/>
-      <c r="F20" s="741"/>
+      <c r="B20" s="745"/>
+      <c r="C20" s="745"/>
+      <c r="D20" s="745"/>
+      <c r="E20" s="745"/>
+      <c r="F20" s="745"/>
     </row>
     <row r="21" spans="1:14" s="403" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="401" t="s">
         <v>328</v>
       </c>
-      <c r="B21" s="745" t="s">
+      <c r="B21" s="741" t="s">
         <v>236</v>
       </c>
-      <c r="C21" s="746"/>
-      <c r="D21" s="746" t="s">
+      <c r="C21" s="742"/>
+      <c r="D21" s="742" t="s">
         <v>237</v>
       </c>
-      <c r="E21" s="748"/>
+      <c r="E21" s="743"/>
       <c r="F21" s="402" t="s">
         <v>156</v>
       </c>
@@ -16724,38 +16724,38 @@
     <row r="22" spans="1:14" s="403" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="404"/>
       <c r="B22" s="736"/>
-      <c r="C22" s="747"/>
+      <c r="C22" s="737"/>
       <c r="D22" s="736"/>
-      <c r="E22" s="747"/>
+      <c r="E22" s="737"/>
       <c r="F22" s="405"/>
     </row>
     <row r="23" spans="1:14" s="413" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="406" t="s">
         <v>327</v>
       </c>
-      <c r="B23" s="742" t="s">
+      <c r="B23" s="755" t="s">
         <v>239</v>
       </c>
-      <c r="C23" s="743"/>
-      <c r="D23" s="743" t="s">
+      <c r="C23" s="756"/>
+      <c r="D23" s="756" t="s">
         <v>238</v>
       </c>
-      <c r="E23" s="744"/>
+      <c r="E23" s="757"/>
       <c r="F23" s="412" t="s">
         <v>156</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="403" customFormat="1" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="407"/>
-      <c r="B24" s="738"/>
-      <c r="C24" s="739"/>
-      <c r="D24" s="738"/>
-      <c r="E24" s="739"/>
+      <c r="B24" s="739"/>
+      <c r="C24" s="740"/>
+      <c r="D24" s="739"/>
+      <c r="E24" s="740"/>
       <c r="F24" s="408"/>
     </row>
     <row r="25" spans="1:14" s="403" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="740"/>
-      <c r="B25" s="740"/>
+      <c r="A25" s="754"/>
+      <c r="B25" s="754"/>
       <c r="J25" s="414"/>
       <c r="K25" s="414"/>
       <c r="L25" s="414"/>
@@ -16798,14 +16798,14 @@
       <c r="I28" s="417"/>
     </row>
     <row r="29" spans="1:14" s="403" customFormat="1" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="756" t="s">
+      <c r="A29" s="744" t="s">
         <v>141</v>
       </c>
-      <c r="B29" s="756"/>
-      <c r="C29" s="756"/>
-      <c r="D29" s="756"/>
-      <c r="E29" s="756"/>
-      <c r="F29" s="756"/>
+      <c r="B29" s="744"/>
+      <c r="C29" s="744"/>
+      <c r="D29" s="744"/>
+      <c r="E29" s="744"/>
+      <c r="F29" s="744"/>
       <c r="G29" s="419"/>
       <c r="H29" s="419"/>
       <c r="I29" s="419"/>
@@ -16878,26 +16878,6 @@
     </row>
   </sheetData>
   <mergeCells count="36">
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="B11:C11"/>
-    <mergeCell ref="B15:C15"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="B16:C16"/>
-    <mergeCell ref="A29:F29"/>
-    <mergeCell ref="A20:F20"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="B22:C22"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="A3:B3"/>
     <mergeCell ref="A7:F7"/>
     <mergeCell ref="B17:C17"/>
     <mergeCell ref="B18:C18"/>
@@ -16914,6 +16894,26 @@
     <mergeCell ref="D9:E9"/>
     <mergeCell ref="D8:E8"/>
     <mergeCell ref="D11:E11"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="A29:F29"/>
+    <mergeCell ref="A20:F20"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="B22:C22"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="B11:C11"/>
+    <mergeCell ref="B15:C15"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="B16:C16"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.15" footer="0.15"/>
@@ -16946,23 +16946,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="757" t="s">
+      <c r="B1" s="764" t="s">
         <v>259</v>
       </c>
-      <c r="C1" s="757"/>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
-      <c r="N1" s="757"/>
-      <c r="O1" s="757"/>
-      <c r="P1" s="757"/>
+      <c r="C1" s="764"/>
+      <c r="D1" s="764"/>
+      <c r="E1" s="764"/>
+      <c r="F1" s="764"/>
+      <c r="G1" s="764"/>
+      <c r="H1" s="764"/>
+      <c r="I1" s="764"/>
+      <c r="J1" s="764"/>
+      <c r="K1" s="764"/>
+      <c r="L1" s="764"/>
+      <c r="M1" s="764"/>
+      <c r="N1" s="764"/>
+      <c r="O1" s="764"/>
+      <c r="P1" s="764"/>
     </row>
     <row r="2" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="79"/>
@@ -16982,23 +16982,23 @@
       <c r="P2" s="187"/>
     </row>
     <row r="3" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="758" t="s">
+      <c r="B3" s="762" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="758"/>
-      <c r="D3" s="758"/>
-      <c r="E3" s="758"/>
-      <c r="F3" s="758"/>
-      <c r="G3" s="758"/>
-      <c r="H3" s="758"/>
-      <c r="I3" s="758"/>
-      <c r="J3" s="758"/>
-      <c r="K3" s="758"/>
-      <c r="L3" s="758"/>
-      <c r="M3" s="758"/>
-      <c r="N3" s="758"/>
-      <c r="O3" s="758"/>
-      <c r="P3" s="758"/>
+      <c r="C3" s="762"/>
+      <c r="D3" s="762"/>
+      <c r="E3" s="762"/>
+      <c r="F3" s="762"/>
+      <c r="G3" s="762"/>
+      <c r="H3" s="762"/>
+      <c r="I3" s="762"/>
+      <c r="J3" s="762"/>
+      <c r="K3" s="762"/>
+      <c r="L3" s="762"/>
+      <c r="M3" s="762"/>
+      <c r="N3" s="762"/>
+      <c r="O3" s="762"/>
+      <c r="P3" s="762"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="759" t="s">
@@ -17020,23 +17020,23 @@
       <c r="P4" s="759"/>
     </row>
     <row r="5" spans="2:16" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="462" t="s">
+      <c r="B5" s="493" t="s">
         <v>265</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="462"/>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="462"/>
-      <c r="K5" s="462"/>
-      <c r="L5" s="462"/>
-      <c r="M5" s="462"/>
-      <c r="N5" s="462"/>
-      <c r="O5" s="462"/>
-      <c r="P5" s="462"/>
+      <c r="C5" s="493"/>
+      <c r="D5" s="493"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="493"/>
+      <c r="J5" s="493"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="493"/>
+      <c r="M5" s="493"/>
+      <c r="N5" s="493"/>
+      <c r="O5" s="493"/>
+      <c r="P5" s="493"/>
     </row>
     <row r="6" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B6" s="761" t="s">
@@ -17058,23 +17058,23 @@
       <c r="P6" s="761"/>
     </row>
     <row r="7" spans="2:16" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B7" s="462" t="s">
+      <c r="B7" s="493" t="s">
         <v>227</v>
       </c>
-      <c r="C7" s="462"/>
-      <c r="D7" s="462"/>
-      <c r="E7" s="462"/>
-      <c r="F7" s="462"/>
-      <c r="G7" s="462"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="462"/>
-      <c r="J7" s="462"/>
-      <c r="K7" s="462"/>
-      <c r="L7" s="462"/>
-      <c r="M7" s="462"/>
-      <c r="N7" s="462"/>
-      <c r="O7" s="462"/>
-      <c r="P7" s="462"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="493"/>
+      <c r="G7" s="493"/>
+      <c r="H7" s="493"/>
+      <c r="I7" s="493"/>
+      <c r="J7" s="493"/>
+      <c r="K7" s="493"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
+      <c r="N7" s="493"/>
+      <c r="O7" s="493"/>
+      <c r="P7" s="493"/>
     </row>
     <row r="8" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B8" s="761" t="s">
@@ -17204,23 +17204,23 @@
       <c r="P14" s="187"/>
     </row>
     <row r="15" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="762" t="s">
+      <c r="B15" s="766" t="s">
         <v>229</v>
       </c>
-      <c r="C15" s="762"/>
-      <c r="D15" s="762"/>
-      <c r="E15" s="762"/>
-      <c r="F15" s="762"/>
-      <c r="G15" s="762"/>
-      <c r="H15" s="762"/>
-      <c r="I15" s="762"/>
-      <c r="J15" s="762"/>
-      <c r="K15" s="762"/>
-      <c r="L15" s="762"/>
-      <c r="M15" s="762"/>
-      <c r="N15" s="762"/>
-      <c r="O15" s="762"/>
-      <c r="P15" s="762"/>
+      <c r="C15" s="766"/>
+      <c r="D15" s="766"/>
+      <c r="E15" s="766"/>
+      <c r="F15" s="766"/>
+      <c r="G15" s="766"/>
+      <c r="H15" s="766"/>
+      <c r="I15" s="766"/>
+      <c r="J15" s="766"/>
+      <c r="K15" s="766"/>
+      <c r="L15" s="766"/>
+      <c r="M15" s="766"/>
+      <c r="N15" s="766"/>
+      <c r="O15" s="766"/>
+      <c r="P15" s="766"/>
     </row>
     <row r="16" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B16" s="185"/>
@@ -17240,23 +17240,23 @@
       <c r="P16" s="187"/>
     </row>
     <row r="17" spans="2:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="763" t="s">
+      <c r="B17" s="767" t="s">
         <v>142</v>
       </c>
-      <c r="C17" s="763"/>
-      <c r="D17" s="763"/>
-      <c r="E17" s="763"/>
-      <c r="F17" s="763"/>
-      <c r="G17" s="763"/>
-      <c r="H17" s="763"/>
-      <c r="I17" s="763"/>
-      <c r="J17" s="763"/>
-      <c r="K17" s="763"/>
-      <c r="L17" s="763"/>
-      <c r="M17" s="763"/>
-      <c r="N17" s="763"/>
-      <c r="O17" s="763"/>
-      <c r="P17" s="763"/>
+      <c r="C17" s="767"/>
+      <c r="D17" s="767"/>
+      <c r="E17" s="767"/>
+      <c r="F17" s="767"/>
+      <c r="G17" s="767"/>
+      <c r="H17" s="767"/>
+      <c r="I17" s="767"/>
+      <c r="J17" s="767"/>
+      <c r="K17" s="767"/>
+      <c r="L17" s="767"/>
+      <c r="M17" s="767"/>
+      <c r="N17" s="767"/>
+      <c r="O17" s="767"/>
+      <c r="P17" s="767"/>
     </row>
     <row r="18" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B18" s="185" t="s">
@@ -17278,22 +17278,22 @@
       <c r="P18" s="187"/>
     </row>
     <row r="19" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="762" t="s">
+      <c r="B19" s="766" t="s">
         <v>152</v>
       </c>
-      <c r="C19" s="762"/>
-      <c r="D19" s="762"/>
-      <c r="E19" s="762"/>
-      <c r="F19" s="762"/>
-      <c r="G19" s="762"/>
-      <c r="H19" s="762"/>
-      <c r="I19" s="762"/>
-      <c r="J19" s="762"/>
-      <c r="K19" s="762"/>
-      <c r="L19" s="762"/>
-      <c r="M19" s="762"/>
-      <c r="N19" s="762"/>
-      <c r="O19" s="762"/>
+      <c r="C19" s="766"/>
+      <c r="D19" s="766"/>
+      <c r="E19" s="766"/>
+      <c r="F19" s="766"/>
+      <c r="G19" s="766"/>
+      <c r="H19" s="766"/>
+      <c r="I19" s="766"/>
+      <c r="J19" s="766"/>
+      <c r="K19" s="766"/>
+      <c r="L19" s="766"/>
+      <c r="M19" s="766"/>
+      <c r="N19" s="766"/>
+      <c r="O19" s="766"/>
       <c r="P19" s="72"/>
     </row>
     <row r="20" spans="2:16" x14ac:dyDescent="0.25">
@@ -17422,23 +17422,23 @@
       <c r="P26" s="187"/>
     </row>
     <row r="27" spans="2:16" ht="50.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="763" t="s">
+      <c r="B27" s="767" t="s">
         <v>143</v>
       </c>
-      <c r="C27" s="763"/>
-      <c r="D27" s="763"/>
-      <c r="E27" s="763"/>
-      <c r="F27" s="763"/>
-      <c r="G27" s="763"/>
-      <c r="H27" s="763"/>
-      <c r="I27" s="763"/>
-      <c r="J27" s="763"/>
-      <c r="K27" s="763"/>
-      <c r="L27" s="763"/>
-      <c r="M27" s="763"/>
-      <c r="N27" s="763"/>
-      <c r="O27" s="763"/>
-      <c r="P27" s="763"/>
+      <c r="C27" s="767"/>
+      <c r="D27" s="767"/>
+      <c r="E27" s="767"/>
+      <c r="F27" s="767"/>
+      <c r="G27" s="767"/>
+      <c r="H27" s="767"/>
+      <c r="I27" s="767"/>
+      <c r="J27" s="767"/>
+      <c r="K27" s="767"/>
+      <c r="L27" s="767"/>
+      <c r="M27" s="767"/>
+      <c r="N27" s="767"/>
+      <c r="O27" s="767"/>
+      <c r="P27" s="767"/>
     </row>
     <row r="28" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B28" s="761" t="s">
@@ -17460,23 +17460,23 @@
       <c r="P28" s="761"/>
     </row>
     <row r="29" spans="2:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B29" s="763" t="s">
+      <c r="B29" s="767" t="s">
         <v>144</v>
       </c>
-      <c r="C29" s="763"/>
-      <c r="D29" s="763"/>
-      <c r="E29" s="763"/>
-      <c r="F29" s="763"/>
-      <c r="G29" s="763"/>
-      <c r="H29" s="763"/>
-      <c r="I29" s="763"/>
-      <c r="J29" s="763"/>
-      <c r="K29" s="763"/>
-      <c r="L29" s="763"/>
-      <c r="M29" s="763"/>
-      <c r="N29" s="763"/>
-      <c r="O29" s="763"/>
-      <c r="P29" s="763"/>
+      <c r="C29" s="767"/>
+      <c r="D29" s="767"/>
+      <c r="E29" s="767"/>
+      <c r="F29" s="767"/>
+      <c r="G29" s="767"/>
+      <c r="H29" s="767"/>
+      <c r="I29" s="767"/>
+      <c r="J29" s="767"/>
+      <c r="K29" s="767"/>
+      <c r="L29" s="767"/>
+      <c r="M29" s="767"/>
+      <c r="N29" s="767"/>
+      <c r="O29" s="767"/>
+      <c r="P29" s="767"/>
     </row>
     <row r="30" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B30" s="81"/>
@@ -17496,23 +17496,23 @@
       <c r="P30" s="187"/>
     </row>
     <row r="31" spans="2:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B31" s="763" t="s">
+      <c r="B31" s="767" t="s">
         <v>145</v>
       </c>
-      <c r="C31" s="763"/>
-      <c r="D31" s="763"/>
-      <c r="E31" s="763"/>
-      <c r="F31" s="763"/>
-      <c r="G31" s="763"/>
-      <c r="H31" s="763"/>
-      <c r="I31" s="763"/>
-      <c r="J31" s="763"/>
-      <c r="K31" s="763"/>
-      <c r="L31" s="763"/>
-      <c r="M31" s="763"/>
-      <c r="N31" s="763"/>
-      <c r="O31" s="763"/>
-      <c r="P31" s="763"/>
+      <c r="C31" s="767"/>
+      <c r="D31" s="767"/>
+      <c r="E31" s="767"/>
+      <c r="F31" s="767"/>
+      <c r="G31" s="767"/>
+      <c r="H31" s="767"/>
+      <c r="I31" s="767"/>
+      <c r="J31" s="767"/>
+      <c r="K31" s="767"/>
+      <c r="L31" s="767"/>
+      <c r="M31" s="767"/>
+      <c r="N31" s="767"/>
+      <c r="O31" s="767"/>
+      <c r="P31" s="767"/>
     </row>
     <row r="32" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B32" s="185"/>
@@ -17532,23 +17532,23 @@
       <c r="P32" s="187"/>
     </row>
     <row r="33" spans="2:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B33" s="763" t="s">
+      <c r="B33" s="767" t="s">
         <v>146</v>
       </c>
-      <c r="C33" s="763"/>
-      <c r="D33" s="763"/>
-      <c r="E33" s="763"/>
-      <c r="F33" s="763"/>
-      <c r="G33" s="763"/>
-      <c r="H33" s="763"/>
-      <c r="I33" s="763"/>
-      <c r="J33" s="763"/>
-      <c r="K33" s="763"/>
-      <c r="L33" s="763"/>
-      <c r="M33" s="763"/>
-      <c r="N33" s="763"/>
-      <c r="O33" s="763"/>
-      <c r="P33" s="763"/>
+      <c r="C33" s="767"/>
+      <c r="D33" s="767"/>
+      <c r="E33" s="767"/>
+      <c r="F33" s="767"/>
+      <c r="G33" s="767"/>
+      <c r="H33" s="767"/>
+      <c r="I33" s="767"/>
+      <c r="J33" s="767"/>
+      <c r="K33" s="767"/>
+      <c r="L33" s="767"/>
+      <c r="M33" s="767"/>
+      <c r="N33" s="767"/>
+      <c r="O33" s="767"/>
+      <c r="P33" s="767"/>
     </row>
     <row r="34" spans="2:16" ht="6" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B34" s="185"/>
@@ -17568,23 +17568,23 @@
       <c r="P34" s="187"/>
     </row>
     <row r="35" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B35" s="760" t="s">
+      <c r="B35" s="765" t="s">
         <v>164</v>
       </c>
-      <c r="C35" s="760"/>
-      <c r="D35" s="760"/>
-      <c r="E35" s="760"/>
-      <c r="F35" s="760"/>
-      <c r="G35" s="760"/>
-      <c r="H35" s="760"/>
-      <c r="I35" s="760"/>
-      <c r="J35" s="760"/>
-      <c r="K35" s="760"/>
-      <c r="L35" s="760"/>
-      <c r="M35" s="760"/>
-      <c r="N35" s="760"/>
-      <c r="O35" s="760"/>
-      <c r="P35" s="760"/>
+      <c r="C35" s="765"/>
+      <c r="D35" s="765"/>
+      <c r="E35" s="765"/>
+      <c r="F35" s="765"/>
+      <c r="G35" s="765"/>
+      <c r="H35" s="765"/>
+      <c r="I35" s="765"/>
+      <c r="J35" s="765"/>
+      <c r="K35" s="765"/>
+      <c r="L35" s="765"/>
+      <c r="M35" s="765"/>
+      <c r="N35" s="765"/>
+      <c r="O35" s="765"/>
+      <c r="P35" s="765"/>
     </row>
     <row r="36" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B36" s="759" t="s">
@@ -17623,23 +17623,23 @@
       <c r="P37" s="187"/>
     </row>
     <row r="38" spans="2:16" ht="38.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B38" s="765" t="s">
+      <c r="B38" s="760" t="s">
         <v>230</v>
       </c>
-      <c r="C38" s="765"/>
-      <c r="D38" s="765"/>
-      <c r="E38" s="765"/>
-      <c r="F38" s="765"/>
-      <c r="G38" s="765"/>
-      <c r="H38" s="765"/>
-      <c r="I38" s="765"/>
-      <c r="J38" s="765"/>
-      <c r="K38" s="765"/>
-      <c r="L38" s="765"/>
-      <c r="M38" s="765"/>
-      <c r="N38" s="765"/>
-      <c r="O38" s="765"/>
-      <c r="P38" s="765"/>
+      <c r="C38" s="760"/>
+      <c r="D38" s="760"/>
+      <c r="E38" s="760"/>
+      <c r="F38" s="760"/>
+      <c r="G38" s="760"/>
+      <c r="H38" s="760"/>
+      <c r="I38" s="760"/>
+      <c r="J38" s="760"/>
+      <c r="K38" s="760"/>
+      <c r="L38" s="760"/>
+      <c r="M38" s="760"/>
+      <c r="N38" s="760"/>
+      <c r="O38" s="760"/>
+      <c r="P38" s="760"/>
     </row>
     <row r="39" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B39" s="185"/>
@@ -17678,23 +17678,23 @@
       <c r="P40" s="761"/>
     </row>
     <row r="41" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B41" s="462" t="s">
+      <c r="B41" s="493" t="s">
         <v>267</v>
       </c>
-      <c r="C41" s="462"/>
-      <c r="D41" s="462"/>
-      <c r="E41" s="462"/>
-      <c r="F41" s="462"/>
-      <c r="G41" s="462"/>
-      <c r="H41" s="462"/>
-      <c r="I41" s="462"/>
-      <c r="J41" s="462"/>
-      <c r="K41" s="462"/>
-      <c r="L41" s="462"/>
-      <c r="M41" s="462"/>
-      <c r="N41" s="462"/>
-      <c r="O41" s="462"/>
-      <c r="P41" s="462"/>
+      <c r="C41" s="493"/>
+      <c r="D41" s="493"/>
+      <c r="E41" s="493"/>
+      <c r="F41" s="493"/>
+      <c r="G41" s="493"/>
+      <c r="H41" s="493"/>
+      <c r="I41" s="493"/>
+      <c r="J41" s="493"/>
+      <c r="K41" s="493"/>
+      <c r="L41" s="493"/>
+      <c r="M41" s="493"/>
+      <c r="N41" s="493"/>
+      <c r="O41" s="493"/>
+      <c r="P41" s="493"/>
     </row>
     <row r="42" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B42" s="185"/>
@@ -17714,23 +17714,23 @@
       <c r="P42" s="187"/>
     </row>
     <row r="43" spans="2:16" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B43" s="462" t="s">
+      <c r="B43" s="493" t="s">
         <v>268</v>
       </c>
-      <c r="C43" s="462"/>
-      <c r="D43" s="462"/>
-      <c r="E43" s="462"/>
-      <c r="F43" s="462"/>
-      <c r="G43" s="462"/>
-      <c r="H43" s="462"/>
-      <c r="I43" s="462"/>
-      <c r="J43" s="462"/>
-      <c r="K43" s="462"/>
-      <c r="L43" s="462"/>
-      <c r="M43" s="462"/>
-      <c r="N43" s="462"/>
-      <c r="O43" s="462"/>
-      <c r="P43" s="462"/>
+      <c r="C43" s="493"/>
+      <c r="D43" s="493"/>
+      <c r="E43" s="493"/>
+      <c r="F43" s="493"/>
+      <c r="G43" s="493"/>
+      <c r="H43" s="493"/>
+      <c r="I43" s="493"/>
+      <c r="J43" s="493"/>
+      <c r="K43" s="493"/>
+      <c r="L43" s="493"/>
+      <c r="M43" s="493"/>
+      <c r="N43" s="493"/>
+      <c r="O43" s="493"/>
+      <c r="P43" s="493"/>
     </row>
     <row r="44" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B44" s="185"/>
@@ -17786,23 +17786,23 @@
       <c r="P46" s="187"/>
     </row>
     <row r="47" spans="2:16" ht="25.5" x14ac:dyDescent="0.25">
-      <c r="B47" s="758" t="s">
+      <c r="B47" s="762" t="s">
         <v>165</v>
       </c>
-      <c r="C47" s="758"/>
-      <c r="D47" s="758"/>
-      <c r="E47" s="758"/>
-      <c r="F47" s="758"/>
-      <c r="G47" s="758"/>
-      <c r="H47" s="758"/>
-      <c r="I47" s="758"/>
-      <c r="J47" s="758"/>
-      <c r="K47" s="758"/>
-      <c r="L47" s="758"/>
-      <c r="M47" s="758"/>
-      <c r="N47" s="758"/>
-      <c r="O47" s="758"/>
-      <c r="P47" s="758"/>
+      <c r="C47" s="762"/>
+      <c r="D47" s="762"/>
+      <c r="E47" s="762"/>
+      <c r="F47" s="762"/>
+      <c r="G47" s="762"/>
+      <c r="H47" s="762"/>
+      <c r="I47" s="762"/>
+      <c r="J47" s="762"/>
+      <c r="K47" s="762"/>
+      <c r="L47" s="762"/>
+      <c r="M47" s="762"/>
+      <c r="N47" s="762"/>
+      <c r="O47" s="762"/>
+      <c r="P47" s="762"/>
     </row>
     <row r="48" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B48" s="759" t="s">
@@ -17860,23 +17860,23 @@
       <c r="P50" s="187"/>
     </row>
     <row r="51" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B51" s="462" t="s">
+      <c r="B51" s="493" t="s">
         <v>182</v>
       </c>
-      <c r="C51" s="462"/>
-      <c r="D51" s="462"/>
-      <c r="E51" s="462"/>
-      <c r="F51" s="462"/>
-      <c r="G51" s="462"/>
-      <c r="H51" s="462"/>
-      <c r="I51" s="462"/>
-      <c r="J51" s="462"/>
-      <c r="K51" s="462"/>
-      <c r="L51" s="462"/>
-      <c r="M51" s="462"/>
-      <c r="N51" s="462"/>
-      <c r="O51" s="462"/>
-      <c r="P51" s="462"/>
+      <c r="C51" s="493"/>
+      <c r="D51" s="493"/>
+      <c r="E51" s="493"/>
+      <c r="F51" s="493"/>
+      <c r="G51" s="493"/>
+      <c r="H51" s="493"/>
+      <c r="I51" s="493"/>
+      <c r="J51" s="493"/>
+      <c r="K51" s="493"/>
+      <c r="L51" s="493"/>
+      <c r="M51" s="493"/>
+      <c r="N51" s="493"/>
+      <c r="O51" s="493"/>
+      <c r="P51" s="493"/>
     </row>
     <row r="52" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B52" s="185"/>
@@ -17932,23 +17932,23 @@
       <c r="P54" s="187"/>
     </row>
     <row r="55" spans="2:16" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B55" s="764" t="s">
+      <c r="B55" s="763" t="s">
         <v>214</v>
       </c>
-      <c r="C55" s="764"/>
-      <c r="D55" s="764"/>
-      <c r="E55" s="764"/>
-      <c r="F55" s="764"/>
-      <c r="G55" s="764"/>
-      <c r="H55" s="764"/>
-      <c r="I55" s="764"/>
-      <c r="J55" s="764"/>
-      <c r="K55" s="764"/>
-      <c r="L55" s="764"/>
-      <c r="M55" s="764"/>
-      <c r="N55" s="764"/>
-      <c r="O55" s="764"/>
-      <c r="P55" s="764"/>
+      <c r="C55" s="763"/>
+      <c r="D55" s="763"/>
+      <c r="E55" s="763"/>
+      <c r="F55" s="763"/>
+      <c r="G55" s="763"/>
+      <c r="H55" s="763"/>
+      <c r="I55" s="763"/>
+      <c r="J55" s="763"/>
+      <c r="K55" s="763"/>
+      <c r="L55" s="763"/>
+      <c r="M55" s="763"/>
+      <c r="N55" s="763"/>
+      <c r="O55" s="763"/>
+      <c r="P55" s="763"/>
     </row>
     <row r="56" spans="2:16" ht="10.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B56" s="80"/>
@@ -18114,23 +18114,23 @@
       <c r="P64" s="187"/>
     </row>
     <row r="65" spans="2:16" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B65" s="462" t="s">
+      <c r="B65" s="493" t="s">
         <v>149</v>
       </c>
-      <c r="C65" s="462"/>
-      <c r="D65" s="462"/>
-      <c r="E65" s="462"/>
-      <c r="F65" s="462"/>
-      <c r="G65" s="462"/>
-      <c r="H65" s="462"/>
-      <c r="I65" s="462"/>
-      <c r="J65" s="462"/>
-      <c r="K65" s="462"/>
-      <c r="L65" s="462"/>
-      <c r="M65" s="462"/>
-      <c r="N65" s="462"/>
-      <c r="O65" s="462"/>
-      <c r="P65" s="462"/>
+      <c r="C65" s="493"/>
+      <c r="D65" s="493"/>
+      <c r="E65" s="493"/>
+      <c r="F65" s="493"/>
+      <c r="G65" s="493"/>
+      <c r="H65" s="493"/>
+      <c r="I65" s="493"/>
+      <c r="J65" s="493"/>
+      <c r="K65" s="493"/>
+      <c r="L65" s="493"/>
+      <c r="M65" s="493"/>
+      <c r="N65" s="493"/>
+      <c r="O65" s="493"/>
+      <c r="P65" s="493"/>
     </row>
     <row r="66" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B66" s="185"/>
@@ -18169,20 +18169,20 @@
       <c r="P67" s="187"/>
     </row>
     <row r="68" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B68" s="766"/>
-      <c r="C68" s="766"/>
-      <c r="D68" s="766"/>
-      <c r="E68" s="766"/>
-      <c r="F68" s="766"/>
-      <c r="G68" s="766"/>
-      <c r="H68" s="766"/>
-      <c r="I68" s="766"/>
-      <c r="J68" s="766"/>
-      <c r="K68" s="766"/>
-      <c r="L68" s="766"/>
-      <c r="M68" s="766"/>
-      <c r="N68" s="766"/>
-      <c r="O68" s="766"/>
+      <c r="B68" s="758"/>
+      <c r="C68" s="758"/>
+      <c r="D68" s="758"/>
+      <c r="E68" s="758"/>
+      <c r="F68" s="758"/>
+      <c r="G68" s="758"/>
+      <c r="H68" s="758"/>
+      <c r="I68" s="758"/>
+      <c r="J68" s="758"/>
+      <c r="K68" s="758"/>
+      <c r="L68" s="758"/>
+      <c r="M68" s="758"/>
+      <c r="N68" s="758"/>
+      <c r="O68" s="758"/>
       <c r="P68" s="187"/>
     </row>
     <row r="69" spans="2:16" x14ac:dyDescent="0.25">
@@ -18222,23 +18222,23 @@
       <c r="P70" s="187"/>
     </row>
     <row r="71" spans="2:16" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B71" s="462" t="s">
+      <c r="B71" s="493" t="s">
         <v>125</v>
       </c>
-      <c r="C71" s="462"/>
-      <c r="D71" s="462"/>
-      <c r="E71" s="462"/>
-      <c r="F71" s="462"/>
-      <c r="G71" s="462"/>
-      <c r="H71" s="462"/>
-      <c r="I71" s="462"/>
-      <c r="J71" s="462"/>
-      <c r="K71" s="462"/>
-      <c r="L71" s="462"/>
-      <c r="M71" s="462"/>
-      <c r="N71" s="462"/>
-      <c r="O71" s="462"/>
-      <c r="P71" s="462"/>
+      <c r="C71" s="493"/>
+      <c r="D71" s="493"/>
+      <c r="E71" s="493"/>
+      <c r="F71" s="493"/>
+      <c r="G71" s="493"/>
+      <c r="H71" s="493"/>
+      <c r="I71" s="493"/>
+      <c r="J71" s="493"/>
+      <c r="K71" s="493"/>
+      <c r="L71" s="493"/>
+      <c r="M71" s="493"/>
+      <c r="N71" s="493"/>
+      <c r="O71" s="493"/>
+      <c r="P71" s="493"/>
     </row>
     <row r="72" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B72" s="185" t="s">
@@ -18448,23 +18448,23 @@
       <c r="P82" s="187"/>
     </row>
     <row r="83" spans="2:16" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B83" s="462" t="s">
+      <c r="B83" s="493" t="s">
         <v>137</v>
       </c>
-      <c r="C83" s="462"/>
-      <c r="D83" s="462"/>
-      <c r="E83" s="462"/>
-      <c r="F83" s="462"/>
-      <c r="G83" s="462"/>
-      <c r="H83" s="462"/>
-      <c r="I83" s="462"/>
-      <c r="J83" s="462"/>
-      <c r="K83" s="462"/>
-      <c r="L83" s="462"/>
-      <c r="M83" s="462"/>
-      <c r="N83" s="462"/>
-      <c r="O83" s="462"/>
-      <c r="P83" s="462"/>
+      <c r="C83" s="493"/>
+      <c r="D83" s="493"/>
+      <c r="E83" s="493"/>
+      <c r="F83" s="493"/>
+      <c r="G83" s="493"/>
+      <c r="H83" s="493"/>
+      <c r="I83" s="493"/>
+      <c r="J83" s="493"/>
+      <c r="K83" s="493"/>
+      <c r="L83" s="493"/>
+      <c r="M83" s="493"/>
+      <c r="N83" s="493"/>
+      <c r="O83" s="493"/>
+      <c r="P83" s="493"/>
     </row>
     <row r="84" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B84" s="185"/>
@@ -18520,23 +18520,23 @@
       <c r="P86" s="187"/>
     </row>
     <row r="87" spans="2:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B87" s="462" t="s">
+      <c r="B87" s="493" t="s">
         <v>141</v>
       </c>
-      <c r="C87" s="462"/>
-      <c r="D87" s="462"/>
-      <c r="E87" s="462"/>
-      <c r="F87" s="462"/>
-      <c r="G87" s="462"/>
-      <c r="H87" s="462"/>
-      <c r="I87" s="462"/>
-      <c r="J87" s="462"/>
-      <c r="K87" s="462"/>
-      <c r="L87" s="462"/>
-      <c r="M87" s="462"/>
-      <c r="N87" s="462"/>
-      <c r="O87" s="462"/>
-      <c r="P87" s="462"/>
+      <c r="C87" s="493"/>
+      <c r="D87" s="493"/>
+      <c r="E87" s="493"/>
+      <c r="F87" s="493"/>
+      <c r="G87" s="493"/>
+      <c r="H87" s="493"/>
+      <c r="I87" s="493"/>
+      <c r="J87" s="493"/>
+      <c r="K87" s="493"/>
+      <c r="L87" s="493"/>
+      <c r="M87" s="493"/>
+      <c r="N87" s="493"/>
+      <c r="O87" s="493"/>
+      <c r="P87" s="493"/>
     </row>
     <row r="88" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B88" s="187"/>
@@ -18558,21 +18558,6 @@
   </sheetData>
   <sheetProtection algorithmName="SHA-512" hashValue="QnJEcKyTsFxnG/saYUUs0LDYBrpM3rty46FmUFN2lHz4c8bA62iuV1B2OBAgAFQ/sztX8Y+2FL9dnMfS9pAJRQ==" saltValue="gRiY9H2HFD61jb2lTPgVBw==" spinCount="100000" sheet="1" objects="1" scenarios="1" selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="31">
-    <mergeCell ref="B68:O68"/>
-    <mergeCell ref="B71:P71"/>
-    <mergeCell ref="B83:P83"/>
-    <mergeCell ref="B87:P87"/>
-    <mergeCell ref="B65:P65"/>
-    <mergeCell ref="B36:P36"/>
-    <mergeCell ref="B38:P38"/>
-    <mergeCell ref="B40:P40"/>
-    <mergeCell ref="B41:P41"/>
-    <mergeCell ref="B43:P43"/>
-    <mergeCell ref="B47:P47"/>
-    <mergeCell ref="B48:P48"/>
-    <mergeCell ref="B49:P49"/>
-    <mergeCell ref="B51:P51"/>
-    <mergeCell ref="B55:P55"/>
     <mergeCell ref="B1:P1"/>
     <mergeCell ref="B3:P3"/>
     <mergeCell ref="B4:P4"/>
@@ -18589,6 +18574,21 @@
     <mergeCell ref="B29:P29"/>
     <mergeCell ref="B31:P31"/>
     <mergeCell ref="B33:P33"/>
+    <mergeCell ref="B47:P47"/>
+    <mergeCell ref="B48:P48"/>
+    <mergeCell ref="B49:P49"/>
+    <mergeCell ref="B51:P51"/>
+    <mergeCell ref="B55:P55"/>
+    <mergeCell ref="B36:P36"/>
+    <mergeCell ref="B38:P38"/>
+    <mergeCell ref="B40:P40"/>
+    <mergeCell ref="B41:P41"/>
+    <mergeCell ref="B43:P43"/>
+    <mergeCell ref="B68:O68"/>
+    <mergeCell ref="B71:P71"/>
+    <mergeCell ref="B83:P83"/>
+    <mergeCell ref="B87:P87"/>
+    <mergeCell ref="B65:P65"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -18621,23 +18621,23 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:16" ht="20.25" x14ac:dyDescent="0.25">
-      <c r="B1" s="757" t="s">
+      <c r="B1" s="764" t="s">
         <v>252</v>
       </c>
-      <c r="C1" s="757"/>
-      <c r="D1" s="757"/>
-      <c r="E1" s="757"/>
-      <c r="F1" s="757"/>
-      <c r="G1" s="757"/>
-      <c r="H1" s="757"/>
-      <c r="I1" s="757"/>
-      <c r="J1" s="757"/>
-      <c r="K1" s="757"/>
-      <c r="L1" s="757"/>
-      <c r="M1" s="757"/>
-      <c r="N1" s="757"/>
-      <c r="O1" s="757"/>
-      <c r="P1" s="757"/>
+      <c r="C1" s="764"/>
+      <c r="D1" s="764"/>
+      <c r="E1" s="764"/>
+      <c r="F1" s="764"/>
+      <c r="G1" s="764"/>
+      <c r="H1" s="764"/>
+      <c r="I1" s="764"/>
+      <c r="J1" s="764"/>
+      <c r="K1" s="764"/>
+      <c r="L1" s="764"/>
+      <c r="M1" s="764"/>
+      <c r="N1" s="764"/>
+      <c r="O1" s="764"/>
+      <c r="P1" s="764"/>
     </row>
     <row r="2" spans="2:16" ht="8.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B2" s="79"/>
@@ -18657,23 +18657,23 @@
       <c r="P2" s="187"/>
     </row>
     <row r="3" spans="2:16" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="758" t="s">
+      <c r="B3" s="762" t="s">
         <v>163</v>
       </c>
-      <c r="C3" s="758"/>
-      <c r="D3" s="758"/>
-      <c r="E3" s="758"/>
-      <c r="F3" s="758"/>
-      <c r="G3" s="758"/>
-      <c r="H3" s="758"/>
-      <c r="I3" s="758"/>
-      <c r="J3" s="758"/>
-      <c r="K3" s="758"/>
-      <c r="L3" s="758"/>
-      <c r="M3" s="758"/>
-      <c r="N3" s="758"/>
-      <c r="O3" s="758"/>
-      <c r="P3" s="758"/>
+      <c r="C3" s="762"/>
+      <c r="D3" s="762"/>
+      <c r="E3" s="762"/>
+      <c r="F3" s="762"/>
+      <c r="G3" s="762"/>
+      <c r="H3" s="762"/>
+      <c r="I3" s="762"/>
+      <c r="J3" s="762"/>
+      <c r="K3" s="762"/>
+      <c r="L3" s="762"/>
+      <c r="M3" s="762"/>
+      <c r="N3" s="762"/>
+      <c r="O3" s="762"/>
+      <c r="P3" s="762"/>
     </row>
     <row r="4" spans="2:16" x14ac:dyDescent="0.25">
       <c r="B4" s="187"/>
@@ -18693,270 +18693,270 @@
       <c r="P4" s="187"/>
     </row>
     <row r="5" spans="2:16" ht="51.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="462" t="s">
+      <c r="B5" s="493" t="s">
         <v>294</v>
       </c>
-      <c r="C5" s="462"/>
-      <c r="D5" s="462"/>
-      <c r="E5" s="462"/>
-      <c r="F5" s="462"/>
-      <c r="G5" s="462"/>
-      <c r="H5" s="462"/>
-      <c r="I5" s="462"/>
-      <c r="J5" s="462"/>
-      <c r="K5" s="462"/>
-      <c r="L5" s="462"/>
-      <c r="M5" s="462"/>
-      <c r="N5" s="462"/>
-      <c r="O5" s="462"/>
-      <c r="P5" s="462"/>
+      <c r="C5" s="493"/>
+      <c r="D5" s="493"/>
+      <c r="E5" s="493"/>
+      <c r="F5" s="493"/>
+      <c r="G5" s="493"/>
+      <c r="H5" s="493"/>
+      <c r="I5" s="493"/>
+      <c r="J5" s="493"/>
+      <c r="K5" s="493"/>
+      <c r="L5" s="493"/>
+      <c r="M5" s="493"/>
+      <c r="N5" s="493"/>
+      <c r="O5" s="493"/>
+      <c r="P5" s="493"/>
     </row>
     <row r="7" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B7" s="462" t="s">
+      <c r="B7" s="493" t="s">
         <v>240</v>
       </c>
-      <c r="C7" s="462"/>
-      <c r="D7" s="462"/>
-      <c r="E7" s="462"/>
-      <c r="F7" s="462"/>
-      <c r="G7" s="462"/>
-      <c r="H7" s="462"/>
-      <c r="I7" s="462"/>
-      <c r="J7" s="462"/>
-      <c r="K7" s="462"/>
-      <c r="L7" s="462"/>
-      <c r="M7" s="462"/>
-      <c r="N7" s="462"/>
-      <c r="O7" s="462"/>
-      <c r="P7" s="462"/>
+      <c r="C7" s="493"/>
+      <c r="D7" s="493"/>
+      <c r="E7" s="493"/>
+      <c r="F7" s="493"/>
+      <c r="G7" s="493"/>
+      <c r="H7" s="493"/>
+      <c r="I7" s="493"/>
+      <c r="J7" s="493"/>
+      <c r="K7" s="493"/>
+      <c r="L7" s="493"/>
+      <c r="M7" s="493"/>
+      <c r="N7" s="493"/>
+      <c r="O7" s="493"/>
+      <c r="P7" s="493"/>
     </row>
     <row r="9" spans="2:16" ht="27" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B9" s="462" t="s">
+      <c r="B9" s="493" t="s">
         <v>276</v>
       </c>
-      <c r="C9" s="462"/>
-      <c r="D9" s="462"/>
-      <c r="E9" s="462"/>
-      <c r="F9" s="462"/>
-      <c r="G9" s="462"/>
-      <c r="H9" s="462"/>
-      <c r="I9" s="462"/>
-      <c r="J9" s="462"/>
-      <c r="K9" s="462"/>
-      <c r="L9" s="462"/>
-      <c r="M9" s="462"/>
-      <c r="N9" s="462"/>
-      <c r="O9" s="462"/>
-      <c r="P9" s="462"/>
+      <c r="C9" s="493"/>
+      <c r="D9" s="493"/>
+      <c r="E9" s="493"/>
+      <c r="F9" s="493"/>
+      <c r="G9" s="493"/>
+      <c r="H9" s="493"/>
+      <c r="I9" s="493"/>
+      <c r="J9" s="493"/>
+      <c r="K9" s="493"/>
+      <c r="L9" s="493"/>
+      <c r="M9" s="493"/>
+      <c r="N9" s="493"/>
+      <c r="O9" s="493"/>
+      <c r="P9" s="493"/>
     </row>
     <row r="11" spans="2:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B11" s="462" t="s">
+      <c r="B11" s="493" t="s">
         <v>317</v>
       </c>
-      <c r="C11" s="462"/>
-      <c r="D11" s="462"/>
-      <c r="E11" s="462"/>
-      <c r="F11" s="462"/>
-      <c r="G11" s="462"/>
-      <c r="H11" s="462"/>
-      <c r="I11" s="462"/>
-      <c r="J11" s="462"/>
-      <c r="K11" s="462"/>
-      <c r="L11" s="462"/>
-      <c r="M11" s="462"/>
-      <c r="N11" s="462"/>
-      <c r="O11" s="462"/>
-      <c r="P11" s="462"/>
+      <c r="C11" s="493"/>
+      <c r="D11" s="493"/>
+      <c r="E11" s="493"/>
+      <c r="F11" s="493"/>
+      <c r="G11" s="493"/>
+      <c r="H11" s="493"/>
+      <c r="I11" s="493"/>
+      <c r="J11" s="493"/>
+      <c r="K11" s="493"/>
+      <c r="L11" s="493"/>
+      <c r="M11" s="493"/>
+      <c r="N11" s="493"/>
+      <c r="O11" s="493"/>
+      <c r="P11" s="493"/>
     </row>
     <row r="13" spans="2:16" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B13" s="767" t="s">
+      <c r="B13" s="768" t="s">
         <v>318</v>
       </c>
-      <c r="C13" s="767"/>
-      <c r="D13" s="767"/>
-      <c r="E13" s="767"/>
-      <c r="F13" s="767"/>
-      <c r="G13" s="767"/>
-      <c r="H13" s="767"/>
-      <c r="I13" s="767"/>
-      <c r="J13" s="767"/>
-      <c r="K13" s="767"/>
-      <c r="L13" s="767"/>
-      <c r="M13" s="767"/>
-      <c r="N13" s="767"/>
-      <c r="O13" s="767"/>
-      <c r="P13" s="767"/>
+      <c r="C13" s="768"/>
+      <c r="D13" s="768"/>
+      <c r="E13" s="768"/>
+      <c r="F13" s="768"/>
+      <c r="G13" s="768"/>
+      <c r="H13" s="768"/>
+      <c r="I13" s="768"/>
+      <c r="J13" s="768"/>
+      <c r="K13" s="768"/>
+      <c r="L13" s="768"/>
+      <c r="M13" s="768"/>
+      <c r="N13" s="768"/>
+      <c r="O13" s="768"/>
+      <c r="P13" s="768"/>
     </row>
     <row r="15" spans="2:16" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B15" s="462" t="s">
+      <c r="B15" s="493" t="s">
         <v>278</v>
       </c>
-      <c r="C15" s="462"/>
-      <c r="D15" s="462"/>
-      <c r="E15" s="462"/>
-      <c r="F15" s="462"/>
-      <c r="G15" s="462"/>
-      <c r="H15" s="462"/>
-      <c r="I15" s="462"/>
-      <c r="J15" s="462"/>
-      <c r="K15" s="462"/>
-      <c r="L15" s="462"/>
-      <c r="M15" s="462"/>
-      <c r="N15" s="462"/>
-      <c r="O15" s="462"/>
-      <c r="P15" s="462"/>
+      <c r="C15" s="493"/>
+      <c r="D15" s="493"/>
+      <c r="E15" s="493"/>
+      <c r="F15" s="493"/>
+      <c r="G15" s="493"/>
+      <c r="H15" s="493"/>
+      <c r="I15" s="493"/>
+      <c r="J15" s="493"/>
+      <c r="K15" s="493"/>
+      <c r="L15" s="493"/>
+      <c r="M15" s="493"/>
+      <c r="N15" s="493"/>
+      <c r="O15" s="493"/>
+      <c r="P15" s="493"/>
     </row>
     <row r="17" spans="2:16" ht="96.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="462" t="s">
+      <c r="B17" s="493" t="s">
         <v>274</v>
       </c>
-      <c r="C17" s="462"/>
-      <c r="D17" s="462"/>
-      <c r="E17" s="462"/>
-      <c r="F17" s="462"/>
-      <c r="G17" s="462"/>
-      <c r="H17" s="462"/>
-      <c r="I17" s="462"/>
-      <c r="J17" s="462"/>
-      <c r="K17" s="462"/>
-      <c r="L17" s="462"/>
-      <c r="M17" s="462"/>
-      <c r="N17" s="462"/>
-      <c r="O17" s="462"/>
-      <c r="P17" s="462"/>
+      <c r="C17" s="493"/>
+      <c r="D17" s="493"/>
+      <c r="E17" s="493"/>
+      <c r="F17" s="493"/>
+      <c r="G17" s="493"/>
+      <c r="H17" s="493"/>
+      <c r="I17" s="493"/>
+      <c r="J17" s="493"/>
+      <c r="K17" s="493"/>
+      <c r="L17" s="493"/>
+      <c r="M17" s="493"/>
+      <c r="N17" s="493"/>
+      <c r="O17" s="493"/>
+      <c r="P17" s="493"/>
     </row>
     <row r="19" spans="2:16" ht="75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B19" s="462" t="s">
+      <c r="B19" s="493" t="s">
         <v>241</v>
       </c>
-      <c r="C19" s="462"/>
-      <c r="D19" s="462"/>
-      <c r="E19" s="462"/>
-      <c r="F19" s="462"/>
-      <c r="G19" s="462"/>
-      <c r="H19" s="462"/>
-      <c r="I19" s="462"/>
-      <c r="J19" s="462"/>
-      <c r="K19" s="462"/>
-      <c r="L19" s="462"/>
-      <c r="M19" s="462"/>
-      <c r="N19" s="462"/>
-      <c r="O19" s="462"/>
-      <c r="P19" s="462"/>
+      <c r="C19" s="493"/>
+      <c r="D19" s="493"/>
+      <c r="E19" s="493"/>
+      <c r="F19" s="493"/>
+      <c r="G19" s="493"/>
+      <c r="H19" s="493"/>
+      <c r="I19" s="493"/>
+      <c r="J19" s="493"/>
+      <c r="K19" s="493"/>
+      <c r="L19" s="493"/>
+      <c r="M19" s="493"/>
+      <c r="N19" s="493"/>
+      <c r="O19" s="493"/>
+      <c r="P19" s="493"/>
     </row>
     <row r="21" spans="2:16" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B21" s="462" t="s">
+      <c r="B21" s="493" t="s">
         <v>242</v>
       </c>
-      <c r="C21" s="462"/>
-      <c r="D21" s="462"/>
-      <c r="E21" s="462"/>
-      <c r="F21" s="462"/>
-      <c r="G21" s="462"/>
-      <c r="H21" s="462"/>
-      <c r="I21" s="462"/>
-      <c r="J21" s="462"/>
-      <c r="K21" s="462"/>
-      <c r="L21" s="462"/>
-      <c r="M21" s="462"/>
-      <c r="N21" s="462"/>
-      <c r="O21" s="462"/>
-      <c r="P21" s="462"/>
+      <c r="C21" s="493"/>
+      <c r="D21" s="493"/>
+      <c r="E21" s="493"/>
+      <c r="F21" s="493"/>
+      <c r="G21" s="493"/>
+      <c r="H21" s="493"/>
+      <c r="I21" s="493"/>
+      <c r="J21" s="493"/>
+      <c r="K21" s="493"/>
+      <c r="L21" s="493"/>
+      <c r="M21" s="493"/>
+      <c r="N21" s="493"/>
+      <c r="O21" s="493"/>
+      <c r="P21" s="493"/>
     </row>
     <row r="23" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B23" s="462" t="s">
+      <c r="B23" s="493" t="s">
         <v>243</v>
       </c>
-      <c r="C23" s="462"/>
-      <c r="D23" s="462"/>
-      <c r="E23" s="462"/>
-      <c r="F23" s="462"/>
-      <c r="G23" s="462"/>
-      <c r="H23" s="462"/>
-      <c r="I23" s="462"/>
-      <c r="J23" s="462"/>
-      <c r="K23" s="462"/>
-      <c r="L23" s="462"/>
-      <c r="M23" s="462"/>
-      <c r="N23" s="462"/>
-      <c r="O23" s="462"/>
-      <c r="P23" s="462"/>
+      <c r="C23" s="493"/>
+      <c r="D23" s="493"/>
+      <c r="E23" s="493"/>
+      <c r="F23" s="493"/>
+      <c r="G23" s="493"/>
+      <c r="H23" s="493"/>
+      <c r="I23" s="493"/>
+      <c r="J23" s="493"/>
+      <c r="K23" s="493"/>
+      <c r="L23" s="493"/>
+      <c r="M23" s="493"/>
+      <c r="N23" s="493"/>
+      <c r="O23" s="493"/>
+      <c r="P23" s="493"/>
     </row>
     <row r="25" spans="2:16" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B25" s="462" t="s">
+      <c r="B25" s="493" t="s">
         <v>244</v>
       </c>
-      <c r="C25" s="462"/>
-      <c r="D25" s="462"/>
-      <c r="E25" s="462"/>
-      <c r="F25" s="462"/>
-      <c r="G25" s="462"/>
-      <c r="H25" s="462"/>
-      <c r="I25" s="462"/>
-      <c r="J25" s="462"/>
-      <c r="K25" s="462"/>
-      <c r="L25" s="462"/>
-      <c r="M25" s="462"/>
-      <c r="N25" s="462"/>
-      <c r="O25" s="462"/>
-      <c r="P25" s="462"/>
+      <c r="C25" s="493"/>
+      <c r="D25" s="493"/>
+      <c r="E25" s="493"/>
+      <c r="F25" s="493"/>
+      <c r="G25" s="493"/>
+      <c r="H25" s="493"/>
+      <c r="I25" s="493"/>
+      <c r="J25" s="493"/>
+      <c r="K25" s="493"/>
+      <c r="L25" s="493"/>
+      <c r="M25" s="493"/>
+      <c r="N25" s="493"/>
+      <c r="O25" s="493"/>
+      <c r="P25" s="493"/>
     </row>
     <row r="27" spans="2:16" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B27" s="462" t="s">
+      <c r="B27" s="493" t="s">
         <v>263</v>
       </c>
-      <c r="C27" s="462"/>
-      <c r="D27" s="462"/>
-      <c r="E27" s="462"/>
-      <c r="F27" s="462"/>
-      <c r="G27" s="462"/>
-      <c r="H27" s="462"/>
-      <c r="I27" s="462"/>
-      <c r="J27" s="462"/>
-      <c r="K27" s="462"/>
-      <c r="L27" s="462"/>
-      <c r="M27" s="462"/>
-      <c r="N27" s="462"/>
-      <c r="O27" s="462"/>
-      <c r="P27" s="462"/>
+      <c r="C27" s="493"/>
+      <c r="D27" s="493"/>
+      <c r="E27" s="493"/>
+      <c r="F27" s="493"/>
+      <c r="G27" s="493"/>
+      <c r="H27" s="493"/>
+      <c r="I27" s="493"/>
+      <c r="J27" s="493"/>
+      <c r="K27" s="493"/>
+      <c r="L27" s="493"/>
+      <c r="M27" s="493"/>
+      <c r="N27" s="493"/>
+      <c r="O27" s="493"/>
+      <c r="P27" s="493"/>
     </row>
     <row r="29" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B29" s="762" t="s">
+      <c r="B29" s="766" t="s">
         <v>245</v>
       </c>
-      <c r="C29" s="462"/>
-      <c r="D29" s="462"/>
-      <c r="E29" s="462"/>
-      <c r="F29" s="462"/>
-      <c r="G29" s="462"/>
-      <c r="H29" s="462"/>
-      <c r="I29" s="462"/>
-      <c r="J29" s="462"/>
-      <c r="K29" s="462"/>
-      <c r="L29" s="462"/>
-      <c r="M29" s="462"/>
-      <c r="N29" s="462"/>
-      <c r="O29" s="462"/>
-      <c r="P29" s="462"/>
+      <c r="C29" s="493"/>
+      <c r="D29" s="493"/>
+      <c r="E29" s="493"/>
+      <c r="F29" s="493"/>
+      <c r="G29" s="493"/>
+      <c r="H29" s="493"/>
+      <c r="I29" s="493"/>
+      <c r="J29" s="493"/>
+      <c r="K29" s="493"/>
+      <c r="L29" s="493"/>
+      <c r="M29" s="493"/>
+      <c r="N29" s="493"/>
+      <c r="O29" s="493"/>
+      <c r="P29" s="493"/>
     </row>
     <row r="31" spans="2:16" x14ac:dyDescent="0.25">
-      <c r="B31" s="762" t="s">
+      <c r="B31" s="766" t="s">
         <v>246</v>
       </c>
-      <c r="C31" s="462"/>
-      <c r="D31" s="462"/>
-      <c r="E31" s="462"/>
-      <c r="F31" s="462"/>
-      <c r="G31" s="462"/>
-      <c r="H31" s="462"/>
-      <c r="I31" s="462"/>
-      <c r="J31" s="462"/>
-      <c r="K31" s="462"/>
-      <c r="L31" s="462"/>
-      <c r="M31" s="462"/>
-      <c r="N31" s="462"/>
-      <c r="O31" s="462"/>
-      <c r="P31" s="462"/>
+      <c r="C31" s="493"/>
+      <c r="D31" s="493"/>
+      <c r="E31" s="493"/>
+      <c r="F31" s="493"/>
+      <c r="G31" s="493"/>
+      <c r="H31" s="493"/>
+      <c r="I31" s="493"/>
+      <c r="J31" s="493"/>
+      <c r="K31" s="493"/>
+      <c r="L31" s="493"/>
+      <c r="M31" s="493"/>
+      <c r="N31" s="493"/>
+      <c r="O31" s="493"/>
+      <c r="P31" s="493"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
@@ -19008,35 +19008,35 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="30" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="428" t="str">
+      <c r="A1" s="449" t="str">
         <f>'Section A - ICJIA Funds'!A1:B1</f>
         <v xml:space="preserve">    STATE OF ILLINOIS </v>
       </c>
-      <c r="B1" s="429"/>
-      <c r="C1" s="428" t="str">
+      <c r="B1" s="450"/>
+      <c r="C1" s="449" t="str">
         <f>'Section A - ICJIA Funds'!C1:D1</f>
         <v>UNIFORM GRANT BUDGET TEMPLATE 
 (updated by ICJIA)</v>
       </c>
-      <c r="D1" s="429"/>
-      <c r="E1" s="499" t="str">
+      <c r="D1" s="450"/>
+      <c r="E1" s="521" t="str">
         <f>'Section A - ICJIA Funds'!E1:F1</f>
         <v>AGENCY: Illinois Criminal Justice Information Authority</v>
       </c>
-      <c r="F1" s="500"/>
+      <c r="F1" s="522"/>
       <c r="G1" s="160"/>
     </row>
     <row r="2" spans="1:12" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="501" t="str">
+      <c r="A2" s="523" t="str">
         <f>'Section A - ICJIA Funds'!A2:B2</f>
         <v xml:space="preserve">Implementing Agency Name: </v>
       </c>
-      <c r="B2" s="502"/>
-      <c r="C2" s="501" t="str">
+      <c r="B2" s="524"/>
+      <c r="C2" s="523" t="str">
         <f>'Section A - ICJIA Funds'!C2:D2</f>
         <v xml:space="preserve">DUNS#:  </v>
       </c>
-      <c r="D2" s="502"/>
+      <c r="D2" s="524"/>
       <c r="E2" s="201" t="str">
         <f>'Section A - ICJIA Funds'!E2</f>
         <v>NOFO ID: 2115-1302</v>
@@ -19047,16 +19047,16 @@
       </c>
     </row>
     <row r="3" spans="1:12" ht="36" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="497" t="str">
+      <c r="A3" s="519" t="str">
         <f>'Section A - ICJIA Funds'!A3:B3</f>
         <v>CFSA Number: 546-00-2115</v>
       </c>
-      <c r="B3" s="498"/>
-      <c r="C3" s="497" t="str">
+      <c r="B3" s="520"/>
+      <c r="C3" s="519" t="str">
         <f>'Section A - ICJIA Funds'!C3:D3</f>
         <v>CSFA Short Description: Adult Redeploy Illinois (ARI)</v>
       </c>
-      <c r="D3" s="498"/>
+      <c r="D3" s="520"/>
       <c r="E3" s="201" t="str">
         <f>'Section A - ICJIA Funds'!E3</f>
         <v>State Fiscal Year(s): FY2021</v>
@@ -19067,32 +19067,32 @@
       </c>
     </row>
     <row r="4" spans="1:12" ht="41.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="503" t="s">
+      <c r="A4" s="498" t="s">
         <v>249</v>
       </c>
-      <c r="B4" s="504"/>
-      <c r="C4" s="504"/>
-      <c r="D4" s="504"/>
-      <c r="E4" s="504"/>
-      <c r="F4" s="505"/>
+      <c r="B4" s="499"/>
+      <c r="C4" s="499"/>
+      <c r="D4" s="499"/>
+      <c r="E4" s="499"/>
+      <c r="F4" s="500"/>
       <c r="J4" s="160"/>
     </row>
     <row r="5" spans="1:12" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="436" t="s">
+      <c r="A5" s="427" t="s">
         <v>224</v>
       </c>
-      <c r="B5" s="437"/>
-      <c r="C5" s="437"/>
-      <c r="D5" s="437"/>
-      <c r="E5" s="437"/>
-      <c r="F5" s="438"/>
+      <c r="B5" s="428"/>
+      <c r="C5" s="428"/>
+      <c r="D5" s="428"/>
+      <c r="E5" s="428"/>
+      <c r="F5" s="429"/>
       <c r="J5" s="160"/>
     </row>
     <row r="6" spans="1:12" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="514" t="s">
+      <c r="A6" s="509" t="s">
         <v>27</v>
       </c>
-      <c r="B6" s="515"/>
+      <c r="B6" s="510"/>
       <c r="C6" s="156" t="s">
         <v>23</v>
       </c>
@@ -19107,20 +19107,20 @@
       </c>
     </row>
     <row r="7" spans="1:12" ht="31.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="512" t="s">
+      <c r="A7" s="507" t="s">
         <v>302</v>
       </c>
-      <c r="B7" s="513"/>
+      <c r="B7" s="508"/>
       <c r="C7" s="323"/>
       <c r="D7" s="332"/>
       <c r="E7" s="332"/>
       <c r="F7" s="333"/>
     </row>
     <row r="8" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="508" t="s">
+      <c r="A8" s="503" t="s">
         <v>30</v>
       </c>
-      <c r="B8" s="509"/>
+      <c r="B8" s="504"/>
       <c r="C8" s="205"/>
       <c r="D8" s="306">
         <v>0</v>
@@ -19136,10 +19136,10 @@
       <c r="J8" s="160"/>
     </row>
     <row r="9" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="508" t="s">
+      <c r="A9" s="503" t="s">
         <v>31</v>
       </c>
-      <c r="B9" s="509"/>
+      <c r="B9" s="504"/>
       <c r="C9" s="205"/>
       <c r="D9" s="306">
         <v>0</v>
@@ -19154,10 +19154,10 @@
       <c r="H9" s="160"/>
     </row>
     <row r="10" spans="1:12" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="510" t="s">
+      <c r="A10" s="505" t="s">
         <v>28</v>
       </c>
-      <c r="B10" s="511"/>
+      <c r="B10" s="506"/>
       <c r="C10" s="205"/>
       <c r="D10" s="306">
         <v>0</v>
@@ -19172,10 +19172,10 @@
       <c r="J10" s="160"/>
     </row>
     <row r="11" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="516" t="s">
+      <c r="A11" s="511" t="s">
         <v>113</v>
       </c>
-      <c r="B11" s="517"/>
+      <c r="B11" s="512"/>
       <c r="C11" s="210">
         <f>SUM(C8:C10)</f>
         <v>0</v>
@@ -19195,29 +19195,29 @@
       <c r="J11" s="160"/>
     </row>
     <row r="12" spans="1:12" ht="10.5" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="518" t="s">
+      <c r="A12" s="513" t="s">
         <v>225</v>
       </c>
-      <c r="B12" s="519"/>
-      <c r="C12" s="519"/>
-      <c r="D12" s="519"/>
-      <c r="E12" s="519"/>
-      <c r="F12" s="520"/>
+      <c r="B12" s="514"/>
+      <c r="C12" s="514"/>
+      <c r="D12" s="514"/>
+      <c r="E12" s="514"/>
+      <c r="F12" s="515"/>
       <c r="J12" s="160"/>
     </row>
     <row r="13" spans="1:12" ht="9" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="521"/>
-      <c r="B13" s="522"/>
-      <c r="C13" s="522"/>
-      <c r="D13" s="522"/>
-      <c r="E13" s="522"/>
-      <c r="F13" s="523"/>
+      <c r="A13" s="516"/>
+      <c r="B13" s="517"/>
+      <c r="C13" s="517"/>
+      <c r="D13" s="517"/>
+      <c r="E13" s="517"/>
+      <c r="F13" s="518"/>
     </row>
     <row r="14" spans="1:12" ht="23.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="449" t="s">
+      <c r="A14" s="440" t="s">
         <v>162</v>
       </c>
-      <c r="B14" s="450"/>
+      <c r="B14" s="441"/>
       <c r="C14" s="157" t="s">
         <v>23</v>
       </c>
@@ -19596,10 +19596,10 @@
       <c r="I32" s="160"/>
     </row>
     <row r="33" spans="1:6" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="445" t="s">
+      <c r="A33" s="436" t="s">
         <v>29</v>
       </c>
-      <c r="B33" s="446"/>
+      <c r="B33" s="437"/>
       <c r="C33" s="208">
         <f>'Section C - Budget Summary '!F20</f>
         <v>0</v>
@@ -19616,10 +19616,10 @@
       </c>
     </row>
     <row r="34" spans="1:6" ht="22.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="506" t="s">
+      <c r="A34" s="501" t="s">
         <v>261</v>
       </c>
-      <c r="B34" s="507"/>
+      <c r="B34" s="502"/>
       <c r="C34" s="209">
         <f>C33+C31</f>
         <v>0</v>
@@ -19640,6 +19640,13 @@
     <row r="35" spans="1:6" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="A3:B3"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="A1:B1"/>
+    <mergeCell ref="C1:D1"/>
+    <mergeCell ref="E1:F1"/>
+    <mergeCell ref="A2:B2"/>
+    <mergeCell ref="C2:D2"/>
     <mergeCell ref="A4:F4"/>
     <mergeCell ref="A34:B34"/>
     <mergeCell ref="A5:F5"/>
@@ -19652,13 +19659,6 @@
     <mergeCell ref="A12:F13"/>
     <mergeCell ref="A14:B14"/>
     <mergeCell ref="A33:B33"/>
-    <mergeCell ref="A3:B3"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="A2:B2"/>
-    <mergeCell ref="C2:D2"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -19696,81 +19696,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:11" ht="39.75" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="531" t="str">
+      <c r="A1" s="530" t="str">
         <f>'Section A - ICJIA Funds'!A1:B1</f>
         <v xml:space="preserve">    STATE OF ILLINOIS </v>
       </c>
-      <c r="B1" s="532"/>
-      <c r="C1" s="531" t="str">
+      <c r="B1" s="531"/>
+      <c r="C1" s="530" t="str">
         <f>'Section A - ICJIA Funds'!C1:D1</f>
         <v>UNIFORM GRANT BUDGET TEMPLATE 
 (updated by ICJIA)</v>
       </c>
-      <c r="D1" s="535"/>
-      <c r="E1" s="532"/>
-      <c r="F1" s="533" t="str">
+      <c r="D1" s="534"/>
+      <c r="E1" s="531"/>
+      <c r="F1" s="532" t="str">
         <f>'Section A - ICJIA Funds'!E1</f>
         <v>AGENCY: Illinois Criminal Justice Information Authority</v>
       </c>
-      <c r="G1" s="536"/>
-      <c r="H1" s="534"/>
+      <c r="G1" s="535"/>
+      <c r="H1" s="533"/>
     </row>
     <row r="2" spans="1:11" ht="16.5" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="533" t="str">
+      <c r="A2" s="532" t="str">
         <f>'Section A - ICJIA Funds'!A2:B2</f>
         <v xml:space="preserve">Implementing Agency Name: </v>
       </c>
-      <c r="B2" s="534"/>
-      <c r="C2" s="533" t="str">
+      <c r="B2" s="533"/>
+      <c r="C2" s="532" t="str">
         <f>'Section A - ICJIA Funds'!C2:D2</f>
         <v xml:space="preserve">DUNS#:  </v>
       </c>
-      <c r="D2" s="536"/>
-      <c r="E2" s="534"/>
+      <c r="D2" s="535"/>
+      <c r="E2" s="533"/>
       <c r="F2" s="421" t="str">
         <f>'Section A - ICJIA Funds'!E2</f>
         <v>NOFO ID: 2115-1302</v>
       </c>
-      <c r="G2" s="539" t="str">
+      <c r="G2" s="538" t="str">
         <f>'Section A - ICJIA Funds'!F2</f>
         <v xml:space="preserve">Grant #: </v>
       </c>
-      <c r="H2" s="540"/>
+      <c r="H2" s="539"/>
     </row>
     <row r="3" spans="1:11" ht="48" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="527" t="str">
+      <c r="A3" s="526" t="str">
         <f>'Section A - ICJIA Funds'!A3:B3</f>
         <v>CFSA Number: 546-00-2115</v>
       </c>
-      <c r="B3" s="529"/>
-      <c r="C3" s="527" t="str">
+      <c r="B3" s="528"/>
+      <c r="C3" s="526" t="str">
         <f>'Section A - ICJIA Funds'!C3:D3</f>
         <v>CSFA Short Description: Adult Redeploy Illinois (ARI)</v>
       </c>
-      <c r="D3" s="528"/>
-      <c r="E3" s="529"/>
+      <c r="D3" s="527"/>
+      <c r="E3" s="528"/>
       <c r="F3" s="421" t="str">
         <f>'Section A - ICJIA Funds'!E3</f>
         <v>State Fiscal Year(s): FY2021</v>
       </c>
-      <c r="G3" s="539" t="str">
+      <c r="G3" s="538" t="str">
         <f>'Section A - ICJIA Funds'!F3</f>
         <v>Project Period:  July 1, 2020 - June 30, 2021</v>
       </c>
-      <c r="H3" s="540"/>
+      <c r="H3" s="539"/>
     </row>
     <row r="4" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="5" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="537" t="s">
+      <c r="A5" s="536" t="s">
         <v>250</v>
       </c>
-      <c r="B5" s="538"/>
-      <c r="C5" s="538"/>
-      <c r="D5" s="538"/>
-      <c r="E5" s="538"/>
-      <c r="F5" s="538"/>
-      <c r="G5" s="538"/>
-      <c r="H5" s="538"/>
+      <c r="B5" s="537"/>
+      <c r="C5" s="537"/>
+      <c r="D5" s="537"/>
+      <c r="E5" s="537"/>
+      <c r="F5" s="537"/>
+      <c r="G5" s="537"/>
+      <c r="H5" s="537"/>
     </row>
     <row r="6" spans="1:11" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="196" t="s">
@@ -19779,16 +19779,16 @@
       <c r="B6" s="103"/>
     </row>
     <row r="7" spans="1:11" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="530" t="s">
+      <c r="A7" s="529" t="s">
         <v>215</v>
       </c>
-      <c r="B7" s="530"/>
-      <c r="C7" s="530"/>
-      <c r="D7" s="530"/>
-      <c r="E7" s="530"/>
-      <c r="F7" s="530"/>
-      <c r="G7" s="530"/>
-      <c r="H7" s="530"/>
+      <c r="B7" s="529"/>
+      <c r="C7" s="529"/>
+      <c r="D7" s="529"/>
+      <c r="E7" s="529"/>
+      <c r="F7" s="529"/>
+      <c r="G7" s="529"/>
+      <c r="H7" s="529"/>
       <c r="I7" s="136"/>
       <c r="J7" s="136"/>
       <c r="K7" s="136"/>
@@ -19834,21 +19834,21 @@
       <c r="K10" s="9"/>
     </row>
     <row r="11" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="525" t="s">
+      <c r="A11" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="B11" s="525"/>
+      <c r="B11" s="543"/>
       <c r="C11" s="358"/>
       <c r="D11" s="358"/>
-      <c r="E11" s="524" t="s">
+      <c r="E11" s="540" t="s">
         <v>321</v>
       </c>
-      <c r="F11" s="524"/>
+      <c r="F11" s="540"/>
       <c r="G11" s="390"/>
-      <c r="H11" s="524" t="s">
+      <c r="H11" s="540" t="s">
         <v>329</v>
       </c>
-      <c r="I11" s="524"/>
+      <c r="I11" s="540"/>
       <c r="K11" s="9"/>
     </row>
     <row r="12" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
@@ -19881,21 +19881,21 @@
       <c r="K13" s="9"/>
     </row>
     <row r="14" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="525" t="s">
+      <c r="A14" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="B14" s="525"/>
+      <c r="B14" s="543"/>
       <c r="C14" s="358"/>
       <c r="D14" s="358"/>
-      <c r="E14" s="524" t="s">
+      <c r="E14" s="540" t="s">
         <v>321</v>
       </c>
-      <c r="F14" s="524"/>
+      <c r="F14" s="540"/>
       <c r="G14" s="390"/>
-      <c r="H14" s="524" t="s">
+      <c r="H14" s="540" t="s">
         <v>329</v>
       </c>
-      <c r="I14" s="524"/>
+      <c r="I14" s="540"/>
       <c r="K14" s="9"/>
     </row>
     <row r="15" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
@@ -19928,21 +19928,21 @@
       <c r="K16" s="9"/>
     </row>
     <row r="17" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="525" t="s">
+      <c r="A17" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="B17" s="525"/>
+      <c r="B17" s="543"/>
       <c r="C17" s="358"/>
       <c r="D17" s="358"/>
-      <c r="E17" s="524" t="s">
+      <c r="E17" s="540" t="s">
         <v>321</v>
       </c>
-      <c r="F17" s="524"/>
+      <c r="F17" s="540"/>
       <c r="G17" s="390"/>
-      <c r="H17" s="524" t="s">
+      <c r="H17" s="540" t="s">
         <v>329</v>
       </c>
-      <c r="I17" s="524"/>
+      <c r="I17" s="540"/>
       <c r="K17" s="9"/>
     </row>
     <row r="18" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
@@ -19975,21 +19975,21 @@
       <c r="K19" s="9"/>
     </row>
     <row r="20" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="525" t="s">
+      <c r="A20" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="B20" s="525"/>
+      <c r="B20" s="543"/>
       <c r="C20" s="358"/>
       <c r="D20" s="358"/>
-      <c r="E20" s="524" t="s">
+      <c r="E20" s="540" t="s">
         <v>321</v>
       </c>
-      <c r="F20" s="524"/>
+      <c r="F20" s="540"/>
       <c r="G20" s="390"/>
-      <c r="H20" s="524" t="s">
+      <c r="H20" s="540" t="s">
         <v>329</v>
       </c>
-      <c r="I20" s="524"/>
+      <c r="I20" s="540"/>
       <c r="K20" s="9"/>
     </row>
     <row r="21" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
@@ -20037,16 +20037,16 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:11" s="382" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="525" t="s">
+      <c r="A24" s="543" t="s">
         <v>303</v>
       </c>
-      <c r="B24" s="525"/>
+      <c r="B24" s="543"/>
       <c r="C24" s="360"/>
       <c r="D24" s="360"/>
-      <c r="E24" s="524" t="s">
+      <c r="E24" s="540" t="s">
         <v>321</v>
       </c>
-      <c r="F24" s="524"/>
+      <c r="F24" s="540"/>
       <c r="G24" s="390"/>
       <c r="H24" s="541" t="s">
         <v>321</v>
@@ -20070,21 +20070,33 @@
       <c r="A26" s="7"/>
     </row>
     <row r="27" spans="1:11" s="382" customFormat="1" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="526" t="s">
+      <c r="A27" s="525" t="s">
         <v>168</v>
       </c>
-      <c r="B27" s="526"/>
-      <c r="C27" s="526"/>
-      <c r="D27" s="526"/>
-      <c r="E27" s="526"/>
-      <c r="F27" s="526"/>
-      <c r="G27" s="526"/>
-      <c r="H27" s="526"/>
-      <c r="I27" s="526"/>
-      <c r="J27" s="526"/>
+      <c r="B27" s="525"/>
+      <c r="C27" s="525"/>
+      <c r="D27" s="525"/>
+      <c r="E27" s="525"/>
+      <c r="F27" s="525"/>
+      <c r="G27" s="525"/>
+      <c r="H27" s="525"/>
+      <c r="I27" s="525"/>
+      <c r="J27" s="525"/>
     </row>
   </sheetData>
   <mergeCells count="28">
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="A24:B24"/>
+    <mergeCell ref="A14:B14"/>
+    <mergeCell ref="E11:F11"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="A11:B11"/>
+    <mergeCell ref="A17:B17"/>
+    <mergeCell ref="A20:B20"/>
+    <mergeCell ref="E17:F17"/>
     <mergeCell ref="A27:J27"/>
     <mergeCell ref="C3:E3"/>
     <mergeCell ref="A7:H7"/>
@@ -20101,18 +20113,6 @@
     <mergeCell ref="E24:F24"/>
     <mergeCell ref="H24:I24"/>
     <mergeCell ref="A8:F8"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="A24:B24"/>
-    <mergeCell ref="A14:B14"/>
-    <mergeCell ref="E11:F11"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="A11:B11"/>
-    <mergeCell ref="A17:B17"/>
-    <mergeCell ref="A20:B20"/>
-    <mergeCell ref="E17:F17"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.25" bottom="0.25" header="0.3" footer="0.3"/>
@@ -20135,22 +20135,22 @@
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A1" s="543"/>
-      <c r="B1" s="543"/>
-      <c r="C1" s="543"/>
-      <c r="D1" s="543"/>
-      <c r="E1" s="543"/>
-      <c r="F1" s="543"/>
-      <c r="G1" s="543"/>
+      <c r="A1" s="544"/>
+      <c r="B1" s="544"/>
+      <c r="C1" s="544"/>
+      <c r="D1" s="544"/>
+      <c r="E1" s="544"/>
+      <c r="F1" s="544"/>
+      <c r="G1" s="544"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A2" s="544"/>
-      <c r="B2" s="544"/>
-      <c r="C2" s="544"/>
-      <c r="D2" s="544"/>
-      <c r="E2" s="544"/>
-      <c r="F2" s="544"/>
-      <c r="G2" s="544"/>
+      <c r="A2" s="545"/>
+      <c r="B2" s="545"/>
+      <c r="C2" s="545"/>
+      <c r="D2" s="545"/>
+      <c r="E2" s="545"/>
+      <c r="F2" s="545"/>
+      <c r="G2" s="545"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="2"/>
@@ -20227,608 +20227,608 @@
   <sheetData>
     <row r="1" spans="2:17" ht="9.75" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="2" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B2" s="623" t="s">
+      <c r="B2" s="552" t="s">
         <v>260</v>
       </c>
-      <c r="C2" s="623"/>
-      <c r="D2" s="623"/>
-      <c r="E2" s="623"/>
-      <c r="F2" s="623"/>
-      <c r="G2" s="623"/>
-      <c r="H2" s="623"/>
-      <c r="I2" s="623"/>
-      <c r="J2" s="623"/>
-      <c r="K2" s="623"/>
-      <c r="L2" s="623"/>
-      <c r="M2" s="623"/>
-      <c r="N2" s="623"/>
-      <c r="O2" s="623"/>
-      <c r="P2" s="623"/>
-      <c r="Q2" s="623"/>
+      <c r="C2" s="552"/>
+      <c r="D2" s="552"/>
+      <c r="E2" s="552"/>
+      <c r="F2" s="552"/>
+      <c r="G2" s="552"/>
+      <c r="H2" s="552"/>
+      <c r="I2" s="552"/>
+      <c r="J2" s="552"/>
+      <c r="K2" s="552"/>
+      <c r="L2" s="552"/>
+      <c r="M2" s="552"/>
+      <c r="N2" s="552"/>
+      <c r="O2" s="552"/>
+      <c r="P2" s="552"/>
+      <c r="Q2" s="552"/>
     </row>
     <row r="3" spans="2:17" ht="49.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B3" s="624" t="s">
+      <c r="B3" s="553" t="s">
         <v>324</v>
       </c>
-      <c r="C3" s="624"/>
-      <c r="D3" s="624"/>
-      <c r="E3" s="624"/>
-      <c r="F3" s="624"/>
-      <c r="G3" s="624"/>
-      <c r="H3" s="624"/>
-      <c r="I3" s="624"/>
-      <c r="J3" s="624"/>
-      <c r="K3" s="624"/>
-      <c r="L3" s="624"/>
-      <c r="M3" s="624"/>
-      <c r="N3" s="624"/>
-      <c r="O3" s="624"/>
-      <c r="P3" s="624"/>
-      <c r="Q3" s="624"/>
+      <c r="C3" s="553"/>
+      <c r="D3" s="553"/>
+      <c r="E3" s="553"/>
+      <c r="F3" s="553"/>
+      <c r="G3" s="553"/>
+      <c r="H3" s="553"/>
+      <c r="I3" s="553"/>
+      <c r="J3" s="553"/>
+      <c r="K3" s="553"/>
+      <c r="L3" s="553"/>
+      <c r="M3" s="553"/>
+      <c r="N3" s="553"/>
+      <c r="O3" s="553"/>
+      <c r="P3" s="553"/>
+      <c r="Q3" s="553"/>
     </row>
     <row r="4" spans="2:17" x14ac:dyDescent="0.2">
-      <c r="B4" s="625"/>
-      <c r="C4" s="625"/>
-      <c r="D4" s="625"/>
-      <c r="E4" s="625"/>
-      <c r="F4" s="625"/>
-      <c r="G4" s="625"/>
-      <c r="H4" s="625"/>
-      <c r="I4" s="625"/>
-      <c r="J4" s="625"/>
-      <c r="K4" s="625"/>
-      <c r="L4" s="625"/>
-      <c r="M4" s="625"/>
-      <c r="N4" s="625"/>
-      <c r="O4" s="625"/>
-      <c r="P4" s="625"/>
-      <c r="Q4" s="625"/>
+      <c r="B4" s="554"/>
+      <c r="C4" s="554"/>
+      <c r="D4" s="554"/>
+      <c r="E4" s="554"/>
+      <c r="F4" s="554"/>
+      <c r="G4" s="554"/>
+      <c r="H4" s="554"/>
+      <c r="I4" s="554"/>
+      <c r="J4" s="554"/>
+      <c r="K4" s="554"/>
+      <c r="L4" s="554"/>
+      <c r="M4" s="554"/>
+      <c r="N4" s="554"/>
+      <c r="O4" s="554"/>
+      <c r="P4" s="554"/>
+      <c r="Q4" s="554"/>
     </row>
     <row r="5" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B5" s="626" t="s">
+      <c r="B5" s="555" t="s">
         <v>304</v>
       </c>
-      <c r="C5" s="627"/>
-      <c r="D5" s="627"/>
-      <c r="E5" s="627"/>
-      <c r="F5" s="628"/>
-      <c r="G5" s="629"/>
-      <c r="H5" s="630"/>
-      <c r="I5" s="630"/>
-      <c r="J5" s="630"/>
-      <c r="K5" s="630"/>
-      <c r="L5" s="630"/>
-      <c r="M5" s="630"/>
-      <c r="N5" s="630"/>
-      <c r="O5" s="630"/>
-      <c r="P5" s="630"/>
-      <c r="Q5" s="631"/>
+      <c r="C5" s="556"/>
+      <c r="D5" s="556"/>
+      <c r="E5" s="556"/>
+      <c r="F5" s="557"/>
+      <c r="G5" s="558"/>
+      <c r="H5" s="559"/>
+      <c r="I5" s="559"/>
+      <c r="J5" s="559"/>
+      <c r="K5" s="559"/>
+      <c r="L5" s="559"/>
+      <c r="M5" s="559"/>
+      <c r="N5" s="559"/>
+      <c r="O5" s="559"/>
+      <c r="P5" s="559"/>
+      <c r="Q5" s="560"/>
     </row>
     <row r="6" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B6" s="615" t="s">
+      <c r="B6" s="546" t="s">
         <v>305</v>
       </c>
-      <c r="C6" s="621"/>
-      <c r="D6" s="621"/>
-      <c r="E6" s="621"/>
-      <c r="F6" s="622"/>
-      <c r="G6" s="617"/>
-      <c r="H6" s="618"/>
-      <c r="I6" s="618"/>
-      <c r="J6" s="618"/>
-      <c r="K6" s="618"/>
-      <c r="L6" s="618"/>
-      <c r="M6" s="618"/>
-      <c r="N6" s="618"/>
-      <c r="O6" s="618"/>
-      <c r="P6" s="618"/>
-      <c r="Q6" s="619"/>
+      <c r="C6" s="547"/>
+      <c r="D6" s="547"/>
+      <c r="E6" s="547"/>
+      <c r="F6" s="548"/>
+      <c r="G6" s="549"/>
+      <c r="H6" s="550"/>
+      <c r="I6" s="550"/>
+      <c r="J6" s="550"/>
+      <c r="K6" s="550"/>
+      <c r="L6" s="550"/>
+      <c r="M6" s="550"/>
+      <c r="N6" s="550"/>
+      <c r="O6" s="550"/>
+      <c r="P6" s="550"/>
+      <c r="Q6" s="551"/>
     </row>
     <row r="7" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B7" s="615" t="s">
+      <c r="B7" s="546" t="s">
         <v>306</v>
       </c>
-      <c r="C7" s="616"/>
-      <c r="D7" s="616"/>
-      <c r="E7" s="616"/>
-      <c r="F7" s="616"/>
-      <c r="G7" s="617"/>
-      <c r="H7" s="618"/>
-      <c r="I7" s="618"/>
-      <c r="J7" s="618"/>
-      <c r="K7" s="618"/>
-      <c r="L7" s="618"/>
-      <c r="M7" s="618"/>
-      <c r="N7" s="618"/>
-      <c r="O7" s="618"/>
-      <c r="P7" s="618"/>
-      <c r="Q7" s="619"/>
+      <c r="C7" s="561"/>
+      <c r="D7" s="561"/>
+      <c r="E7" s="561"/>
+      <c r="F7" s="561"/>
+      <c r="G7" s="549"/>
+      <c r="H7" s="550"/>
+      <c r="I7" s="550"/>
+      <c r="J7" s="550"/>
+      <c r="K7" s="550"/>
+      <c r="L7" s="550"/>
+      <c r="M7" s="550"/>
+      <c r="N7" s="550"/>
+      <c r="O7" s="550"/>
+      <c r="P7" s="550"/>
+      <c r="Q7" s="551"/>
     </row>
     <row r="8" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B8" s="620" t="s">
+      <c r="B8" s="562" t="s">
         <v>307</v>
       </c>
-      <c r="C8" s="621"/>
-      <c r="D8" s="621"/>
-      <c r="E8" s="621"/>
-      <c r="F8" s="621"/>
-      <c r="G8" s="617"/>
-      <c r="H8" s="618"/>
-      <c r="I8" s="618"/>
-      <c r="J8" s="618"/>
-      <c r="K8" s="618"/>
-      <c r="L8" s="618"/>
-      <c r="M8" s="618"/>
-      <c r="N8" s="618"/>
-      <c r="O8" s="618"/>
-      <c r="P8" s="618"/>
-      <c r="Q8" s="619"/>
+      <c r="C8" s="547"/>
+      <c r="D8" s="547"/>
+      <c r="E8" s="547"/>
+      <c r="F8" s="547"/>
+      <c r="G8" s="549"/>
+      <c r="H8" s="550"/>
+      <c r="I8" s="550"/>
+      <c r="J8" s="550"/>
+      <c r="K8" s="550"/>
+      <c r="L8" s="550"/>
+      <c r="M8" s="550"/>
+      <c r="N8" s="550"/>
+      <c r="O8" s="550"/>
+      <c r="P8" s="550"/>
+      <c r="Q8" s="551"/>
     </row>
     <row r="9" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B9" s="364" t="s">
         <v>114</v>
       </c>
-      <c r="C9" s="555"/>
-      <c r="D9" s="556"/>
-      <c r="E9" s="556"/>
-      <c r="F9" s="556"/>
-      <c r="G9" s="557"/>
-      <c r="H9" s="608" t="s">
+      <c r="C9" s="628"/>
+      <c r="D9" s="629"/>
+      <c r="E9" s="629"/>
+      <c r="F9" s="629"/>
+      <c r="G9" s="630"/>
+      <c r="H9" s="563" t="s">
         <v>115</v>
       </c>
-      <c r="I9" s="609"/>
+      <c r="I9" s="564"/>
       <c r="J9" s="361"/>
       <c r="K9" s="369" t="s">
         <v>308</v>
       </c>
       <c r="L9" s="362"/>
-      <c r="M9" s="558" t="s">
+      <c r="M9" s="631" t="s">
         <v>116</v>
       </c>
-      <c r="N9" s="559"/>
-      <c r="O9" s="559"/>
+      <c r="N9" s="632"/>
+      <c r="O9" s="632"/>
       <c r="P9" s="363"/>
       <c r="Q9" s="365"/>
     </row>
     <row r="10" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B10" s="605" t="s">
+      <c r="B10" s="565" t="s">
         <v>309</v>
       </c>
-      <c r="C10" s="606"/>
-      <c r="D10" s="606"/>
-      <c r="E10" s="606"/>
-      <c r="F10" s="606"/>
-      <c r="G10" s="606"/>
-      <c r="H10" s="606"/>
-      <c r="I10" s="606"/>
-      <c r="J10" s="606"/>
-      <c r="K10" s="606"/>
-      <c r="L10" s="606"/>
-      <c r="M10" s="606"/>
-      <c r="N10" s="606"/>
-      <c r="O10" s="606"/>
-      <c r="P10" s="606"/>
-      <c r="Q10" s="607"/>
+      <c r="C10" s="566"/>
+      <c r="D10" s="566"/>
+      <c r="E10" s="566"/>
+      <c r="F10" s="566"/>
+      <c r="G10" s="566"/>
+      <c r="H10" s="566"/>
+      <c r="I10" s="566"/>
+      <c r="J10" s="566"/>
+      <c r="K10" s="566"/>
+      <c r="L10" s="566"/>
+      <c r="M10" s="566"/>
+      <c r="N10" s="566"/>
+      <c r="O10" s="566"/>
+      <c r="P10" s="566"/>
+      <c r="Q10" s="567"/>
     </row>
     <row r="11" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B11" s="364" t="s">
         <v>114</v>
       </c>
-      <c r="C11" s="555"/>
-      <c r="D11" s="556"/>
-      <c r="E11" s="556"/>
-      <c r="F11" s="556"/>
-      <c r="G11" s="557"/>
-      <c r="H11" s="608" t="s">
+      <c r="C11" s="628"/>
+      <c r="D11" s="629"/>
+      <c r="E11" s="629"/>
+      <c r="F11" s="629"/>
+      <c r="G11" s="630"/>
+      <c r="H11" s="563" t="s">
         <v>115</v>
       </c>
-      <c r="I11" s="609"/>
+      <c r="I11" s="564"/>
       <c r="J11" s="361"/>
       <c r="K11" s="369" t="s">
         <v>308</v>
       </c>
       <c r="L11" s="362"/>
-      <c r="M11" s="558" t="s">
+      <c r="M11" s="631" t="s">
         <v>116</v>
       </c>
-      <c r="N11" s="559"/>
-      <c r="O11" s="559"/>
+      <c r="N11" s="632"/>
+      <c r="O11" s="632"/>
       <c r="P11" s="363"/>
       <c r="Q11" s="365"/>
     </row>
     <row r="12" spans="2:17" ht="15" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B12" s="610" t="str">
+      <c r="B12" s="568" t="str">
         <f>'Section A - ICJIA Funds'!F2</f>
         <v xml:space="preserve">Grant #: </v>
       </c>
-      <c r="C12" s="611"/>
-      <c r="D12" s="611"/>
-      <c r="E12" s="612" t="s">
+      <c r="C12" s="569"/>
+      <c r="D12" s="569"/>
+      <c r="E12" s="570" t="s">
         <v>120</v>
       </c>
-      <c r="F12" s="612"/>
-      <c r="G12" s="612"/>
-      <c r="H12" s="613">
+      <c r="F12" s="570"/>
+      <c r="G12" s="570"/>
+      <c r="H12" s="571">
         <f>'Section A - ICJIA Funds'!C7</f>
         <v>0</v>
       </c>
-      <c r="I12" s="613"/>
-      <c r="J12" s="613"/>
-      <c r="K12" s="611" t="str">
+      <c r="I12" s="571"/>
+      <c r="J12" s="571"/>
+      <c r="K12" s="569" t="str">
         <f>'Section A - ICJIA Funds'!F3</f>
         <v>Project Period:  July 1, 2020 - June 30, 2021</v>
       </c>
-      <c r="L12" s="611"/>
-      <c r="M12" s="611"/>
-      <c r="N12" s="611"/>
-      <c r="O12" s="611"/>
-      <c r="P12" s="611"/>
-      <c r="Q12" s="614"/>
+      <c r="L12" s="569"/>
+      <c r="M12" s="569"/>
+      <c r="N12" s="569"/>
+      <c r="O12" s="569"/>
+      <c r="P12" s="569"/>
+      <c r="Q12" s="572"/>
     </row>
     <row r="13" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B13" s="578" t="s">
+      <c r="B13" s="576" t="s">
         <v>310</v>
       </c>
-      <c r="C13" s="579"/>
-      <c r="D13" s="579"/>
-      <c r="E13" s="579"/>
-      <c r="F13" s="579"/>
-      <c r="G13" s="579"/>
-      <c r="H13" s="579"/>
-      <c r="I13" s="579"/>
-      <c r="J13" s="579"/>
-      <c r="K13" s="579"/>
-      <c r="L13" s="579"/>
-      <c r="M13" s="579"/>
-      <c r="N13" s="579"/>
-      <c r="O13" s="579"/>
-      <c r="P13" s="579"/>
-      <c r="Q13" s="580"/>
+      <c r="C13" s="577"/>
+      <c r="D13" s="577"/>
+      <c r="E13" s="577"/>
+      <c r="F13" s="577"/>
+      <c r="G13" s="577"/>
+      <c r="H13" s="577"/>
+      <c r="I13" s="577"/>
+      <c r="J13" s="577"/>
+      <c r="K13" s="577"/>
+      <c r="L13" s="577"/>
+      <c r="M13" s="577"/>
+      <c r="N13" s="577"/>
+      <c r="O13" s="577"/>
+      <c r="P13" s="577"/>
+      <c r="Q13" s="578"/>
     </row>
     <row r="14" spans="2:17" ht="12.75" x14ac:dyDescent="0.2">
-      <c r="B14" s="581" t="str">
+      <c r="B14" s="579" t="str">
         <f>'Section A - ICJIA Funds'!C3</f>
         <v>CSFA Short Description: Adult Redeploy Illinois (ARI)</v>
       </c>
-      <c r="C14" s="582"/>
-      <c r="D14" s="582"/>
-      <c r="E14" s="582"/>
-      <c r="F14" s="582"/>
-      <c r="G14" s="582"/>
-      <c r="H14" s="582"/>
-      <c r="I14" s="582"/>
-      <c r="J14" s="582"/>
-      <c r="K14" s="582"/>
-      <c r="L14" s="582"/>
-      <c r="M14" s="582"/>
-      <c r="N14" s="582"/>
-      <c r="O14" s="582"/>
-      <c r="P14" s="582"/>
-      <c r="Q14" s="583"/>
+      <c r="C14" s="580"/>
+      <c r="D14" s="580"/>
+      <c r="E14" s="580"/>
+      <c r="F14" s="580"/>
+      <c r="G14" s="580"/>
+      <c r="H14" s="580"/>
+      <c r="I14" s="580"/>
+      <c r="J14" s="580"/>
+      <c r="K14" s="580"/>
+      <c r="L14" s="580"/>
+      <c r="M14" s="580"/>
+      <c r="N14" s="580"/>
+      <c r="O14" s="580"/>
+      <c r="P14" s="580"/>
+      <c r="Q14" s="581"/>
     </row>
     <row r="15" spans="2:17" ht="24" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B15" s="575" t="s">
+      <c r="B15" s="573" t="s">
         <v>311</v>
       </c>
-      <c r="C15" s="576"/>
-      <c r="D15" s="576"/>
-      <c r="E15" s="576"/>
-      <c r="F15" s="576"/>
-      <c r="G15" s="576"/>
-      <c r="H15" s="576"/>
-      <c r="I15" s="576"/>
-      <c r="J15" s="576"/>
-      <c r="K15" s="576"/>
-      <c r="L15" s="576"/>
-      <c r="M15" s="576"/>
-      <c r="N15" s="576"/>
-      <c r="O15" s="576"/>
-      <c r="P15" s="576"/>
-      <c r="Q15" s="577"/>
+      <c r="C15" s="574"/>
+      <c r="D15" s="574"/>
+      <c r="E15" s="574"/>
+      <c r="F15" s="574"/>
+      <c r="G15" s="574"/>
+      <c r="H15" s="574"/>
+      <c r="I15" s="574"/>
+      <c r="J15" s="574"/>
+      <c r="K15" s="574"/>
+      <c r="L15" s="574"/>
+      <c r="M15" s="574"/>
+      <c r="N15" s="574"/>
+      <c r="O15" s="574"/>
+      <c r="P15" s="574"/>
+      <c r="Q15" s="575"/>
     </row>
     <row r="16" spans="2:17" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B16" s="584" t="s">
+      <c r="B16" s="582" t="s">
         <v>312</v>
       </c>
-      <c r="C16" s="585"/>
-      <c r="D16" s="585"/>
-      <c r="E16" s="585"/>
-      <c r="F16" s="585"/>
-      <c r="G16" s="585"/>
-      <c r="H16" s="585"/>
-      <c r="I16" s="585"/>
-      <c r="J16" s="585"/>
-      <c r="K16" s="585"/>
-      <c r="L16" s="585"/>
-      <c r="M16" s="585"/>
-      <c r="N16" s="585"/>
-      <c r="O16" s="585"/>
-      <c r="P16" s="585"/>
-      <c r="Q16" s="586"/>
+      <c r="C16" s="583"/>
+      <c r="D16" s="583"/>
+      <c r="E16" s="583"/>
+      <c r="F16" s="583"/>
+      <c r="G16" s="583"/>
+      <c r="H16" s="583"/>
+      <c r="I16" s="583"/>
+      <c r="J16" s="583"/>
+      <c r="K16" s="583"/>
+      <c r="L16" s="583"/>
+      <c r="M16" s="583"/>
+      <c r="N16" s="583"/>
+      <c r="O16" s="583"/>
+      <c r="P16" s="583"/>
+      <c r="Q16" s="584"/>
     </row>
     <row r="17" spans="2:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B17" s="587" t="s">
+      <c r="B17" s="585" t="s">
         <v>313</v>
       </c>
-      <c r="C17" s="588"/>
-      <c r="D17" s="588"/>
-      <c r="E17" s="588"/>
-      <c r="F17" s="588"/>
-      <c r="G17" s="588"/>
-      <c r="H17" s="588"/>
-      <c r="I17" s="588"/>
-      <c r="J17" s="588"/>
-      <c r="K17" s="588"/>
-      <c r="L17" s="588"/>
-      <c r="M17" s="588"/>
-      <c r="N17" s="588"/>
-      <c r="O17" s="588"/>
-      <c r="P17" s="588"/>
-      <c r="Q17" s="589"/>
+      <c r="C17" s="586"/>
+      <c r="D17" s="586"/>
+      <c r="E17" s="586"/>
+      <c r="F17" s="586"/>
+      <c r="G17" s="586"/>
+      <c r="H17" s="586"/>
+      <c r="I17" s="586"/>
+      <c r="J17" s="586"/>
+      <c r="K17" s="586"/>
+      <c r="L17" s="586"/>
+      <c r="M17" s="586"/>
+      <c r="N17" s="586"/>
+      <c r="O17" s="586"/>
+      <c r="P17" s="586"/>
+      <c r="Q17" s="587"/>
     </row>
     <row r="18" spans="2:17" ht="3.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B18" s="590"/>
-      <c r="C18" s="591"/>
-      <c r="D18" s="591"/>
-      <c r="E18" s="591"/>
-      <c r="F18" s="591"/>
-      <c r="G18" s="591"/>
-      <c r="H18" s="591"/>
-      <c r="I18" s="591"/>
-      <c r="J18" s="591"/>
-      <c r="K18" s="591"/>
-      <c r="L18" s="591"/>
-      <c r="M18" s="591"/>
-      <c r="N18" s="591"/>
-      <c r="O18" s="591"/>
-      <c r="P18" s="591"/>
-      <c r="Q18" s="592"/>
+      <c r="B18" s="588"/>
+      <c r="C18" s="589"/>
+      <c r="D18" s="589"/>
+      <c r="E18" s="589"/>
+      <c r="F18" s="589"/>
+      <c r="G18" s="589"/>
+      <c r="H18" s="589"/>
+      <c r="I18" s="589"/>
+      <c r="J18" s="589"/>
+      <c r="K18" s="589"/>
+      <c r="L18" s="589"/>
+      <c r="M18" s="589"/>
+      <c r="N18" s="589"/>
+      <c r="O18" s="589"/>
+      <c r="P18" s="589"/>
+      <c r="Q18" s="590"/>
     </row>
     <row r="19" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B19" s="593" t="s">
+      <c r="B19" s="591" t="s">
         <v>204</v>
       </c>
-      <c r="C19" s="594"/>
-      <c r="D19" s="594"/>
-      <c r="E19" s="594"/>
-      <c r="F19" s="594"/>
-      <c r="G19" s="594"/>
-      <c r="H19" s="594"/>
-      <c r="I19" s="594"/>
-      <c r="J19" s="594"/>
-      <c r="K19" s="594"/>
-      <c r="L19" s="594"/>
-      <c r="M19" s="594"/>
-      <c r="N19" s="594"/>
-      <c r="O19" s="594"/>
-      <c r="P19" s="594"/>
-      <c r="Q19" s="595"/>
+      <c r="C19" s="592"/>
+      <c r="D19" s="592"/>
+      <c r="E19" s="592"/>
+      <c r="F19" s="592"/>
+      <c r="G19" s="592"/>
+      <c r="H19" s="592"/>
+      <c r="I19" s="592"/>
+      <c r="J19" s="592"/>
+      <c r="K19" s="592"/>
+      <c r="L19" s="592"/>
+      <c r="M19" s="592"/>
+      <c r="N19" s="592"/>
+      <c r="O19" s="592"/>
+      <c r="P19" s="592"/>
+      <c r="Q19" s="593"/>
     </row>
     <row r="20" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B20" s="596" t="s">
+      <c r="B20" s="594" t="s">
         <v>314</v>
       </c>
-      <c r="C20" s="597"/>
-      <c r="D20" s="597"/>
-      <c r="E20" s="597"/>
-      <c r="F20" s="597"/>
-      <c r="G20" s="597"/>
-      <c r="H20" s="597"/>
-      <c r="I20" s="597"/>
-      <c r="J20" s="597"/>
-      <c r="K20" s="597"/>
-      <c r="L20" s="597"/>
-      <c r="M20" s="597"/>
-      <c r="N20" s="597"/>
-      <c r="O20" s="597"/>
-      <c r="P20" s="597"/>
-      <c r="Q20" s="598"/>
+      <c r="C20" s="595"/>
+      <c r="D20" s="595"/>
+      <c r="E20" s="595"/>
+      <c r="F20" s="595"/>
+      <c r="G20" s="595"/>
+      <c r="H20" s="595"/>
+      <c r="I20" s="595"/>
+      <c r="J20" s="595"/>
+      <c r="K20" s="595"/>
+      <c r="L20" s="595"/>
+      <c r="M20" s="595"/>
+      <c r="N20" s="595"/>
+      <c r="O20" s="595"/>
+      <c r="P20" s="595"/>
+      <c r="Q20" s="596"/>
     </row>
     <row r="21" spans="2:17" ht="27.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B21" s="599"/>
-      <c r="C21" s="600"/>
-      <c r="D21" s="600"/>
-      <c r="E21" s="600"/>
-      <c r="F21" s="600"/>
-      <c r="G21" s="600"/>
-      <c r="H21" s="600"/>
-      <c r="I21" s="600"/>
-      <c r="J21" s="600"/>
-      <c r="K21" s="600"/>
-      <c r="L21" s="600"/>
-      <c r="M21" s="600"/>
-      <c r="N21" s="600"/>
-      <c r="O21" s="600"/>
-      <c r="P21" s="600"/>
-      <c r="Q21" s="601"/>
+      <c r="B21" s="597"/>
+      <c r="C21" s="598"/>
+      <c r="D21" s="598"/>
+      <c r="E21" s="598"/>
+      <c r="F21" s="598"/>
+      <c r="G21" s="598"/>
+      <c r="H21" s="598"/>
+      <c r="I21" s="598"/>
+      <c r="J21" s="598"/>
+      <c r="K21" s="598"/>
+      <c r="L21" s="598"/>
+      <c r="M21" s="598"/>
+      <c r="N21" s="598"/>
+      <c r="O21" s="598"/>
+      <c r="P21" s="598"/>
+      <c r="Q21" s="599"/>
     </row>
     <row r="22" spans="2:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B22" s="587" t="s">
+      <c r="B22" s="585" t="s">
         <v>315</v>
       </c>
-      <c r="C22" s="588"/>
-      <c r="D22" s="588"/>
-      <c r="E22" s="588"/>
-      <c r="F22" s="588"/>
-      <c r="G22" s="588"/>
-      <c r="H22" s="588"/>
-      <c r="I22" s="588"/>
-      <c r="J22" s="588"/>
-      <c r="K22" s="588"/>
-      <c r="L22" s="588"/>
-      <c r="M22" s="588"/>
-      <c r="N22" s="588"/>
-      <c r="O22" s="588"/>
-      <c r="P22" s="588"/>
-      <c r="Q22" s="589"/>
+      <c r="C22" s="586"/>
+      <c r="D22" s="586"/>
+      <c r="E22" s="586"/>
+      <c r="F22" s="586"/>
+      <c r="G22" s="586"/>
+      <c r="H22" s="586"/>
+      <c r="I22" s="586"/>
+      <c r="J22" s="586"/>
+      <c r="K22" s="586"/>
+      <c r="L22" s="586"/>
+      <c r="M22" s="586"/>
+      <c r="N22" s="586"/>
+      <c r="O22" s="586"/>
+      <c r="P22" s="586"/>
+      <c r="Q22" s="587"/>
     </row>
     <row r="23" spans="2:17" ht="4.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B23" s="602"/>
-      <c r="C23" s="603"/>
-      <c r="D23" s="603"/>
-      <c r="E23" s="603"/>
-      <c r="F23" s="603"/>
-      <c r="G23" s="603"/>
-      <c r="H23" s="603"/>
-      <c r="I23" s="603"/>
-      <c r="J23" s="603"/>
-      <c r="K23" s="603"/>
-      <c r="L23" s="603"/>
-      <c r="M23" s="603"/>
-      <c r="N23" s="603"/>
-      <c r="O23" s="603"/>
-      <c r="P23" s="603"/>
-      <c r="Q23" s="604"/>
+      <c r="B23" s="600"/>
+      <c r="C23" s="601"/>
+      <c r="D23" s="601"/>
+      <c r="E23" s="601"/>
+      <c r="F23" s="601"/>
+      <c r="G23" s="601"/>
+      <c r="H23" s="601"/>
+      <c r="I23" s="601"/>
+      <c r="J23" s="601"/>
+      <c r="K23" s="601"/>
+      <c r="L23" s="601"/>
+      <c r="M23" s="601"/>
+      <c r="N23" s="601"/>
+      <c r="O23" s="601"/>
+      <c r="P23" s="601"/>
+      <c r="Q23" s="602"/>
     </row>
     <row r="24" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B24" s="593" t="s">
+      <c r="B24" s="591" t="s">
         <v>205</v>
       </c>
-      <c r="C24" s="594"/>
-      <c r="D24" s="594"/>
-      <c r="E24" s="594"/>
-      <c r="F24" s="594"/>
-      <c r="G24" s="594"/>
-      <c r="H24" s="594"/>
-      <c r="I24" s="594"/>
-      <c r="J24" s="594"/>
-      <c r="K24" s="594"/>
-      <c r="L24" s="594"/>
-      <c r="M24" s="594"/>
-      <c r="N24" s="594"/>
-      <c r="O24" s="594"/>
-      <c r="P24" s="594"/>
-      <c r="Q24" s="595"/>
+      <c r="C24" s="592"/>
+      <c r="D24" s="592"/>
+      <c r="E24" s="592"/>
+      <c r="F24" s="592"/>
+      <c r="G24" s="592"/>
+      <c r="H24" s="592"/>
+      <c r="I24" s="592"/>
+      <c r="J24" s="592"/>
+      <c r="K24" s="592"/>
+      <c r="L24" s="592"/>
+      <c r="M24" s="592"/>
+      <c r="N24" s="592"/>
+      <c r="O24" s="592"/>
+      <c r="P24" s="592"/>
+      <c r="Q24" s="593"/>
     </row>
     <row r="25" spans="2:17" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B25" s="575" t="s">
+      <c r="B25" s="573" t="s">
         <v>117</v>
       </c>
-      <c r="C25" s="576"/>
-      <c r="D25" s="576"/>
-      <c r="E25" s="576"/>
-      <c r="F25" s="576"/>
-      <c r="G25" s="576"/>
-      <c r="H25" s="576"/>
-      <c r="I25" s="576"/>
-      <c r="J25" s="576"/>
-      <c r="K25" s="576"/>
-      <c r="L25" s="576"/>
-      <c r="M25" s="576"/>
-      <c r="N25" s="576"/>
-      <c r="O25" s="576"/>
-      <c r="P25" s="576"/>
-      <c r="Q25" s="577"/>
+      <c r="C25" s="574"/>
+      <c r="D25" s="574"/>
+      <c r="E25" s="574"/>
+      <c r="F25" s="574"/>
+      <c r="G25" s="574"/>
+      <c r="H25" s="574"/>
+      <c r="I25" s="574"/>
+      <c r="J25" s="574"/>
+      <c r="K25" s="574"/>
+      <c r="L25" s="574"/>
+      <c r="M25" s="574"/>
+      <c r="N25" s="574"/>
+      <c r="O25" s="574"/>
+      <c r="P25" s="574"/>
+      <c r="Q25" s="575"/>
     </row>
     <row r="26" spans="2:17" ht="12" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B26" s="570" t="s">
+      <c r="B26" s="603" t="s">
         <v>118</v>
       </c>
-      <c r="C26" s="571"/>
-      <c r="D26" s="562"/>
-      <c r="E26" s="563"/>
-      <c r="F26" s="563"/>
-      <c r="G26" s="563"/>
-      <c r="H26" s="563"/>
-      <c r="I26" s="563"/>
-      <c r="J26" s="563"/>
-      <c r="K26" s="564"/>
+      <c r="C26" s="604"/>
+      <c r="D26" s="605"/>
+      <c r="E26" s="606"/>
+      <c r="F26" s="606"/>
+      <c r="G26" s="606"/>
+      <c r="H26" s="606"/>
+      <c r="I26" s="606"/>
+      <c r="J26" s="606"/>
+      <c r="K26" s="607"/>
       <c r="L26" s="366" t="s">
         <v>119</v>
       </c>
-      <c r="M26" s="565"/>
-      <c r="N26" s="566"/>
-      <c r="O26" s="572"/>
-      <c r="P26" s="573"/>
-      <c r="Q26" s="574"/>
+      <c r="M26" s="608"/>
+      <c r="N26" s="609"/>
+      <c r="O26" s="610"/>
+      <c r="P26" s="611"/>
+      <c r="Q26" s="612"/>
     </row>
     <row r="27" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B27" s="560" t="s">
+      <c r="B27" s="613" t="s">
         <v>118</v>
       </c>
-      <c r="C27" s="561"/>
-      <c r="D27" s="562"/>
-      <c r="E27" s="563"/>
-      <c r="F27" s="563"/>
-      <c r="G27" s="563"/>
-      <c r="H27" s="563"/>
-      <c r="I27" s="563"/>
-      <c r="J27" s="563"/>
-      <c r="K27" s="564"/>
+      <c r="C27" s="614"/>
+      <c r="D27" s="605"/>
+      <c r="E27" s="606"/>
+      <c r="F27" s="606"/>
+      <c r="G27" s="606"/>
+      <c r="H27" s="606"/>
+      <c r="I27" s="606"/>
+      <c r="J27" s="606"/>
+      <c r="K27" s="607"/>
       <c r="L27" s="367" t="s">
         <v>119</v>
       </c>
-      <c r="M27" s="565"/>
-      <c r="N27" s="566"/>
-      <c r="O27" s="567"/>
-      <c r="P27" s="568"/>
-      <c r="Q27" s="569"/>
+      <c r="M27" s="608"/>
+      <c r="N27" s="609"/>
+      <c r="O27" s="615"/>
+      <c r="P27" s="616"/>
+      <c r="Q27" s="617"/>
     </row>
     <row r="28" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B28" s="560" t="s">
+      <c r="B28" s="613" t="s">
         <v>118</v>
       </c>
-      <c r="C28" s="561"/>
-      <c r="D28" s="562"/>
-      <c r="E28" s="563"/>
-      <c r="F28" s="563"/>
-      <c r="G28" s="563"/>
-      <c r="H28" s="563"/>
-      <c r="I28" s="563"/>
-      <c r="J28" s="563"/>
-      <c r="K28" s="564"/>
+      <c r="C28" s="614"/>
+      <c r="D28" s="605"/>
+      <c r="E28" s="606"/>
+      <c r="F28" s="606"/>
+      <c r="G28" s="606"/>
+      <c r="H28" s="606"/>
+      <c r="I28" s="606"/>
+      <c r="J28" s="606"/>
+      <c r="K28" s="607"/>
       <c r="L28" s="367" t="s">
         <v>119</v>
       </c>
-      <c r="M28" s="565"/>
-      <c r="N28" s="566"/>
-      <c r="O28" s="567"/>
-      <c r="P28" s="568"/>
-      <c r="Q28" s="569"/>
+      <c r="M28" s="608"/>
+      <c r="N28" s="609"/>
+      <c r="O28" s="615"/>
+      <c r="P28" s="616"/>
+      <c r="Q28" s="617"/>
     </row>
     <row r="29" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B29" s="560" t="s">
+      <c r="B29" s="613" t="s">
         <v>118</v>
       </c>
-      <c r="C29" s="561"/>
-      <c r="D29" s="562"/>
-      <c r="E29" s="563"/>
-      <c r="F29" s="563"/>
-      <c r="G29" s="563"/>
-      <c r="H29" s="563"/>
-      <c r="I29" s="563"/>
-      <c r="J29" s="563"/>
-      <c r="K29" s="564"/>
+      <c r="C29" s="614"/>
+      <c r="D29" s="605"/>
+      <c r="E29" s="606"/>
+      <c r="F29" s="606"/>
+      <c r="G29" s="606"/>
+      <c r="H29" s="606"/>
+      <c r="I29" s="606"/>
+      <c r="J29" s="606"/>
+      <c r="K29" s="607"/>
       <c r="L29" s="367" t="s">
         <v>119</v>
       </c>
-      <c r="M29" s="565"/>
-      <c r="N29" s="566"/>
-      <c r="O29" s="567"/>
-      <c r="P29" s="568"/>
-      <c r="Q29" s="569"/>
+      <c r="M29" s="608"/>
+      <c r="N29" s="609"/>
+      <c r="O29" s="615"/>
+      <c r="P29" s="616"/>
+      <c r="Q29" s="617"/>
     </row>
     <row r="30" spans="2:17" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B30" s="545" t="s">
+      <c r="B30" s="618" t="s">
         <v>118</v>
       </c>
-      <c r="C30" s="546"/>
-      <c r="D30" s="547"/>
-      <c r="E30" s="548"/>
-      <c r="F30" s="548"/>
-      <c r="G30" s="548"/>
-      <c r="H30" s="548"/>
-      <c r="I30" s="548"/>
-      <c r="J30" s="548"/>
-      <c r="K30" s="549"/>
+      <c r="C30" s="619"/>
+      <c r="D30" s="620"/>
+      <c r="E30" s="621"/>
+      <c r="F30" s="621"/>
+      <c r="G30" s="621"/>
+      <c r="H30" s="621"/>
+      <c r="I30" s="621"/>
+      <c r="J30" s="621"/>
+      <c r="K30" s="622"/>
       <c r="L30" s="368" t="s">
         <v>119</v>
       </c>
-      <c r="M30" s="550"/>
-      <c r="N30" s="551"/>
-      <c r="O30" s="552"/>
-      <c r="P30" s="553"/>
-      <c r="Q30" s="554"/>
+      <c r="M30" s="623"/>
+      <c r="N30" s="624"/>
+      <c r="O30" s="625"/>
+      <c r="P30" s="626"/>
+      <c r="Q30" s="627"/>
     </row>
     <row r="31" spans="2:17" x14ac:dyDescent="0.2">
       <c r="B31" s="73"/>
@@ -20867,44 +20867,6 @@
     </row>
   </sheetData>
   <mergeCells count="54">
-    <mergeCell ref="B6:F6"/>
-    <mergeCell ref="G6:Q6"/>
-    <mergeCell ref="B2:Q2"/>
-    <mergeCell ref="B3:Q3"/>
-    <mergeCell ref="B4:Q4"/>
-    <mergeCell ref="B5:F5"/>
-    <mergeCell ref="G5:Q5"/>
-    <mergeCell ref="B7:F7"/>
-    <mergeCell ref="G7:Q7"/>
-    <mergeCell ref="B8:F8"/>
-    <mergeCell ref="G8:Q8"/>
-    <mergeCell ref="H9:I9"/>
-    <mergeCell ref="B10:Q10"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="B12:D12"/>
-    <mergeCell ref="E12:G12"/>
-    <mergeCell ref="H12:J12"/>
-    <mergeCell ref="K12:Q12"/>
-    <mergeCell ref="B25:Q25"/>
-    <mergeCell ref="B13:Q13"/>
-    <mergeCell ref="B14:Q14"/>
-    <mergeCell ref="B15:Q15"/>
-    <mergeCell ref="B16:Q16"/>
-    <mergeCell ref="B17:Q17"/>
-    <mergeCell ref="B18:Q18"/>
-    <mergeCell ref="B19:Q19"/>
-    <mergeCell ref="B20:Q21"/>
-    <mergeCell ref="B22:Q22"/>
-    <mergeCell ref="B23:Q23"/>
-    <mergeCell ref="B24:Q24"/>
-    <mergeCell ref="B26:C26"/>
-    <mergeCell ref="D26:K26"/>
-    <mergeCell ref="M26:N26"/>
-    <mergeCell ref="O26:Q26"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="D27:K27"/>
-    <mergeCell ref="M27:N27"/>
-    <mergeCell ref="O27:Q27"/>
     <mergeCell ref="B30:C30"/>
     <mergeCell ref="D30:K30"/>
     <mergeCell ref="M30:N30"/>
@@ -20921,6 +20883,44 @@
     <mergeCell ref="D29:K29"/>
     <mergeCell ref="M29:N29"/>
     <mergeCell ref="O29:Q29"/>
+    <mergeCell ref="B26:C26"/>
+    <mergeCell ref="D26:K26"/>
+    <mergeCell ref="M26:N26"/>
+    <mergeCell ref="O26:Q26"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="D27:K27"/>
+    <mergeCell ref="M27:N27"/>
+    <mergeCell ref="O27:Q27"/>
+    <mergeCell ref="B25:Q25"/>
+    <mergeCell ref="B13:Q13"/>
+    <mergeCell ref="B14:Q14"/>
+    <mergeCell ref="B15:Q15"/>
+    <mergeCell ref="B16:Q16"/>
+    <mergeCell ref="B17:Q17"/>
+    <mergeCell ref="B18:Q18"/>
+    <mergeCell ref="B19:Q19"/>
+    <mergeCell ref="B20:Q21"/>
+    <mergeCell ref="B22:Q22"/>
+    <mergeCell ref="B23:Q23"/>
+    <mergeCell ref="B24:Q24"/>
+    <mergeCell ref="B10:Q10"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="B12:D12"/>
+    <mergeCell ref="E12:G12"/>
+    <mergeCell ref="H12:J12"/>
+    <mergeCell ref="K12:Q12"/>
+    <mergeCell ref="B7:F7"/>
+    <mergeCell ref="G7:Q7"/>
+    <mergeCell ref="B8:F8"/>
+    <mergeCell ref="G8:Q8"/>
+    <mergeCell ref="H9:I9"/>
+    <mergeCell ref="B6:F6"/>
+    <mergeCell ref="G6:Q6"/>
+    <mergeCell ref="B2:Q2"/>
+    <mergeCell ref="B3:Q3"/>
+    <mergeCell ref="B4:Q4"/>
+    <mergeCell ref="B5:F5"/>
+    <mergeCell ref="G5:Q5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -21062,32 +21062,32 @@
     </row>
     <row r="2" spans="1:11" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="633" t="s">
+      <c r="B2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="633"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
       <c r="K2" s="106"/>
     </row>
     <row r="3" spans="1:11" ht="90.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="634" t="s">
+      <c r="B3" s="635" t="s">
         <v>279</v>
       </c>
-      <c r="C3" s="634"/>
-      <c r="D3" s="634"/>
-      <c r="E3" s="634"/>
-      <c r="F3" s="634"/>
-      <c r="G3" s="634"/>
-      <c r="H3" s="634"/>
-      <c r="I3" s="634"/>
-      <c r="J3" s="634"/>
+      <c r="C3" s="635"/>
+      <c r="D3" s="635"/>
+      <c r="E3" s="635"/>
+      <c r="F3" s="635"/>
+      <c r="G3" s="635"/>
+      <c r="H3" s="635"/>
+      <c r="I3" s="635"/>
+      <c r="J3" s="635"/>
       <c r="K3" s="17"/>
     </row>
     <row r="4" spans="1:11" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -21118,33 +21118,33 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="635" t="s">
+      <c r="B6" s="636" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="637" t="s">
+      <c r="C6" s="638" t="s">
         <v>35</v>
       </c>
-      <c r="D6" s="637" t="s">
+      <c r="D6" s="638" t="s">
         <v>33</v>
       </c>
-      <c r="E6" s="637"/>
-      <c r="F6" s="637"/>
-      <c r="G6" s="639"/>
-      <c r="H6" s="640" t="s">
+      <c r="E6" s="638"/>
+      <c r="F6" s="638"/>
+      <c r="G6" s="640"/>
+      <c r="H6" s="641" t="s">
         <v>206</v>
       </c>
-      <c r="I6" s="642" t="s">
+      <c r="I6" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="J6" s="644" t="s">
+      <c r="J6" s="645" t="s">
         <v>195</v>
       </c>
       <c r="K6" s="14"/>
     </row>
     <row r="7" spans="1:11" ht="38.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="636"/>
-      <c r="C7" s="638"/>
+      <c r="B7" s="637"/>
+      <c r="C7" s="639"/>
       <c r="D7" s="189" t="s">
         <v>36</v>
       </c>
@@ -21157,9 +21157,9 @@
       <c r="G7" s="190" t="s">
         <v>277</v>
       </c>
-      <c r="H7" s="641"/>
-      <c r="I7" s="643"/>
-      <c r="J7" s="645"/>
+      <c r="H7" s="642"/>
+      <c r="I7" s="644"/>
+      <c r="J7" s="646"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
@@ -21324,14 +21324,14 @@
     </row>
     <row r="18" spans="1:11" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
       <c r="A18" s="6"/>
-      <c r="B18" s="632" t="s">
+      <c r="B18" s="633" t="s">
         <v>196</v>
       </c>
-      <c r="C18" s="632"/>
-      <c r="D18" s="632"/>
-      <c r="E18" s="632"/>
-      <c r="F18" s="632"/>
-      <c r="G18" s="632"/>
+      <c r="C18" s="633"/>
+      <c r="D18" s="633"/>
+      <c r="E18" s="633"/>
+      <c r="F18" s="633"/>
+      <c r="G18" s="633"/>
       <c r="H18" s="281">
         <f>ROUND(SUM(H8:H17),0)</f>
         <v>0</v>
@@ -21523,60 +21523,60 @@
     </row>
     <row r="2" spans="1:16" ht="26.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="6"/>
-      <c r="B2" s="633" t="s">
+      <c r="B2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
-      <c r="J2" s="633"/>
-      <c r="K2" s="633"/>
-      <c r="L2" s="633"/>
-      <c r="M2" s="633"/>
-      <c r="N2" s="633"/>
-      <c r="O2" s="633"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
+      <c r="J2" s="634"/>
+      <c r="K2" s="634"/>
+      <c r="L2" s="634"/>
+      <c r="M2" s="634"/>
+      <c r="N2" s="634"/>
+      <c r="O2" s="634"/>
       <c r="P2" s="6"/>
     </row>
     <row r="3" spans="1:16" ht="72" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="6"/>
-      <c r="B3" s="656" t="s">
+      <c r="B3" s="649" t="s">
         <v>323</v>
       </c>
-      <c r="C3" s="656"/>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="656"/>
-      <c r="G3" s="656"/>
-      <c r="H3" s="656"/>
-      <c r="I3" s="656"/>
-      <c r="J3" s="656"/>
-      <c r="K3" s="656"/>
-      <c r="L3" s="656"/>
-      <c r="M3" s="656"/>
-      <c r="N3" s="656"/>
-      <c r="O3" s="656"/>
+      <c r="C3" s="649"/>
+      <c r="D3" s="649"/>
+      <c r="E3" s="649"/>
+      <c r="F3" s="649"/>
+      <c r="G3" s="649"/>
+      <c r="H3" s="649"/>
+      <c r="I3" s="649"/>
+      <c r="J3" s="649"/>
+      <c r="K3" s="649"/>
+      <c r="L3" s="649"/>
+      <c r="M3" s="649"/>
+      <c r="N3" s="649"/>
+      <c r="O3" s="649"/>
       <c r="P3" s="39"/>
     </row>
     <row r="4" spans="1:16" ht="32.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="6"/>
-      <c r="B4" s="647"/>
-      <c r="C4" s="647"/>
-      <c r="D4" s="647"/>
-      <c r="E4" s="647"/>
-      <c r="F4" s="647"/>
-      <c r="G4" s="647"/>
-      <c r="H4" s="647"/>
-      <c r="I4" s="647"/>
-      <c r="J4" s="647"/>
-      <c r="K4" s="647"/>
-      <c r="L4" s="647"/>
-      <c r="M4" s="647"/>
-      <c r="N4" s="647"/>
-      <c r="O4" s="647"/>
+      <c r="B4" s="668"/>
+      <c r="C4" s="668"/>
+      <c r="D4" s="668"/>
+      <c r="E4" s="668"/>
+      <c r="F4" s="668"/>
+      <c r="G4" s="668"/>
+      <c r="H4" s="668"/>
+      <c r="I4" s="668"/>
+      <c r="J4" s="668"/>
+      <c r="K4" s="668"/>
+      <c r="L4" s="668"/>
+      <c r="M4" s="668"/>
+      <c r="N4" s="668"/>
+      <c r="O4" s="668"/>
       <c r="P4" s="39"/>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
@@ -21599,40 +21599,40 @@
     </row>
     <row r="6" spans="1:16" ht="18.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="6"/>
-      <c r="B6" s="657" t="s">
+      <c r="B6" s="650" t="s">
         <v>34</v>
       </c>
-      <c r="C6" s="663" t="s">
+      <c r="C6" s="656" t="s">
         <v>43</v>
       </c>
-      <c r="D6" s="664"/>
-      <c r="E6" s="669" t="s">
+      <c r="D6" s="657"/>
+      <c r="E6" s="662" t="s">
         <v>258</v>
       </c>
-      <c r="F6" s="670"/>
-      <c r="G6" s="670"/>
-      <c r="H6" s="670"/>
-      <c r="I6" s="670"/>
-      <c r="J6" s="670"/>
-      <c r="K6" s="670"/>
-      <c r="L6" s="671"/>
-      <c r="M6" s="640" t="s">
+      <c r="F6" s="663"/>
+      <c r="G6" s="663"/>
+      <c r="H6" s="663"/>
+      <c r="I6" s="663"/>
+      <c r="J6" s="663"/>
+      <c r="K6" s="663"/>
+      <c r="L6" s="664"/>
+      <c r="M6" s="641" t="s">
         <v>206</v>
       </c>
-      <c r="N6" s="642" t="s">
+      <c r="N6" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="O6" s="660" t="s">
+      <c r="O6" s="653" t="s">
         <v>195</v>
       </c>
       <c r="P6" s="39"/>
     </row>
     <row r="7" spans="1:16" s="193" customFormat="1" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="6"/>
-      <c r="B7" s="658"/>
-      <c r="C7" s="665"/>
-      <c r="D7" s="666"/>
-      <c r="E7" s="672" t="s">
+      <c r="B7" s="651"/>
+      <c r="C7" s="658"/>
+      <c r="D7" s="659"/>
+      <c r="E7" s="665" t="s">
         <v>255</v>
       </c>
       <c r="F7" s="197" t="s">
@@ -21656,17 +21656,17 @@
       <c r="L7" s="274" t="s">
         <v>270</v>
       </c>
-      <c r="M7" s="648"/>
-      <c r="N7" s="650"/>
-      <c r="O7" s="661"/>
+      <c r="M7" s="669"/>
+      <c r="N7" s="671"/>
+      <c r="O7" s="654"/>
       <c r="P7" s="39"/>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="6"/>
-      <c r="B8" s="659"/>
-      <c r="C8" s="667"/>
-      <c r="D8" s="668"/>
-      <c r="E8" s="673"/>
+      <c r="B8" s="652"/>
+      <c r="C8" s="660"/>
+      <c r="D8" s="661"/>
+      <c r="E8" s="666"/>
       <c r="F8" s="302">
         <v>7.6499999999999999E-2</v>
       </c>
@@ -21680,9 +21680,9 @@
         <v>0</v>
       </c>
       <c r="L8" s="286"/>
-      <c r="M8" s="649"/>
-      <c r="N8" s="651"/>
-      <c r="O8" s="662"/>
+      <c r="M8" s="670"/>
+      <c r="N8" s="672"/>
+      <c r="O8" s="655"/>
       <c r="P8" s="14"/>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
@@ -21691,11 +21691,11 @@
         <f>'Section C1 - Personnel'!B8</f>
         <v>0</v>
       </c>
-      <c r="C9" s="654">
+      <c r="C9" s="647">
         <f>'Section C1 - Personnel'!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="655"/>
+      <c r="D9" s="648"/>
       <c r="E9" s="211">
         <f>'Section C1 - Personnel'!J8</f>
         <v>0</v>
@@ -21739,11 +21739,11 @@
         <f>'Section C1 - Personnel'!B9</f>
         <v>0</v>
       </c>
-      <c r="C10" s="654">
+      <c r="C10" s="647">
         <f>'Section C1 - Personnel'!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="655"/>
+      <c r="D10" s="648"/>
       <c r="E10" s="211">
         <f>'Section C1 - Personnel'!J9</f>
         <v>0</v>
@@ -21787,11 +21787,11 @@
         <f>'Section C1 - Personnel'!B10</f>
         <v>0</v>
       </c>
-      <c r="C11" s="654">
+      <c r="C11" s="647">
         <f>'Section C1 - Personnel'!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="655"/>
+      <c r="D11" s="648"/>
       <c r="E11" s="211">
         <f>'Section C1 - Personnel'!J10</f>
         <v>0</v>
@@ -21835,11 +21835,11 @@
         <f>'Section C1 - Personnel'!B11</f>
         <v>0</v>
       </c>
-      <c r="C12" s="654">
+      <c r="C12" s="647">
         <f>'Section C1 - Personnel'!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="655"/>
+      <c r="D12" s="648"/>
       <c r="E12" s="211">
         <f>'Section C1 - Personnel'!J11</f>
         <v>0</v>
@@ -21883,11 +21883,11 @@
         <f>'Section C1 - Personnel'!B12</f>
         <v>0</v>
       </c>
-      <c r="C13" s="654">
+      <c r="C13" s="647">
         <f>'Section C1 - Personnel'!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="655"/>
+      <c r="D13" s="648"/>
       <c r="E13" s="211">
         <f>'Section C1 - Personnel'!J12</f>
         <v>0</v>
@@ -21931,11 +21931,11 @@
         <f>'Section C1 - Personnel'!B13</f>
         <v>0</v>
       </c>
-      <c r="C14" s="654">
+      <c r="C14" s="647">
         <f>'Section C1 - Personnel'!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="655"/>
+      <c r="D14" s="648"/>
       <c r="E14" s="211">
         <f>'Section C1 - Personnel'!J13</f>
         <v>0</v>
@@ -21979,11 +21979,11 @@
         <f>'Section C1 - Personnel'!B14</f>
         <v>0</v>
       </c>
-      <c r="C15" s="654">
+      <c r="C15" s="647">
         <f>'Section C1 - Personnel'!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="655"/>
+      <c r="D15" s="648"/>
       <c r="E15" s="211">
         <f>'Section C1 - Personnel'!J14</f>
         <v>0</v>
@@ -22027,11 +22027,11 @@
         <f>'Section C1 - Personnel'!B15</f>
         <v>0</v>
       </c>
-      <c r="C16" s="654">
+      <c r="C16" s="647">
         <f>'Section C1 - Personnel'!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="655"/>
+      <c r="D16" s="648"/>
       <c r="E16" s="211">
         <f>'Section C1 - Personnel'!J15</f>
         <v>0</v>
@@ -22075,11 +22075,11 @@
         <f>'Section C1 - Personnel'!B16</f>
         <v>0</v>
       </c>
-      <c r="C17" s="654">
+      <c r="C17" s="647">
         <f>'Section C1 - Personnel'!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="655"/>
+      <c r="D17" s="648"/>
       <c r="E17" s="211">
         <f>'Section C1 - Personnel'!J16</f>
         <v>0</v>
@@ -22123,11 +22123,11 @@
         <f>'Section C1 - Personnel'!B17</f>
         <v>0</v>
       </c>
-      <c r="C18" s="652">
+      <c r="C18" s="673">
         <f>'Section C1 - Personnel'!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="653"/>
+      <c r="D18" s="674"/>
       <c r="E18" s="212">
         <f>'Section C1 - Personnel'!J17</f>
         <v>0</v>
@@ -22167,17 +22167,17 @@
     </row>
     <row r="19" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A19" s="6"/>
-      <c r="B19" s="646"/>
-      <c r="C19" s="646"/>
-      <c r="D19" s="646"/>
-      <c r="E19" s="646"/>
-      <c r="F19" s="646"/>
-      <c r="G19" s="646"/>
-      <c r="H19" s="646"/>
-      <c r="I19" s="646"/>
-      <c r="J19" s="646"/>
-      <c r="K19" s="646"/>
-      <c r="L19" s="646"/>
+      <c r="B19" s="667"/>
+      <c r="C19" s="667"/>
+      <c r="D19" s="667"/>
+      <c r="E19" s="667"/>
+      <c r="F19" s="667"/>
+      <c r="G19" s="667"/>
+      <c r="H19" s="667"/>
+      <c r="I19" s="667"/>
+      <c r="J19" s="667"/>
+      <c r="K19" s="667"/>
+      <c r="L19" s="667"/>
       <c r="M19" s="215">
         <f>ROUND(SUM(M9:M18),0)</f>
         <v>0</v>
@@ -25291,16 +25291,6 @@
   </sheetData>
   <sheetProtection insertRows="0"/>
   <mergeCells count="21">
-    <mergeCell ref="B2:O2"/>
-    <mergeCell ref="C9:D9"/>
-    <mergeCell ref="C10:D10"/>
-    <mergeCell ref="C11:D11"/>
-    <mergeCell ref="B3:O3"/>
-    <mergeCell ref="B6:B8"/>
-    <mergeCell ref="O6:O8"/>
-    <mergeCell ref="C6:D8"/>
-    <mergeCell ref="E6:L6"/>
-    <mergeCell ref="E7:E8"/>
     <mergeCell ref="B19:L19"/>
     <mergeCell ref="B4:O4"/>
     <mergeCell ref="M6:M8"/>
@@ -25312,6 +25302,16 @@
     <mergeCell ref="C17:D17"/>
     <mergeCell ref="C15:D15"/>
     <mergeCell ref="C16:D16"/>
+    <mergeCell ref="B2:O2"/>
+    <mergeCell ref="C9:D9"/>
+    <mergeCell ref="C10:D10"/>
+    <mergeCell ref="C11:D11"/>
+    <mergeCell ref="B3:O3"/>
+    <mergeCell ref="B6:B8"/>
+    <mergeCell ref="O6:O8"/>
+    <mergeCell ref="C6:D8"/>
+    <mergeCell ref="E6:L6"/>
+    <mergeCell ref="E7:E8"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -25364,33 +25364,33 @@
       </c>
     </row>
     <row r="2" spans="2:13" ht="24" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="633" t="s">
+      <c r="B2" s="634" t="s">
         <v>169</v>
       </c>
-      <c r="C2" s="633"/>
-      <c r="D2" s="633"/>
-      <c r="E2" s="633"/>
-      <c r="F2" s="633"/>
-      <c r="G2" s="633"/>
-      <c r="H2" s="633"/>
-      <c r="I2" s="633"/>
+      <c r="C2" s="634"/>
+      <c r="D2" s="634"/>
+      <c r="E2" s="634"/>
+      <c r="F2" s="634"/>
+      <c r="G2" s="634"/>
+      <c r="H2" s="634"/>
+      <c r="I2" s="634"/>
       <c r="J2" s="137"/>
       <c r="K2" s="137"/>
     </row>
     <row r="3" spans="2:13" ht="120.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="656" t="s">
+      <c r="B3" s="649" t="s">
         <v>326</v>
       </c>
-      <c r="C3" s="656"/>
-      <c r="D3" s="656"/>
-      <c r="E3" s="656"/>
-      <c r="F3" s="656"/>
-      <c r="G3" s="656"/>
-      <c r="H3" s="656"/>
-      <c r="I3" s="656"/>
-      <c r="J3" s="656"/>
-      <c r="K3" s="656"/>
-      <c r="L3" s="656"/>
+      <c r="C3" s="649"/>
+      <c r="D3" s="649"/>
+      <c r="E3" s="649"/>
+      <c r="F3" s="649"/>
+      <c r="G3" s="649"/>
+      <c r="H3" s="649"/>
+      <c r="I3" s="649"/>
+      <c r="J3" s="649"/>
+      <c r="K3" s="649"/>
+      <c r="L3" s="649"/>
       <c r="M3" s="39"/>
     </row>
     <row r="4" spans="2:13" x14ac:dyDescent="0.25">
@@ -25407,34 +25407,34 @@
       <c r="M4" s="39"/>
     </row>
     <row r="5" spans="2:13" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="640" t="s">
+      <c r="B5" s="641" t="s">
         <v>232</v>
       </c>
-      <c r="C5" s="663" t="s">
+      <c r="C5" s="656" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="675" t="s">
+      <c r="D5" s="676" t="s">
         <v>33</v>
       </c>
-      <c r="E5" s="675"/>
-      <c r="F5" s="675"/>
-      <c r="G5" s="675"/>
-      <c r="H5" s="675"/>
-      <c r="I5" s="676"/>
-      <c r="J5" s="640" t="s">
+      <c r="E5" s="676"/>
+      <c r="F5" s="676"/>
+      <c r="G5" s="676"/>
+      <c r="H5" s="676"/>
+      <c r="I5" s="677"/>
+      <c r="J5" s="641" t="s">
         <v>206</v>
       </c>
-      <c r="K5" s="642" t="s">
+      <c r="K5" s="643" t="s">
         <v>207</v>
       </c>
-      <c r="L5" s="644" t="s">
+      <c r="L5" s="645" t="s">
         <v>195</v>
       </c>
       <c r="M5" s="39"/>
     </row>
     <row r="6" spans="2:13" x14ac:dyDescent="0.25">
-      <c r="B6" s="649"/>
-      <c r="C6" s="667"/>
+      <c r="B6" s="670"/>
+      <c r="C6" s="660"/>
       <c r="D6" s="151" t="s">
         <v>46</v>
       </c>
@@ -25453,9 +25453,9 @@
       <c r="I6" s="153" t="s">
         <v>50</v>
       </c>
-      <c r="J6" s="649"/>
-      <c r="K6" s="651"/>
-      <c r="L6" s="674"/>
+      <c r="J6" s="670"/>
+      <c r="K6" s="672"/>
+      <c r="L6" s="675"/>
       <c r="M6" s="39"/>
     </row>
     <row r="7" spans="2:13" x14ac:dyDescent="0.25">
